--- a/01_notebooks_jsoncsv_new_copy/check_logic_2024-09-10/lu_questions_cond_rec_CHECK_LOGIC_2024-09-10.xlsx
+++ b/01_notebooks_jsoncsv_new_copy/check_logic_2024-09-10/lu_questions_cond_rec_CHECK_LOGIC_2024-09-10.xlsx
@@ -8,29 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cassi\Documents\GitHub_AB-RCSC\rc-decision-support-tool\01_notebooks_jsoncsv_new_copy\check_logic_2024-09-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE513166-23AB-4CD9-8EF5-B03EABE30430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3161DD9-FE81-4EDD-9195-2668F0ED94D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1080" windowWidth="29040" windowHeight="15720" tabRatio="807" activeTab="2" xr2:uid="{A3A66B7D-82F1-429E-93DA-F36142727237}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="807" xr2:uid="{A3A66B7D-82F1-429E-93DA-F36142727237}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="18" r:id="rId1"/>
-    <sheet name="questions" sheetId="15" r:id="rId2"/>
-    <sheet name="rec_mod_approach" sheetId="5" r:id="rId3"/>
-    <sheet name="sample-design_FIX2" sheetId="14" r:id="rId4"/>
-    <sheet name="rec_analysis_consideration" sheetId="2" r:id="rId5"/>
-    <sheet name="lu_objective" sheetId="11" r:id="rId6"/>
-    <sheet name="lu_approach" sheetId="9" r:id="rId7"/>
-    <sheet name="lu_objective_approach" sheetId="12" r:id="rId8"/>
-    <sheet name="lu_rec_sample_design_type" sheetId="10" r:id="rId9"/>
+    <sheet name="questions" sheetId="15" r:id="rId1"/>
+    <sheet name="rec_mod_approach" sheetId="5" r:id="rId2"/>
+    <sheet name="rec_sample_design" sheetId="14" r:id="rId3"/>
+    <sheet name="rec_analysis_consideration" sheetId="2" r:id="rId4"/>
+    <sheet name="lu_objective" sheetId="11" r:id="rId5"/>
+    <sheet name="lu_approach" sheetId="9" r:id="rId6"/>
+    <sheet name="lu_objective_approach" sheetId="12" r:id="rId7"/>
+    <sheet name="lu_rec_sample_design_type" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">lu_approach!$A$1:$I$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">lu_objective_approach!$A$1:$D$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">lu_rec_sample_design_type!$A$1:$C$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">questions!$A$1:$AD$63</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">rec_analysis_consideration!$A$1:$I$55</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">rec_mod_approach!$A$1:$V$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'sample-design_FIX2'!$A$1:$AT$317</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">lu_approach!$A$1:$I$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">lu_objective_approach!$A$1:$D$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">lu_rec_sample_design_type!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">questions!$A$1:$AD$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">rec_analysis_consideration!$A$1:$I$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">rec_mod_approach!$A$1:$V$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">rec_sample_design!$A$1:$AT$317</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7670" uniqueCount="1457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7667" uniqueCount="1455">
   <si>
     <t>field_code</t>
   </si>
@@ -4691,12 +4690,6 @@
       </rPr>
       <t xml:space="preserve"> | (objective=="obj_density" &amp; sp_type=="ungulate")</t>
     </r>
-  </si>
-  <si>
-    <t>rec_mod_approach</t>
-  </si>
-  <si>
-    <t>see</t>
   </si>
   <si>
     <t>{
@@ -5870,16 +5863,7 @@
     <xf numFmtId="0" fontId="19" fillId="50" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="49" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5937,6 +5921,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6589,20 +6582,20 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2F2F2"/>
+          <bgColor rgb="FFF2F2F2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6655,11 +6648,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6676,11 +6669,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6770,8 +6763,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFDEEAF6"/>
-          <bgColor rgb="FFDEEAF6"/>
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FFB4C6E7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6786,16 +6779,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB4C6E7"/>
-          <bgColor rgb="FFB4C6E7"/>
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFD9"/>
-          <bgColor rgb="FFE2EFD9"/>
+          <fgColor rgb="FFEDE2F6"/>
+          <bgColor rgb="FFEDE2F6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6810,8 +6803,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEDE2F6"/>
-          <bgColor rgb="FFEDE2F6"/>
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6876,30 +6869,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFDEEAF6"/>
-          <bgColor rgb="FFDEEAF6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4C6E7"/>
-          <bgColor rgb="FFB4C6E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFE2EFD9"/>
           <bgColor rgb="FFE2EFD9"/>
         </patternFill>
@@ -6916,8 +6885,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFDEEAF6"/>
-          <bgColor rgb="FFDEEAF6"/>
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FFB4C6E7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6932,8 +6901,24 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB4C6E7"/>
-          <bgColor rgb="FFB4C6E7"/>
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6962,13 +6947,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FFB4C6E7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7029,12 +7011,39 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFEB9C"/>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFBE4D5"/>
+          <bgColor rgb="FFFBE4D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEDE2F6"/>
+          <bgColor rgb="FFEDE2F6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7073,16 +7082,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFBE4D5"/>
-          <bgColor rgb="FFFBE4D5"/>
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEDE2F6"/>
-          <bgColor rgb="FFEDE2F6"/>
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FFB4C6E7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7123,22 +7132,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFE2EFD9"/>
           <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4C6E7"/>
-          <bgColor rgb="FFB4C6E7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7990,47 +7983,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46958FD-7DF8-43EE-9B4B-F0BA9D2482C9}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="39.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B2" s="144" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260BE9CE-387F-4F42-A5F5-4E4C233FDEAB}">
   <sheetPr filterMode="1">
     <tabColor rgb="FFFBE4D5"/>
   </sheetPr>
   <dimension ref="A1:AD63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15"/>
@@ -8062,141 +8023,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="22.5" customHeight="1">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="132" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="128" t="s">
         <v>1439</v>
       </c>
-      <c r="C1" s="137" t="s">
+      <c r="C1" s="134" t="s">
         <v>1438</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="127" t="s">
         <v>1437</v>
       </c>
-      <c r="E1" s="136" t="s">
+      <c r="E1" s="133" t="s">
         <v>1436</v>
       </c>
-      <c r="F1" s="130" t="s">
+      <c r="F1" s="127" t="s">
         <v>1435</v>
       </c>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="127" t="s">
         <v>1434</v>
       </c>
-      <c r="H1" s="135" t="s">
+      <c r="H1" s="132" t="s">
         <v>1433</v>
       </c>
-      <c r="I1" s="133" t="s">
+      <c r="I1" s="130" t="s">
         <v>1432</v>
       </c>
-      <c r="J1" s="134" t="s">
+      <c r="J1" s="131" t="s">
         <v>1431</v>
       </c>
-      <c r="K1" s="134" t="s">
+      <c r="K1" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="L1" s="133" t="s">
+      <c r="L1" s="130" t="s">
         <v>1430</v>
       </c>
-      <c r="M1" s="132" t="s">
+      <c r="M1" s="129" t="s">
         <v>1429</v>
       </c>
-      <c r="N1" s="131" t="s">
+      <c r="N1" s="128" t="s">
         <v>1428</v>
       </c>
-      <c r="O1" s="131" t="s">
+      <c r="O1" s="128" t="s">
         <v>1427</v>
       </c>
-      <c r="P1" s="130" t="s">
+      <c r="P1" s="127" t="s">
         <v>1426</v>
       </c>
-      <c r="Q1" s="129" t="s">
+      <c r="Q1" s="126" t="s">
         <v>1425</v>
       </c>
-      <c r="R1" s="129" t="s">
+      <c r="R1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="129" t="s">
+      <c r="S1" s="126" t="s">
         <v>1424</v>
       </c>
-      <c r="T1" s="129" t="s">
+      <c r="T1" s="126" t="s">
         <v>1423</v>
       </c>
-      <c r="U1" s="128" t="s">
+      <c r="U1" s="125" t="s">
         <v>1422</v>
       </c>
-      <c r="V1" s="127" t="s">
+      <c r="V1" s="124" t="s">
         <v>530</v>
       </c>
-      <c r="W1" s="127" t="s">
+      <c r="W1" s="124" t="s">
         <v>529</v>
       </c>
-      <c r="X1" s="127" t="s">
+      <c r="X1" s="124" t="s">
         <v>531</v>
       </c>
-      <c r="Y1" s="127" t="s">
+      <c r="Y1" s="124" t="s">
         <v>528</v>
       </c>
-      <c r="Z1" s="127" t="s">
+      <c r="Z1" s="124" t="s">
         <v>526</v>
       </c>
-      <c r="AA1" s="127" t="s">
+      <c r="AA1" s="124" t="s">
         <v>601</v>
       </c>
-      <c r="AB1" s="127" t="s">
+      <c r="AB1" s="124" t="s">
         <v>532</v>
       </c>
-      <c r="AC1" s="127" t="s">
+      <c r="AC1" s="124" t="s">
         <v>527</v>
       </c>
       <c r="AD1" s="83" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="78.75">
+    <row r="2" spans="1:30" ht="63">
       <c r="A2" s="118" t="s">
         <v>463</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C2" s="95" t="s">
-        <v>1421</v>
+        <v>1398</v>
       </c>
       <c r="D2" s="87">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="E2" s="89">
         <v>0.1</v>
       </c>
       <c r="F2" s="87" t="str">
-        <f t="shared" ref="F2:F33" si="0">(D2+E2)&amp;"_"&amp;G2</f>
-        <v>47.1_cam_independent</v>
+        <f t="shared" ref="F2:F19" si="0">(D2+E2)&amp;"_"&amp;G2</f>
+        <v>2.1_objective</v>
       </c>
       <c r="G2" s="85" t="s">
-        <v>474</v>
-      </c>
-      <c r="H2" s="87" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I2" s="126" t="s">
-        <v>1420</v>
-      </c>
-      <c r="J2" s="121" t="s">
-        <v>1419</v>
+        <v>475</v>
+      </c>
+      <c r="H2" s="114" t="s">
+        <v>1210</v>
+      </c>
+      <c r="I2" s="85" t="s">
+        <v>525</v>
+      </c>
+      <c r="J2" s="85" t="s">
+        <v>525</v>
       </c>
       <c r="K2" s="85"/>
       <c r="L2" s="85" t="s">
-        <v>1418</v>
+        <v>525</v>
       </c>
       <c r="M2" s="87" t="s">
         <v>525</v>
       </c>
-      <c r="N2" s="88" t="s">
-        <v>1196</v>
-      </c>
-      <c r="O2" s="88" t="s">
-        <v>1195</v>
+      <c r="N2" s="95" t="s">
+        <v>1397</v>
+      </c>
+      <c r="O2" s="95" t="s">
+        <v>1396</v>
       </c>
       <c r="P2" s="87" t="s">
         <v>996</v>
@@ -8208,180 +8169,180 @@
         <v>996</v>
       </c>
       <c r="S2" s="85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" s="85" t="s">
-        <v>996</v>
-      </c>
-      <c r="U2" s="85" t="s">
-        <v>996</v>
-      </c>
-      <c r="V2" s="84" t="b">
-        <v>1</v>
-      </c>
-      <c r="W2" s="84" t="s">
-        <v>996</v>
-      </c>
-      <c r="X2" s="84" t="s">
-        <v>996</v>
-      </c>
-      <c r="Y2" s="84" t="s">
-        <v>996</v>
-      </c>
-      <c r="Z2" s="84" t="s">
-        <v>996</v>
-      </c>
-      <c r="AA2" s="84" t="s">
-        <v>996</v>
-      </c>
-      <c r="AB2" s="84" t="s">
-        <v>996</v>
-      </c>
-      <c r="AC2" s="84" t="s">
+        <v>1395</v>
+      </c>
+      <c r="U2" s="87" t="s">
+        <v>1394</v>
+      </c>
+      <c r="V2" s="92" t="s">
+        <v>996</v>
+      </c>
+      <c r="W2" s="92" t="s">
+        <v>996</v>
+      </c>
+      <c r="X2" s="92" t="s">
+        <v>996</v>
+      </c>
+      <c r="Y2" s="92" t="s">
+        <v>996</v>
+      </c>
+      <c r="Z2" s="92" t="s">
+        <v>996</v>
+      </c>
+      <c r="AA2" s="92" t="s">
+        <v>996</v>
+      </c>
+      <c r="AB2" s="92" t="s">
+        <v>996</v>
+      </c>
+      <c r="AC2" s="92" t="s">
         <v>996</v>
       </c>
       <c r="AD2" s="83" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="110.25">
+    <row r="3" spans="1:30" ht="15.75">
       <c r="A3" s="118" t="s">
         <v>463</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="95" t="s">
-        <v>1417</v>
+        <v>615</v>
+      </c>
+      <c r="C3" s="143" t="s">
+        <v>1407</v>
       </c>
       <c r="D3" s="87">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="89">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F3" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>6.1_cam_strat_covar</v>
+        <v>3.2_num_cams</v>
       </c>
       <c r="G3" s="85" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="H3" s="85" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I3" s="126" t="s">
-        <v>1416</v>
-      </c>
-      <c r="J3" s="121" t="s">
-        <v>1180</v>
+        <v>1220</v>
+      </c>
+      <c r="I3" s="85" t="s">
+        <v>525</v>
+      </c>
+      <c r="J3" s="85" t="s">
+        <v>525</v>
       </c>
       <c r="K3" s="85"/>
       <c r="L3" s="85" t="s">
-        <v>1180</v>
+        <v>525</v>
       </c>
       <c r="M3" s="87" t="s">
         <v>525</v>
       </c>
       <c r="N3" s="95" t="s">
-        <v>1196</v>
+        <v>35</v>
       </c>
       <c r="O3" s="95" t="s">
-        <v>1195</v>
+        <v>35</v>
       </c>
       <c r="P3" s="87" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="Q3" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" s="85" t="s">
-        <v>1414</v>
+        <v>0</v>
+      </c>
+      <c r="R3" s="86" t="s">
+        <v>996</v>
       </c>
       <c r="S3" s="85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" s="85" t="s">
-        <v>1413</v>
+        <v>996</v>
       </c>
       <c r="U3" s="85" t="s">
-        <v>1412</v>
-      </c>
-      <c r="V3" s="84" t="s">
-        <v>996</v>
-      </c>
-      <c r="W3" s="84" t="b">
-        <v>1</v>
-      </c>
-      <c r="X3" s="84" t="s">
-        <v>996</v>
-      </c>
-      <c r="Y3" s="84" t="s">
-        <v>996</v>
-      </c>
-      <c r="Z3" s="84" t="s">
-        <v>996</v>
-      </c>
-      <c r="AA3" s="84" t="s">
-        <v>996</v>
-      </c>
-      <c r="AB3" s="84" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="84" t="b">
-        <v>1</v>
+        <v>996</v>
+      </c>
+      <c r="V3" s="92" t="s">
+        <v>996</v>
+      </c>
+      <c r="W3" s="92" t="s">
+        <v>996</v>
+      </c>
+      <c r="X3" s="92" t="s">
+        <v>996</v>
+      </c>
+      <c r="Y3" s="92" t="s">
+        <v>996</v>
+      </c>
+      <c r="Z3" s="92" t="s">
+        <v>996</v>
+      </c>
+      <c r="AA3" s="92" t="s">
+        <v>996</v>
+      </c>
+      <c r="AB3" s="92" t="s">
+        <v>996</v>
+      </c>
+      <c r="AC3" s="92" t="s">
+        <v>996</v>
       </c>
       <c r="AD3" s="83" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="110.25">
+    <row r="4" spans="1:30" ht="31.5">
       <c r="A4" s="118" t="s">
         <v>463</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C4" s="125" t="s">
-        <v>1411</v>
+        <v>1405</v>
+      </c>
+      <c r="C4" s="112" t="s">
+        <v>1404</v>
       </c>
       <c r="D4" s="87">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" s="89">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F4" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>6.2_cam_strat_covar</v>
+        <v>3.1_num_cams</v>
       </c>
       <c r="G4" s="85" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="H4" s="85" t="s">
-        <v>1220</v>
+        <v>1198</v>
       </c>
       <c r="I4" s="85" t="s">
-        <v>1410</v>
-      </c>
-      <c r="J4" s="121" t="s">
-        <v>1409</v>
+        <v>525</v>
+      </c>
+      <c r="J4" s="85" t="s">
+        <v>525</v>
       </c>
       <c r="K4" s="85"/>
       <c r="L4" s="85" t="s">
-        <v>1180</v>
+        <v>525</v>
       </c>
       <c r="M4" s="87" t="s">
         <v>525</v>
       </c>
       <c r="N4" s="95" t="s">
-        <v>35</v>
+        <v>1196</v>
       </c>
       <c r="O4" s="95" t="s">
-        <v>35</v>
+        <v>1195</v>
       </c>
       <c r="P4" s="87" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="Q4" s="85" t="b">
         <v>0</v>
@@ -8398,172 +8359,172 @@
       <c r="U4" s="85" t="s">
         <v>996</v>
       </c>
-      <c r="V4" s="84" t="s">
-        <v>996</v>
-      </c>
-      <c r="W4" s="84" t="b">
-        <v>1</v>
-      </c>
-      <c r="X4" s="84" t="s">
-        <v>996</v>
-      </c>
-      <c r="Y4" s="84" t="s">
-        <v>996</v>
-      </c>
-      <c r="Z4" s="84" t="s">
-        <v>996</v>
-      </c>
-      <c r="AA4" s="84" t="s">
-        <v>996</v>
-      </c>
-      <c r="AB4" s="84" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="84" t="b">
-        <v>1</v>
+      <c r="V4" s="92" t="s">
+        <v>996</v>
+      </c>
+      <c r="W4" s="92" t="s">
+        <v>996</v>
+      </c>
+      <c r="X4" s="92" t="s">
+        <v>996</v>
+      </c>
+      <c r="Y4" s="92" t="s">
+        <v>996</v>
+      </c>
+      <c r="Z4" s="92" t="s">
+        <v>996</v>
+      </c>
+      <c r="AA4" s="92" t="s">
+        <v>996</v>
+      </c>
+      <c r="AB4" s="92" t="s">
+        <v>996</v>
+      </c>
+      <c r="AC4" s="92" t="s">
+        <v>996</v>
       </c>
       <c r="AD4" s="83" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15.75">
+    <row r="5" spans="1:30" ht="110.25">
       <c r="A5" s="118" t="s">
         <v>463</v>
       </c>
       <c r="B5" s="91" t="s">
-        <v>615</v>
-      </c>
-      <c r="C5" s="124" t="s">
-        <v>1407</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="122" t="s">
+        <v>1417</v>
       </c>
       <c r="D5" s="87">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E5" s="89">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F5" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>3.2_num_cams</v>
+        <v>6.1_cam_strat_covar</v>
       </c>
       <c r="G5" s="85" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="H5" s="85" t="s">
-        <v>1220</v>
-      </c>
-      <c r="I5" s="85" t="s">
-        <v>525</v>
-      </c>
-      <c r="J5" s="85" t="s">
-        <v>525</v>
+        <v>1198</v>
+      </c>
+      <c r="I5" s="123" t="s">
+        <v>1416</v>
+      </c>
+      <c r="J5" s="121" t="s">
+        <v>1180</v>
       </c>
       <c r="K5" s="85"/>
       <c r="L5" s="85" t="s">
-        <v>525</v>
+        <v>1180</v>
       </c>
       <c r="M5" s="87" t="s">
         <v>525</v>
       </c>
       <c r="N5" s="95" t="s">
-        <v>35</v>
+        <v>1196</v>
       </c>
       <c r="O5" s="95" t="s">
-        <v>35</v>
+        <v>1195</v>
       </c>
       <c r="P5" s="87" t="s">
-        <v>1406</v>
+        <v>1415</v>
       </c>
       <c r="Q5" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="86" t="s">
-        <v>996</v>
+        <v>1</v>
+      </c>
+      <c r="R5" s="85" t="s">
+        <v>1414</v>
       </c>
       <c r="S5" s="85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="85" t="s">
-        <v>996</v>
+        <v>1413</v>
       </c>
       <c r="U5" s="85" t="s">
-        <v>996</v>
-      </c>
-      <c r="V5" s="92" t="s">
-        <v>996</v>
-      </c>
-      <c r="W5" s="92" t="s">
-        <v>996</v>
-      </c>
-      <c r="X5" s="92" t="s">
-        <v>996</v>
-      </c>
-      <c r="Y5" s="92" t="s">
-        <v>996</v>
-      </c>
-      <c r="Z5" s="92" t="s">
-        <v>996</v>
-      </c>
-      <c r="AA5" s="92" t="s">
-        <v>996</v>
-      </c>
-      <c r="AB5" s="92" t="s">
-        <v>996</v>
-      </c>
-      <c r="AC5" s="92" t="s">
-        <v>996</v>
+        <v>1412</v>
+      </c>
+      <c r="V5" s="84" t="s">
+        <v>996</v>
+      </c>
+      <c r="W5" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="X5" s="84" t="s">
+        <v>996</v>
+      </c>
+      <c r="Y5" s="84" t="s">
+        <v>996</v>
+      </c>
+      <c r="Z5" s="84" t="s">
+        <v>996</v>
+      </c>
+      <c r="AA5" s="84" t="s">
+        <v>996</v>
+      </c>
+      <c r="AB5" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="84" t="b">
+        <v>1</v>
       </c>
       <c r="AD5" s="83" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="31.5">
+    <row r="6" spans="1:30" ht="110.25">
       <c r="A6" s="118" t="s">
         <v>463</v>
       </c>
       <c r="B6" s="91" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C6" s="95" t="s">
-        <v>1404</v>
+        <v>1096</v>
+      </c>
+      <c r="C6" s="143" t="s">
+        <v>1411</v>
       </c>
       <c r="D6" s="87">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6" s="89">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F6" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>3.1_num_cams</v>
+        <v>6.2_cam_strat_covar</v>
       </c>
       <c r="G6" s="85" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="H6" s="85" t="s">
-        <v>1198</v>
+        <v>1220</v>
       </c>
       <c r="I6" s="85" t="s">
-        <v>525</v>
-      </c>
-      <c r="J6" s="85" t="s">
-        <v>525</v>
+        <v>1410</v>
+      </c>
+      <c r="J6" s="121" t="s">
+        <v>1409</v>
       </c>
       <c r="K6" s="85"/>
       <c r="L6" s="85" t="s">
-        <v>525</v>
+        <v>1180</v>
       </c>
       <c r="M6" s="87" t="s">
         <v>525</v>
       </c>
       <c r="N6" s="95" t="s">
-        <v>1196</v>
+        <v>35</v>
       </c>
       <c r="O6" s="95" t="s">
-        <v>1195</v>
+        <v>35</v>
       </c>
       <c r="P6" s="87" t="s">
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="Q6" s="85" t="b">
         <v>0</v>
@@ -8580,210 +8541,208 @@
       <c r="U6" s="85" t="s">
         <v>996</v>
       </c>
-      <c r="V6" s="92" t="s">
-        <v>996</v>
-      </c>
-      <c r="W6" s="92" t="s">
-        <v>996</v>
-      </c>
-      <c r="X6" s="92" t="s">
-        <v>996</v>
-      </c>
-      <c r="Y6" s="92" t="s">
-        <v>996</v>
-      </c>
-      <c r="Z6" s="92" t="s">
-        <v>996</v>
-      </c>
-      <c r="AA6" s="92" t="s">
-        <v>996</v>
-      </c>
-      <c r="AB6" s="92" t="s">
-        <v>996</v>
-      </c>
-      <c r="AC6" s="92" t="s">
-        <v>996</v>
+      <c r="V6" s="84" t="s">
+        <v>996</v>
+      </c>
+      <c r="W6" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="X6" s="84" t="s">
+        <v>996</v>
+      </c>
+      <c r="Y6" s="84" t="s">
+        <v>996</v>
+      </c>
+      <c r="Z6" s="84" t="s">
+        <v>996</v>
+      </c>
+      <c r="AA6" s="84" t="s">
+        <v>996</v>
+      </c>
+      <c r="AB6" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="84" t="b">
+        <v>1</v>
       </c>
       <c r="AD6" s="83" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="31.5">
+    <row r="7" spans="1:30" ht="47.25">
       <c r="A7" s="118" t="s">
         <v>463</v>
       </c>
-      <c r="B7" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="95" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D7" s="87">
-        <v>12</v>
-      </c>
-      <c r="E7" s="89">
-        <v>0.1</v>
+      <c r="B7" s="117" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C7" s="114" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D7" s="116">
+        <v>8</v>
+      </c>
+      <c r="E7" s="120">
+        <v>0.2</v>
       </c>
       <c r="F7" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>12.1_obj_targ_sp</v>
-      </c>
-      <c r="G7" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="85" t="s">
-        <v>1210</v>
-      </c>
-      <c r="I7" s="85" t="s">
+        <v>8.2_surv_dur_min_max</v>
+      </c>
+      <c r="G7" s="114" t="s">
+        <v>481</v>
+      </c>
+      <c r="H7" s="114" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I7" s="114" t="s">
         <v>525</v>
       </c>
       <c r="J7" s="85" t="s">
         <v>525</v>
       </c>
       <c r="K7" s="85"/>
-      <c r="L7" s="85" t="s">
-        <v>525</v>
-      </c>
-      <c r="M7" s="87" t="s">
-        <v>525</v>
-      </c>
-      <c r="N7" s="95" t="s">
-        <v>1401</v>
-      </c>
-      <c r="O7" s="95" t="s">
-        <v>1400</v>
-      </c>
-      <c r="P7" s="87" t="s">
-        <v>996</v>
-      </c>
-      <c r="Q7" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="R7" s="85" t="s">
-        <v>1399</v>
-      </c>
-      <c r="S7" s="85" t="b">
+      <c r="L7" s="114" t="s">
+        <v>525</v>
+      </c>
+      <c r="M7" s="116" t="s">
+        <v>525</v>
+      </c>
+      <c r="N7" s="114" t="s">
+        <v>1339</v>
+      </c>
+      <c r="O7" s="114" t="s">
+        <v>1195</v>
+      </c>
+      <c r="P7" s="116" t="s">
+        <v>1342</v>
+      </c>
+      <c r="Q7" s="114" t="b">
         <v>0</v>
       </c>
-      <c r="T7" s="85" t="s">
-        <v>996</v>
-      </c>
-      <c r="U7" s="85" t="s">
-        <v>996</v>
-      </c>
-      <c r="V7" s="84" t="s">
-        <v>996</v>
-      </c>
-      <c r="W7" s="84" t="s">
-        <v>996</v>
-      </c>
-      <c r="X7" s="84" t="s">
-        <v>996</v>
-      </c>
-      <c r="Y7" s="84" t="s">
-        <v>996</v>
-      </c>
-      <c r="Z7" s="84" t="s">
-        <v>996</v>
-      </c>
-      <c r="AA7" s="84" t="s">
-        <v>996</v>
-      </c>
-      <c r="AB7" s="84" t="s">
-        <v>996</v>
-      </c>
-      <c r="AC7" s="84" t="s">
-        <v>996</v>
-      </c>
-      <c r="AD7" s="96" t="s">
+      <c r="R7" s="115" t="s">
+        <v>996</v>
+      </c>
+      <c r="S7" s="114" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="114" t="s">
+        <v>996</v>
+      </c>
+      <c r="U7" s="114" t="s">
+        <v>996</v>
+      </c>
+      <c r="V7" s="113" t="s">
+        <v>996</v>
+      </c>
+      <c r="W7" s="113" t="s">
+        <v>996</v>
+      </c>
+      <c r="X7" s="113" t="s">
+        <v>996</v>
+      </c>
+      <c r="Y7" s="113" t="s">
+        <v>996</v>
+      </c>
+      <c r="Z7" s="113" t="s">
+        <v>996</v>
+      </c>
+      <c r="AA7" s="113" t="s">
+        <v>996</v>
+      </c>
+      <c r="AB7" s="113" t="s">
+        <v>996</v>
+      </c>
+      <c r="AC7" s="113" t="s">
+        <v>996</v>
+      </c>
+      <c r="AD7" s="83" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="63">
+    <row r="8" spans="1:30" ht="47.25">
       <c r="A8" s="118" t="s">
         <v>463</v>
       </c>
-      <c r="B8" s="91" t="s">
-        <v>475</v>
-      </c>
-      <c r="C8" s="112" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D8" s="87">
-        <v>2</v>
+      <c r="B8" s="117" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C8" s="142" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D8" s="116">
+        <v>8</v>
       </c>
       <c r="E8" s="89">
         <v>0.1</v>
       </c>
       <c r="F8" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>2.1_objective</v>
-      </c>
-      <c r="G8" s="85" t="s">
-        <v>475</v>
+        <v>8.1_surv_dur_min_max</v>
+      </c>
+      <c r="G8" s="114" t="s">
+        <v>481</v>
       </c>
       <c r="H8" s="114" t="s">
-        <v>1210</v>
-      </c>
-      <c r="I8" s="85" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I8" s="114" t="s">
         <v>525</v>
       </c>
       <c r="J8" s="85" t="s">
         <v>525</v>
       </c>
       <c r="K8" s="85"/>
-      <c r="L8" s="85" t="s">
-        <v>525</v>
-      </c>
-      <c r="M8" s="87" t="s">
-        <v>525</v>
-      </c>
-      <c r="N8" s="95" t="s">
-        <v>1397</v>
-      </c>
-      <c r="O8" s="95" t="s">
-        <v>1396</v>
-      </c>
-      <c r="P8" s="87" t="s">
-        <v>996</v>
-      </c>
-      <c r="Q8" s="85" t="b">
+      <c r="L8" s="114" t="s">
+        <v>525</v>
+      </c>
+      <c r="M8" s="116" t="s">
+        <v>525</v>
+      </c>
+      <c r="N8" s="114" t="s">
+        <v>1339</v>
+      </c>
+      <c r="O8" s="114" t="s">
+        <v>1195</v>
+      </c>
+      <c r="P8" s="116" t="s">
+        <v>1338</v>
+      </c>
+      <c r="Q8" s="114" t="b">
         <v>0</v>
       </c>
-      <c r="R8" s="86" t="s">
-        <v>996</v>
-      </c>
-      <c r="S8" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="T8" s="85" t="s">
-        <v>1395</v>
-      </c>
-      <c r="U8" s="87" t="s">
-        <v>1394</v>
-      </c>
-      <c r="V8" s="92" t="s">
-        <v>996</v>
-      </c>
-      <c r="W8" s="92" t="s">
-        <v>996</v>
-      </c>
-      <c r="X8" s="92" t="s">
-        <v>996</v>
-      </c>
-      <c r="Y8" s="92" t="s">
-        <v>996</v>
-      </c>
-      <c r="Z8" s="92" t="s">
-        <v>996</v>
-      </c>
-      <c r="AA8" s="92" t="s">
-        <v>996</v>
-      </c>
-      <c r="AB8" s="92" t="s">
-        <v>996</v>
-      </c>
-      <c r="AC8" s="92" t="s">
+      <c r="R8" s="115" t="s">
+        <v>996</v>
+      </c>
+      <c r="S8" s="114" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="114" t="s">
+        <v>996</v>
+      </c>
+      <c r="U8" s="114"/>
+      <c r="V8" s="113" t="s">
+        <v>996</v>
+      </c>
+      <c r="W8" s="113" t="s">
+        <v>996</v>
+      </c>
+      <c r="X8" s="113" t="s">
+        <v>996</v>
+      </c>
+      <c r="Y8" s="113" t="s">
+        <v>996</v>
+      </c>
+      <c r="Z8" s="113" t="s">
+        <v>996</v>
+      </c>
+      <c r="AA8" s="113" t="s">
+        <v>996</v>
+      </c>
+      <c r="AB8" s="113" t="s">
+        <v>996</v>
+      </c>
+      <c r="AC8" s="113" t="s">
         <v>996</v>
       </c>
       <c r="AD8" s="83" t="s">
@@ -8797,7 +8756,7 @@
       <c r="B9" s="91" t="s">
         <v>476</v>
       </c>
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="122" t="s">
         <v>1393</v>
       </c>
       <c r="D9" s="87">
@@ -8881,83 +8840,83 @@
         <v>621</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="157.5">
+    <row r="10" spans="1:30" ht="31.5">
       <c r="A10" s="118" t="s">
         <v>463</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C10" s="95" t="s">
-        <v>1388</v>
+        <v>1402</v>
       </c>
       <c r="D10" s="87">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E10" s="89">
         <v>0.1</v>
       </c>
       <c r="F10" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>20.1_sp_detprob_cat</v>
+        <v>12.1_obj_targ_sp</v>
       </c>
       <c r="G10" s="85" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H10" s="85" t="s">
         <v>1210</v>
       </c>
       <c r="I10" s="85" t="s">
-        <v>1387</v>
-      </c>
-      <c r="J10" s="121" t="s">
-        <v>1249</v>
+        <v>525</v>
+      </c>
+      <c r="J10" s="85" t="s">
+        <v>525</v>
       </c>
       <c r="K10" s="85"/>
       <c r="L10" s="85" t="s">
-        <v>1386</v>
+        <v>525</v>
       </c>
       <c r="M10" s="87" t="s">
         <v>525</v>
       </c>
       <c r="N10" s="95" t="s">
-        <v>1245</v>
+        <v>1401</v>
       </c>
       <c r="O10" s="95" t="s">
-        <v>1244</v>
+        <v>1400</v>
       </c>
       <c r="P10" s="87" t="s">
-        <v>1241</v>
+        <v>996</v>
       </c>
       <c r="Q10" s="85" t="b">
         <v>1</v>
       </c>
       <c r="R10" s="85" t="s">
-        <v>1385</v>
+        <v>1399</v>
       </c>
       <c r="S10" s="85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="85" t="s">
-        <v>1384</v>
-      </c>
-      <c r="U10" s="100" t="s">
-        <v>1383</v>
-      </c>
-      <c r="V10" s="84" t="b">
-        <v>1</v>
+        <v>996</v>
+      </c>
+      <c r="U10" s="85" t="s">
+        <v>996</v>
+      </c>
+      <c r="V10" s="84" t="s">
+        <v>996</v>
       </c>
       <c r="W10" s="84" t="s">
         <v>996</v>
       </c>
-      <c r="X10" s="84" t="b">
-        <v>1</v>
+      <c r="X10" s="84" t="s">
+        <v>996</v>
       </c>
       <c r="Y10" s="84" t="s">
         <v>996</v>
       </c>
-      <c r="Z10" s="84" t="b">
-        <v>1</v>
+      <c r="Z10" s="84" t="s">
+        <v>996</v>
       </c>
       <c r="AA10" s="84" t="s">
         <v>996</v>
@@ -8968,56 +8927,54 @@
       <c r="AC10" s="84" t="s">
         <v>996</v>
       </c>
-      <c r="AD10" s="83" t="s">
+      <c r="AD10" s="96" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="204.75">
+    <row r="11" spans="1:30" ht="126">
       <c r="A11" s="118" t="s">
         <v>463</v>
       </c>
-      <c r="B11" s="117" t="s">
-        <v>477</v>
+      <c r="B11" s="91" t="s">
+        <v>478</v>
       </c>
       <c r="C11" s="112" t="s">
-        <v>1382</v>
+        <v>1372</v>
       </c>
       <c r="D11" s="87">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E11" s="89">
         <v>0.1</v>
       </c>
       <c r="F11" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>17.1_sp_hr_size</v>
+        <v>13.1_sp_info</v>
       </c>
       <c r="G11" s="85" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H11" s="85" t="s">
         <v>1210</v>
       </c>
-      <c r="I11" s="114" t="s">
-        <v>1381</v>
-      </c>
-      <c r="J11" s="85" t="s">
-        <v>1375</v>
-      </c>
-      <c r="K11" s="85" t="s">
-        <v>1374</v>
-      </c>
-      <c r="L11" s="114" t="s">
-        <v>1373</v>
+      <c r="I11" s="85" t="s">
+        <v>1371</v>
+      </c>
+      <c r="J11" s="121" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85" t="s">
+        <v>1369</v>
       </c>
       <c r="M11" s="87" t="s">
         <v>525</v>
       </c>
       <c r="N11" s="95" t="s">
-        <v>1380</v>
+        <v>1368</v>
       </c>
       <c r="O11" s="95" t="s">
-        <v>1195</v>
+        <v>1367</v>
       </c>
       <c r="P11" s="87" t="s">
         <v>996</v>
@@ -9029,13 +8986,13 @@
         <v>996</v>
       </c>
       <c r="S11" s="85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="85" t="s">
-        <v>1379</v>
+        <v>996</v>
       </c>
       <c r="U11" s="85" t="s">
-        <v>996</v>
+        <v>1366</v>
       </c>
       <c r="V11" s="84" t="s">
         <v>996</v>
@@ -9043,86 +9000,88 @@
       <c r="W11" s="84" t="s">
         <v>996</v>
       </c>
-      <c r="X11" s="84" t="b">
-        <v>1</v>
+      <c r="X11" s="84" t="s">
+        <v>996</v>
       </c>
       <c r="Y11" s="84" t="s">
         <v>996</v>
       </c>
-      <c r="Z11" s="84" t="b">
-        <v>1</v>
+      <c r="Z11" s="84" t="s">
+        <v>996</v>
       </c>
       <c r="AA11" s="84" t="s">
         <v>996</v>
       </c>
-      <c r="AB11" s="84" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="84" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="83" t="s">
+      <c r="AB11" s="84" t="s">
+        <v>996</v>
+      </c>
+      <c r="AC11" s="84" t="s">
+        <v>996</v>
+      </c>
+      <c r="AD11" s="96" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="204.75">
+    <row r="12" spans="1:30" ht="141.75">
       <c r="A12" s="118" t="s">
         <v>463</v>
       </c>
-      <c r="B12" s="117" t="s">
-        <v>477</v>
+      <c r="B12" s="91" t="s">
+        <v>480</v>
       </c>
       <c r="C12" s="112" t="s">
-        <v>1378</v>
+        <v>1351</v>
       </c>
       <c r="D12" s="87">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E12" s="89">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F12" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>17.2_sp_hr_size</v>
+        <v>14.1_sp_type</v>
       </c>
       <c r="G12" s="85" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H12" s="85" t="s">
-        <v>1377</v>
-      </c>
-      <c r="I12" s="114" t="s">
-        <v>1376</v>
-      </c>
-      <c r="J12" s="85" t="s">
-        <v>1375</v>
-      </c>
-      <c r="K12" s="85" t="s">
-        <v>1374</v>
-      </c>
-      <c r="L12" s="114" t="s">
-        <v>1373</v>
-      </c>
+        <v>1210</v>
+      </c>
+      <c r="I12" s="85" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J12" s="121" t="s">
+        <v>1349</v>
+      </c>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
       <c r="M12" s="87" t="s">
         <v>525</v>
       </c>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="87"/>
+      <c r="N12" s="95" t="s">
+        <v>1348</v>
+      </c>
+      <c r="O12" s="95" t="s">
+        <v>1347</v>
+      </c>
+      <c r="P12" s="87" t="s">
+        <v>996</v>
+      </c>
       <c r="Q12" s="85" t="b">
         <v>0</v>
       </c>
-      <c r="R12" s="85" t="s">
-        <v>996</v>
-      </c>
-      <c r="S12" s="85" t="s">
-        <v>35</v>
+      <c r="R12" s="86" t="s">
+        <v>996</v>
+      </c>
+      <c r="S12" s="85" t="b">
+        <v>1</v>
       </c>
       <c r="T12" s="85" t="s">
-        <v>996</v>
+        <v>1346</v>
       </c>
       <c r="U12" s="85" t="s">
-        <v>996</v>
+        <v>1345</v>
       </c>
       <c r="V12" s="84" t="s">
         <v>996</v>
@@ -9136,64 +9095,66 @@
       <c r="Y12" s="84" t="s">
         <v>996</v>
       </c>
-      <c r="Z12" s="84" t="s">
-        <v>996</v>
+      <c r="Z12" s="84" t="b">
+        <v>1</v>
       </c>
       <c r="AA12" s="84" t="s">
         <v>996</v>
       </c>
-      <c r="AB12" s="84" t="s">
-        <v>996</v>
+      <c r="AB12" s="84" t="b">
+        <v>1</v>
       </c>
       <c r="AC12" s="84" t="s">
         <v>996</v>
       </c>
-      <c r="AD12" s="83"/>
-    </row>
-    <row r="13" spans="1:30" ht="126">
+      <c r="AD12" s="96" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="141.75">
       <c r="A13" s="118" t="s">
         <v>463</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C13" s="95" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="D13" s="87">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E13" s="89">
         <v>0.1</v>
       </c>
       <c r="F13" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>13.1_sp_info</v>
+        <v>16.1_sp_occ_restr</v>
       </c>
       <c r="G13" s="85" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H13" s="85" t="s">
         <v>1210</v>
       </c>
       <c r="I13" s="85" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="J13" s="121" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="K13" s="85"/>
       <c r="L13" s="85" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="M13" s="87" t="s">
         <v>525</v>
       </c>
       <c r="N13" s="95" t="s">
-        <v>1368</v>
+        <v>1254</v>
       </c>
       <c r="O13" s="95" t="s">
-        <v>1367</v>
+        <v>1253</v>
       </c>
       <c r="P13" s="87" t="s">
         <v>996</v>
@@ -9211,10 +9172,10 @@
         <v>996</v>
       </c>
       <c r="U13" s="99" t="s">
-        <v>1366</v>
-      </c>
-      <c r="V13" s="84" t="s">
-        <v>996</v>
+        <v>1361</v>
+      </c>
+      <c r="V13" s="84" t="b">
+        <v>1</v>
       </c>
       <c r="W13" s="84" t="s">
         <v>996</v>
@@ -9225,8 +9186,8 @@
       <c r="Y13" s="84" t="s">
         <v>996</v>
       </c>
-      <c r="Z13" s="84" t="s">
-        <v>996</v>
+      <c r="Z13" s="84" t="b">
+        <v>1</v>
       </c>
       <c r="AA13" s="84" t="s">
         <v>996</v>
@@ -9237,54 +9198,56 @@
       <c r="AC13" s="84" t="s">
         <v>996</v>
       </c>
-      <c r="AD13" s="96" t="s">
+      <c r="AD13" s="83" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="141.75">
+    <row r="14" spans="1:30" ht="204.75">
       <c r="A14" s="118" t="s">
         <v>463</v>
       </c>
-      <c r="B14" s="91" t="s">
-        <v>479</v>
+      <c r="B14" s="117" t="s">
+        <v>477</v>
       </c>
       <c r="C14" s="95" t="s">
-        <v>1365</v>
+        <v>1382</v>
       </c>
       <c r="D14" s="87">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" s="89">
         <v>0.1</v>
       </c>
       <c r="F14" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>16.1_sp_occ_restr</v>
+        <v>17.1_sp_hr_size</v>
       </c>
       <c r="G14" s="85" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H14" s="85" t="s">
         <v>1210</v>
       </c>
-      <c r="I14" s="85" t="s">
-        <v>1364</v>
-      </c>
-      <c r="J14" s="121" t="s">
-        <v>1363</v>
-      </c>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85" t="s">
-        <v>1362</v>
+      <c r="I14" s="114" t="s">
+        <v>1381</v>
+      </c>
+      <c r="J14" s="85" t="s">
+        <v>1375</v>
+      </c>
+      <c r="K14" s="85" t="s">
+        <v>1374</v>
+      </c>
+      <c r="L14" s="114" t="s">
+        <v>1373</v>
       </c>
       <c r="M14" s="87" t="s">
         <v>525</v>
       </c>
       <c r="N14" s="95" t="s">
-        <v>1254</v>
+        <v>1380</v>
       </c>
       <c r="O14" s="95" t="s">
-        <v>1253</v>
+        <v>1195</v>
       </c>
       <c r="P14" s="87" t="s">
         <v>996</v>
@@ -9296,22 +9259,22 @@
         <v>996</v>
       </c>
       <c r="S14" s="85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="85" t="s">
-        <v>996</v>
+        <v>1379</v>
       </c>
       <c r="U14" s="85" t="s">
-        <v>1361</v>
-      </c>
-      <c r="V14" s="84" t="b">
+        <v>996</v>
+      </c>
+      <c r="V14" s="84" t="s">
+        <v>996</v>
+      </c>
+      <c r="W14" s="84" t="s">
+        <v>996</v>
+      </c>
+      <c r="X14" s="84" t="b">
         <v>1</v>
-      </c>
-      <c r="W14" s="84" t="s">
-        <v>996</v>
-      </c>
-      <c r="X14" s="84" t="s">
-        <v>996</v>
       </c>
       <c r="Y14" s="84" t="s">
         <v>996</v>
@@ -9322,11 +9285,11 @@
       <c r="AA14" s="84" t="s">
         <v>996</v>
       </c>
-      <c r="AB14" s="84" t="s">
-        <v>996</v>
-      </c>
-      <c r="AC14" s="84" t="s">
-        <v>996</v>
+      <c r="AB14" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="84" t="b">
+        <v>1</v>
       </c>
       <c r="AD14" s="83" t="s">
         <v>621</v>
@@ -9336,64 +9299,60 @@
       <c r="A15" s="118" t="s">
         <v>463</v>
       </c>
-      <c r="B15" s="91" t="s">
-        <v>19</v>
+      <c r="B15" s="117" t="s">
+        <v>477</v>
       </c>
       <c r="C15" s="95" t="s">
-        <v>1360</v>
+        <v>1378</v>
       </c>
       <c r="D15" s="87">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" s="89">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F15" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>19.1_sp_rarity</v>
+        <v>17.2_sp_hr_size</v>
       </c>
       <c r="G15" s="85" t="s">
-        <v>19</v>
+        <v>477</v>
       </c>
       <c r="H15" s="85" t="s">
-        <v>1210</v>
-      </c>
-      <c r="I15" s="85" t="s">
-        <v>1453</v>
-      </c>
-      <c r="J15" s="97" t="s">
-        <v>1359</v>
-      </c>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85" t="s">
-        <v>1359</v>
+        <v>1377</v>
+      </c>
+      <c r="I15" s="114" t="s">
+        <v>1376</v>
+      </c>
+      <c r="J15" s="85" t="s">
+        <v>1375</v>
+      </c>
+      <c r="K15" s="85" t="s">
+        <v>1374</v>
+      </c>
+      <c r="L15" s="114" t="s">
+        <v>1373</v>
       </c>
       <c r="M15" s="87" t="s">
         <v>525</v>
       </c>
-      <c r="N15" s="95" t="s">
-        <v>1235</v>
-      </c>
-      <c r="O15" s="95" t="s">
-        <v>1234</v>
-      </c>
-      <c r="P15" s="87" t="s">
-        <v>1241</v>
-      </c>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="87"/>
       <c r="Q15" s="85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="85" t="s">
-        <v>1358</v>
-      </c>
-      <c r="S15" s="85" t="b">
-        <v>1</v>
+        <v>996</v>
+      </c>
+      <c r="S15" s="85" t="s">
+        <v>35</v>
       </c>
       <c r="T15" s="85" t="s">
-        <v>1357</v>
-      </c>
-      <c r="U15" s="122" t="s">
-        <v>1356</v>
+        <v>996</v>
+      </c>
+      <c r="U15" s="99" t="s">
+        <v>996</v>
       </c>
       <c r="V15" s="84" t="s">
         <v>996</v>
@@ -9401,27 +9360,25 @@
       <c r="W15" s="84" t="s">
         <v>996</v>
       </c>
-      <c r="X15" s="84" t="b">
-        <v>1</v>
+      <c r="X15" s="84" t="s">
+        <v>996</v>
       </c>
       <c r="Y15" s="84" t="s">
         <v>996</v>
       </c>
-      <c r="Z15" s="84" t="b">
-        <v>1</v>
+      <c r="Z15" s="84" t="s">
+        <v>996</v>
       </c>
       <c r="AA15" s="84" t="s">
         <v>996</v>
       </c>
-      <c r="AB15" s="84" t="b">
-        <v>1</v>
+      <c r="AB15" s="84" t="s">
+        <v>996</v>
       </c>
       <c r="AC15" s="84" t="s">
         <v>996</v>
       </c>
-      <c r="AD15" s="87" t="s">
-        <v>621</v>
-      </c>
+      <c r="AD15" s="83"/>
     </row>
     <row r="16" spans="1:30" s="119" customFormat="1" ht="126">
       <c r="A16" s="118" t="s">
@@ -9514,66 +9471,68 @@
         <v>621</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="119" customFormat="1" ht="141.75">
+    <row r="17" spans="1:30" s="119" customFormat="1" ht="204.75">
       <c r="A17" s="118" t="s">
         <v>463</v>
       </c>
       <c r="B17" s="91" t="s">
-        <v>480</v>
+        <v>19</v>
       </c>
       <c r="C17" s="95" t="s">
-        <v>1351</v>
+        <v>1360</v>
       </c>
       <c r="D17" s="87">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E17" s="89">
         <v>0.1</v>
       </c>
       <c r="F17" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>14.1_sp_type</v>
+        <v>19.1_sp_rarity</v>
       </c>
       <c r="G17" s="85" t="s">
-        <v>480</v>
+        <v>19</v>
       </c>
       <c r="H17" s="85" t="s">
         <v>1210</v>
       </c>
       <c r="I17" s="85" t="s">
-        <v>1350</v>
-      </c>
-      <c r="J17" s="121" t="s">
-        <v>1349</v>
+        <v>1453</v>
+      </c>
+      <c r="J17" s="97" t="s">
+        <v>1359</v>
       </c>
       <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
+      <c r="L17" s="85" t="s">
+        <v>1359</v>
+      </c>
       <c r="M17" s="87" t="s">
         <v>525</v>
       </c>
       <c r="N17" s="95" t="s">
-        <v>1348</v>
+        <v>1235</v>
       </c>
       <c r="O17" s="95" t="s">
-        <v>1347</v>
+        <v>1234</v>
       </c>
       <c r="P17" s="87" t="s">
-        <v>996</v>
+        <v>1241</v>
       </c>
       <c r="Q17" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="R17" s="86" t="s">
-        <v>996</v>
+        <v>1</v>
+      </c>
+      <c r="R17" s="85" t="s">
+        <v>1358</v>
       </c>
       <c r="S17" s="85" t="b">
         <v>1</v>
       </c>
       <c r="T17" s="85" t="s">
-        <v>1346</v>
-      </c>
-      <c r="U17" s="85" t="s">
-        <v>1345</v>
+        <v>1357</v>
+      </c>
+      <c r="U17" s="144" t="s">
+        <v>1356</v>
       </c>
       <c r="V17" s="84" t="s">
         <v>996</v>
@@ -9581,8 +9540,8 @@
       <c r="W17" s="84" t="s">
         <v>996</v>
       </c>
-      <c r="X17" s="84" t="s">
-        <v>996</v>
+      <c r="X17" s="84" t="b">
+        <v>1</v>
       </c>
       <c r="Y17" s="84" t="s">
         <v>996</v>
@@ -9599,184 +9558,186 @@
       <c r="AC17" s="84" t="s">
         <v>996</v>
       </c>
-      <c r="AD17" s="96" t="s">
+      <c r="AD17" s="87" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="119" customFormat="1" ht="47.25">
+    <row r="18" spans="1:30" s="119" customFormat="1" ht="157.5">
       <c r="A18" s="118" t="s">
         <v>463</v>
       </c>
-      <c r="B18" s="117" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C18" s="114" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D18" s="116">
-        <v>8</v>
-      </c>
-      <c r="E18" s="120">
-        <v>0.2</v>
+      <c r="B18" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="95" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D18" s="87">
+        <v>20</v>
+      </c>
+      <c r="E18" s="89">
+        <v>0.1</v>
       </c>
       <c r="F18" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>8.2_surv_dur_min_max</v>
-      </c>
-      <c r="G18" s="114" t="s">
-        <v>481</v>
-      </c>
-      <c r="H18" s="114" t="s">
-        <v>1340</v>
-      </c>
-      <c r="I18" s="114" t="s">
-        <v>525</v>
-      </c>
-      <c r="J18" s="85" t="s">
-        <v>525</v>
+        <v>20.1_sp_detprob_cat</v>
+      </c>
+      <c r="G18" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="85" t="s">
+        <v>1210</v>
+      </c>
+      <c r="I18" s="85" t="s">
+        <v>1387</v>
+      </c>
+      <c r="J18" s="121" t="s">
+        <v>1249</v>
       </c>
       <c r="K18" s="85"/>
-      <c r="L18" s="114" t="s">
-        <v>525</v>
-      </c>
-      <c r="M18" s="116" t="s">
-        <v>525</v>
-      </c>
-      <c r="N18" s="114" t="s">
-        <v>1339</v>
-      </c>
-      <c r="O18" s="114" t="s">
-        <v>1195</v>
-      </c>
-      <c r="P18" s="116" t="s">
-        <v>1342</v>
-      </c>
-      <c r="Q18" s="114" t="b">
-        <v>0</v>
-      </c>
-      <c r="R18" s="115" t="s">
-        <v>996</v>
-      </c>
-      <c r="S18" s="114" t="b">
-        <v>0</v>
-      </c>
-      <c r="T18" s="114" t="s">
-        <v>996</v>
-      </c>
-      <c r="U18" s="114" t="s">
-        <v>996</v>
-      </c>
-      <c r="V18" s="113" t="s">
-        <v>996</v>
-      </c>
-      <c r="W18" s="113" t="s">
-        <v>996</v>
-      </c>
-      <c r="X18" s="113" t="s">
-        <v>996</v>
-      </c>
-      <c r="Y18" s="113" t="s">
-        <v>996</v>
-      </c>
-      <c r="Z18" s="113" t="s">
-        <v>996</v>
-      </c>
-      <c r="AA18" s="113" t="s">
-        <v>996</v>
-      </c>
-      <c r="AB18" s="113" t="s">
-        <v>996</v>
-      </c>
-      <c r="AC18" s="113" t="s">
+      <c r="L18" s="85" t="s">
+        <v>1386</v>
+      </c>
+      <c r="M18" s="87" t="s">
+        <v>525</v>
+      </c>
+      <c r="N18" s="95" t="s">
+        <v>1245</v>
+      </c>
+      <c r="O18" s="95" t="s">
+        <v>1244</v>
+      </c>
+      <c r="P18" s="87" t="s">
+        <v>1241</v>
+      </c>
+      <c r="Q18" s="85" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18" s="85" t="s">
+        <v>1385</v>
+      </c>
+      <c r="S18" s="85" t="b">
+        <v>1</v>
+      </c>
+      <c r="T18" s="85" t="s">
+        <v>1384</v>
+      </c>
+      <c r="U18" s="100" t="s">
+        <v>1383</v>
+      </c>
+      <c r="V18" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="W18" s="84" t="s">
+        <v>996</v>
+      </c>
+      <c r="X18" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="84" t="s">
+        <v>996</v>
+      </c>
+      <c r="Z18" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="84" t="s">
+        <v>996</v>
+      </c>
+      <c r="AB18" s="84" t="s">
+        <v>996</v>
+      </c>
+      <c r="AC18" s="84" t="s">
         <v>996</v>
       </c>
       <c r="AD18" s="83" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="47.25">
+    <row r="19" spans="1:30" ht="78.75">
       <c r="A19" s="118" t="s">
         <v>463</v>
       </c>
-      <c r="B19" s="117" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C19" s="114" t="s">
-        <v>1341</v>
-      </c>
-      <c r="D19" s="116">
-        <v>8</v>
+      <c r="B19" s="91" t="s">
+        <v>474</v>
+      </c>
+      <c r="C19" s="95" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D19" s="87">
+        <v>47</v>
       </c>
       <c r="E19" s="89">
         <v>0.1</v>
       </c>
       <c r="F19" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>8.1_surv_dur_min_max</v>
-      </c>
-      <c r="G19" s="114" t="s">
-        <v>481</v>
-      </c>
-      <c r="H19" s="114" t="s">
-        <v>1340</v>
-      </c>
-      <c r="I19" s="114" t="s">
-        <v>525</v>
-      </c>
-      <c r="J19" s="85" t="s">
-        <v>525</v>
+        <v>47.1_cam_independent</v>
+      </c>
+      <c r="G19" s="85" t="s">
+        <v>474</v>
+      </c>
+      <c r="H19" s="87" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I19" s="123" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J19" s="121" t="s">
+        <v>1419</v>
       </c>
       <c r="K19" s="85"/>
-      <c r="L19" s="114" t="s">
-        <v>525</v>
-      </c>
-      <c r="M19" s="116" t="s">
-        <v>525</v>
-      </c>
-      <c r="N19" s="114" t="s">
-        <v>1339</v>
-      </c>
-      <c r="O19" s="114" t="s">
+      <c r="L19" s="85" t="s">
+        <v>1418</v>
+      </c>
+      <c r="M19" s="87" t="s">
+        <v>525</v>
+      </c>
+      <c r="N19" s="88" t="s">
+        <v>1196</v>
+      </c>
+      <c r="O19" s="88" t="s">
         <v>1195</v>
       </c>
-      <c r="P19" s="116" t="s">
-        <v>1338</v>
-      </c>
-      <c r="Q19" s="114" t="b">
+      <c r="P19" s="87" t="s">
+        <v>996</v>
+      </c>
+      <c r="Q19" s="85" t="b">
         <v>0</v>
       </c>
-      <c r="R19" s="115" t="s">
-        <v>996</v>
-      </c>
-      <c r="S19" s="114" t="b">
+      <c r="R19" s="86" t="s">
+        <v>996</v>
+      </c>
+      <c r="S19" s="85" t="b">
         <v>0</v>
       </c>
-      <c r="T19" s="114" t="s">
-        <v>996</v>
-      </c>
-      <c r="U19" s="114"/>
-      <c r="V19" s="113" t="s">
-        <v>996</v>
-      </c>
-      <c r="W19" s="113" t="s">
-        <v>996</v>
-      </c>
-      <c r="X19" s="113" t="s">
-        <v>996</v>
-      </c>
-      <c r="Y19" s="113" t="s">
-        <v>996</v>
-      </c>
-      <c r="Z19" s="113" t="s">
-        <v>996</v>
-      </c>
-      <c r="AA19" s="113" t="s">
-        <v>996</v>
-      </c>
-      <c r="AB19" s="113" t="s">
-        <v>996</v>
-      </c>
-      <c r="AC19" s="113" t="s">
+      <c r="T19" s="85" t="s">
+        <v>996</v>
+      </c>
+      <c r="U19" s="85" t="s">
+        <v>996</v>
+      </c>
+      <c r="V19" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="W19" s="84" t="s">
+        <v>996</v>
+      </c>
+      <c r="X19" s="84" t="s">
+        <v>996</v>
+      </c>
+      <c r="Y19" s="84" t="s">
+        <v>996</v>
+      </c>
+      <c r="Z19" s="84" t="s">
+        <v>996</v>
+      </c>
+      <c r="AA19" s="84" t="s">
+        <v>996</v>
+      </c>
+      <c r="AB19" s="84" t="s">
+        <v>996</v>
+      </c>
+      <c r="AC19" s="84" t="s">
         <v>996</v>
       </c>
       <c r="AD19" s="83" t="s">
@@ -9800,7 +9761,7 @@
         <v>0.1</v>
       </c>
       <c r="F20" s="87" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F20:F33" si="1">(D20+E20)&amp;"_"&amp;G20</f>
         <v>25.1_3ormore_cat_ids</v>
       </c>
       <c r="G20" s="85" t="s">
@@ -9887,7 +9848,7 @@
         <v>0.1</v>
       </c>
       <c r="F21" s="87" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27.1_aux_count_possible</v>
       </c>
       <c r="G21" s="85" t="s">
@@ -9976,7 +9937,7 @@
         <v>0.1</v>
       </c>
       <c r="F22" s="87" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26.1_auxillary_info</v>
       </c>
       <c r="G22" s="85" t="s">
@@ -10065,7 +10026,7 @@
         <v>0.1</v>
       </c>
       <c r="F23" s="87" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.1_cam_dens_gradient</v>
       </c>
       <c r="G23" s="85" t="s">
@@ -10154,7 +10115,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" s="87" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42.1_cam_direction_ds</v>
       </c>
       <c r="G24" s="85" t="s">
@@ -10243,7 +10204,7 @@
         <v>0.1</v>
       </c>
       <c r="F25" s="87" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.1_cam_high_dens</v>
       </c>
       <c r="G25" s="85" t="s">
@@ -10332,7 +10293,7 @@
         <v>0.1</v>
       </c>
       <c r="F26" s="87" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.1_cam_high_dens</v>
       </c>
       <c r="G26" s="85" t="s">
@@ -10421,7 +10382,7 @@
         <v>0.1</v>
       </c>
       <c r="F27" s="87" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28.1_focalarea_calc</v>
       </c>
       <c r="G27" s="85" t="s">
@@ -10510,7 +10471,7 @@
         <v>0.1</v>
       </c>
       <c r="F28" s="87" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.1_marking_allsub</v>
       </c>
       <c r="G28" s="85" t="s">
@@ -10599,7 +10560,7 @@
         <v>0.1</v>
       </c>
       <c r="F29" s="87" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.1_marking_code</v>
       </c>
       <c r="G29" s="85" t="s">
@@ -10688,7 +10649,7 @@
         <v>0.1</v>
       </c>
       <c r="F30" s="87" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49.1_modmixed</v>
       </c>
       <c r="G30" s="85" t="s">
@@ -10777,7 +10738,7 @@
         <v>0.1</v>
       </c>
       <c r="F31" s="87" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48.1_multisamp_per_loc</v>
       </c>
       <c r="G31" s="85" t="s">
@@ -10866,7 +10827,7 @@
         <v>0.1</v>
       </c>
       <c r="F32" s="87" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30.1_sp_common_pop_lg</v>
       </c>
       <c r="G32" s="85" t="s">
@@ -10955,7 +10916,7 @@
         <v>0.1</v>
       </c>
       <c r="F33" s="87" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.1_sp_dens_low</v>
       </c>
       <c r="G33" s="85" t="s">
@@ -11044,7 +11005,7 @@
         <v>0.1</v>
       </c>
       <c r="F34" s="87" t="str">
-        <f t="shared" ref="F34:F65" si="1">(D34+E34)&amp;"_"&amp;G34</f>
+        <f t="shared" ref="F34:F63" si="2">(D34+E34)&amp;"_"&amp;G34</f>
         <v>43.1_bait_lure</v>
       </c>
       <c r="G34" s="85" t="s">
@@ -11133,7 +11094,7 @@
         <v>0.1</v>
       </c>
       <c r="F35" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44.1_bait_lure_cams</v>
       </c>
       <c r="G35" s="85" t="s">
@@ -11222,7 +11183,7 @@
         <v>0.1</v>
       </c>
       <c r="F36" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39.1_cam_makemod_same</v>
       </c>
       <c r="G36" s="85" t="s">
@@ -11311,7 +11272,7 @@
         <v>0.1</v>
       </c>
       <c r="F37" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41.1_cam_protocol_ht_angle</v>
       </c>
       <c r="G37" s="85" t="s">
@@ -11400,7 +11361,7 @@
         <v>0.1</v>
       </c>
       <c r="F38" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40.1_cam_settings_mult</v>
       </c>
       <c r="G38" s="85" t="s">
@@ -11489,7 +11450,7 @@
         <v>0.1</v>
       </c>
       <c r="F39" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.1_modmixed</v>
       </c>
       <c r="G39" s="85" t="s">
@@ -11576,7 +11537,7 @@
         <v>0.1</v>
       </c>
       <c r="F40" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50.1_num_det</v>
       </c>
       <c r="G40" s="85" t="s">
@@ -11665,7 +11626,7 @@
         <v>0.1</v>
       </c>
       <c r="F41" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51.1_num_det_individ</v>
       </c>
       <c r="G41" s="85" t="s">
@@ -11754,7 +11715,7 @@
         <v>0.1</v>
       </c>
       <c r="F42" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52.1_num_recap</v>
       </c>
       <c r="G42" s="85" t="s">
@@ -11843,7 +11804,7 @@
         <v>0.1</v>
       </c>
       <c r="F43" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53.1_overdispersion</v>
       </c>
       <c r="G43" s="85" t="s">
@@ -11932,7 +11893,7 @@
         <v>0.1</v>
       </c>
       <c r="F44" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.1_sp_behav</v>
       </c>
       <c r="G44" s="85" t="s">
@@ -12021,7 +11982,7 @@
         <v>0.1</v>
       </c>
       <c r="F45" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32.1_sp_behav_mult</v>
       </c>
       <c r="G45" s="85" t="s">
@@ -12110,7 +12071,7 @@
         <v>0.1</v>
       </c>
       <c r="F46" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22.1_sp_behav_season</v>
       </c>
       <c r="G46" s="85" t="s">
@@ -12199,7 +12160,7 @@
         <v>0.1</v>
       </c>
       <c r="F47" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.1_sp_detprob_cat</v>
       </c>
       <c r="G47" s="85" t="s">
@@ -12288,7 +12249,7 @@
         <v>0.1</v>
       </c>
       <c r="F48" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38.1_sp_detprob_cat_least</v>
       </c>
       <c r="G48" s="85" t="s">
@@ -12377,7 +12338,7 @@
         <v>0.1</v>
       </c>
       <c r="F49" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37.1_sp_detprob_cat_most</v>
       </c>
       <c r="G49" s="85" t="s">
@@ -12464,7 +12425,7 @@
         <v>0.1</v>
       </c>
       <c r="F50" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.1_sp_rarity</v>
       </c>
       <c r="G50" s="85" t="s">
@@ -12553,7 +12514,7 @@
         <v>0.1</v>
       </c>
       <c r="F51" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.1_sp_rarity_leastrare</v>
       </c>
       <c r="G51" s="85" t="s">
@@ -12642,7 +12603,7 @@
         <v>0.1</v>
       </c>
       <c r="F52" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.1_sp_rarity_rarest</v>
       </c>
       <c r="G52" s="85" t="s">
@@ -12731,7 +12692,7 @@
         <v>0.1</v>
       </c>
       <c r="F53" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.1_sp_size</v>
       </c>
       <c r="G53" s="85" t="s">
@@ -12820,7 +12781,7 @@
         <v>0.1</v>
       </c>
       <c r="F54" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1_study_area_mult</v>
       </c>
       <c r="G54" s="85" t="s">
@@ -12911,7 +12872,7 @@
         <v>0.1</v>
       </c>
       <c r="F55" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.1_study_season_num</v>
       </c>
       <c r="G55" s="85" t="s">
@@ -13000,7 +12961,7 @@
         <v>0.1</v>
       </c>
       <c r="F56" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.1_survey_dur_mth</v>
       </c>
       <c r="G56" s="85" t="s">
@@ -13091,7 +13052,7 @@
         <v>0.1</v>
       </c>
       <c r="F57" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.1_targ_feature</v>
       </c>
       <c r="G57" s="85" t="s">
@@ -13180,7 +13141,7 @@
         <v>0.1</v>
       </c>
       <c r="F58" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46.1_targ_feature_same</v>
       </c>
       <c r="G58" s="85" t="s">
@@ -13269,7 +13230,7 @@
         <v>0.1</v>
       </c>
       <c r="F59" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1_user_entry</v>
       </c>
       <c r="G59" s="85" t="s">
@@ -13348,7 +13309,7 @@
         <v>0.1</v>
       </c>
       <c r="F60" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.1_zeroinflation</v>
       </c>
       <c r="G60" s="85" t="s">
@@ -13437,7 +13398,7 @@
         <v>0.1</v>
       </c>
       <c r="F61" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.1_zi_overdispersed</v>
       </c>
       <c r="G61" s="85" t="s">
@@ -13526,7 +13487,7 @@
         <v>0.1</v>
       </c>
       <c r="F62" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.1_zi_process</v>
       </c>
       <c r="G62" s="85" t="s">
@@ -13615,7 +13576,7 @@
         <v>0.1</v>
       </c>
       <c r="F63" s="87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57.1_zi_re_overdispersed</v>
       </c>
       <c r="G63" s="85" t="s">
@@ -13694,8 +13655,8 @@
         <filter val="TRUE-PRI1"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD63">
-      <sortCondition ref="A1:A63"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD19">
+      <sortCondition ref="D1:D63"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1">
@@ -13825,16 +13786,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726B9559-5016-4120-B9D4-D87ECBDDFECD}">
   <sheetPr filterMode="1">
     <tabColor rgb="FFFEF2CB"/>
   </sheetPr>
   <dimension ref="A1:AB1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
@@ -13881,10 +13842,10 @@
       <c r="E1" s="15" t="s">
         <v>1450</v>
       </c>
-      <c r="F1" s="141" t="s">
+      <c r="F1" s="138" t="s">
         <v>1446</v>
       </c>
-      <c r="G1" s="141" t="s">
+      <c r="G1" s="138" t="s">
         <v>535</v>
       </c>
       <c r="H1" s="63" t="s">
@@ -13943,14 +13904,14 @@
       <c r="C2" s="16" t="s">
         <v>448</v>
       </c>
-      <c r="D2" s="140" t="s">
+      <c r="D2" s="137" t="s">
         <v>1445</v>
       </c>
-      <c r="E2" s="140" t="s">
-        <v>1456</v>
-      </c>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142" t="s">
+      <c r="E2" s="137" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139" t="s">
         <v>1188</v>
       </c>
       <c r="H2" s="16"/>
@@ -14010,16 +13971,16 @@
       <c r="C3" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="D3" s="140" t="s">
+      <c r="D3" s="137" t="s">
         <v>1451</v>
       </c>
-      <c r="E3" s="140" t="s">
+      <c r="E3" s="137" t="s">
         <v>1447</v>
       </c>
-      <c r="F3" s="143" t="s">
+      <c r="F3" s="140" t="s">
         <v>1448</v>
       </c>
-      <c r="G3" s="142" t="s">
+      <c r="G3" s="139" t="s">
         <v>1188</v>
       </c>
       <c r="H3" s="57" t="s">
@@ -14087,8 +14048,8 @@
       <c r="E4" s="16" t="s">
         <v>1442</v>
       </c>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142" t="s">
+      <c r="F4" s="139"/>
+      <c r="G4" s="139" t="s">
         <v>1188</v>
       </c>
       <c r="H4" s="16"/>
@@ -14140,7 +14101,7 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
     </row>
-    <row r="5" spans="1:28" ht="57">
+    <row r="5" spans="1:28" ht="42.75">
       <c r="A5" s="22" t="s">
         <v>463</v>
       </c>
@@ -14156,10 +14117,10 @@
       <c r="E5" s="16" t="s">
         <v>1444</v>
       </c>
-      <c r="F5" s="143" t="s">
+      <c r="F5" s="140" t="s">
         <v>1448</v>
       </c>
-      <c r="G5" s="142" t="s">
+      <c r="G5" s="139" t="s">
         <v>1188</v>
       </c>
       <c r="H5" s="57" t="s">
@@ -14227,8 +14188,8 @@
       <c r="E6" s="16" t="s">
         <v>1443</v>
       </c>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142" t="s">
+      <c r="F6" s="139"/>
+      <c r="G6" s="139" t="s">
         <v>1188</v>
       </c>
       <c r="H6" s="16"/>
@@ -14433,10 +14394,10 @@
       <c r="J9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="138" t="s">
+      <c r="K9" s="135" t="s">
         <v>427</v>
       </c>
-      <c r="L9" s="138" t="s">
+      <c r="L9" s="135" t="s">
         <v>442</v>
       </c>
       <c r="M9" s="16" t="s">
@@ -14498,10 +14459,10 @@
       <c r="J10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="138" t="s">
+      <c r="K10" s="135" t="s">
         <v>427</v>
       </c>
-      <c r="L10" s="139" t="s">
+      <c r="L10" s="136" t="s">
         <v>442</v>
       </c>
       <c r="M10" s="16" t="s">
@@ -14563,10 +14524,10 @@
       <c r="J11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="138" t="s">
+      <c r="K11" s="135" t="s">
         <v>446</v>
       </c>
-      <c r="L11" s="139" t="s">
+      <c r="L11" s="136" t="s">
         <v>442</v>
       </c>
       <c r="M11" s="16" t="s">
@@ -14693,10 +14654,10 @@
       <c r="J13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="138" t="s">
+      <c r="K13" s="135" t="s">
         <v>427</v>
       </c>
-      <c r="L13" s="138" t="s">
+      <c r="L13" s="135" t="s">
         <v>441</v>
       </c>
       <c r="M13" s="16" t="s">
@@ -14758,10 +14719,10 @@
       <c r="J14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="138" t="s">
+      <c r="K14" s="135" t="s">
         <v>427</v>
       </c>
-      <c r="L14" s="138" t="s">
+      <c r="L14" s="135" t="s">
         <v>426</v>
       </c>
       <c r="M14" s="42" t="s">
@@ -14823,7 +14784,7 @@
       <c r="J15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="138" t="s">
+      <c r="K15" s="135" t="s">
         <v>427</v>
       </c>
       <c r="L15" s="17" t="s">
@@ -14888,7 +14849,7 @@
       <c r="J16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="138" t="s">
+      <c r="K16" s="135" t="s">
         <v>427</v>
       </c>
       <c r="L16" s="17" t="s">
@@ -14953,7 +14914,7 @@
       <c r="J17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="138" t="s">
+      <c r="K17" s="135" t="s">
         <v>427</v>
       </c>
       <c r="L17" s="17" t="s">
@@ -16916,46 +16877,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y24 Z25 Y26:Y31">
-    <cfRule type="containsText" dxfId="132" priority="24" operator="containsText" text="Survey duration">
+    <cfRule type="containsText" dxfId="132" priority="26" operator="containsText" text="camdays_per_loc">
+      <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(Y1))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="131" priority="27" operator="containsText" text="Camera spacing">
+      <formula>NOT(ISERROR(SEARCH(("Camera spacing"),(Y1))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="28" operator="containsText" text="Camera days per camera location">
+      <formula>NOT(ISERROR(SEARCH(("Camera days per camera location"),(Y1))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="129" priority="29" operator="containsText" text="Camera arrangement">
+      <formula>NOT(ISERROR(SEARCH(("Camera arrangement"),(Y1))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="128" priority="30" operator="containsText" text="Number of cameras">
+      <formula>NOT(ISERROR(SEARCH(("Number of cameras"),(Y1))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="24" operator="containsText" text="Survey duration">
       <formula>NOT(ISERROR(SEARCH(("Survey duration"),(Y1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="25" operator="containsText" text="Total number of camera days">
+    <cfRule type="containsText" dxfId="126" priority="25" operator="containsText" text="Total number of camera days">
       <formula>NOT(ISERROR(SEARCH(("Total number of camera days"),(Y1))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="26" operator="containsText" text="camdays_per_loc">
-      <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(Y1))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="27" operator="containsText" text="Camera spacing">
-      <formula>NOT(ISERROR(SEARCH(("Camera spacing"),(Y1))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="28" operator="containsText" text="Camera days per camera location">
-      <formula>NOT(ISERROR(SEARCH(("Camera days per camera location"),(Y1))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="29" operator="containsText" text="Camera arrangement">
-      <formula>NOT(ISERROR(SEARCH(("Camera arrangement"),(Y1))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="30" operator="containsText" text="Number of cameras">
-      <formula>NOT(ISERROR(SEARCH(("Number of cameras"),(Y1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z31">
-    <cfRule type="containsText" dxfId="125" priority="31" operator="containsText" text="num_cams">
+    <cfRule type="containsText" dxfId="125" priority="33" operator="containsText" text="camdays_per_loc">
+      <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(Z1))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="34" operator="containsText" text="survey_duration">
+      <formula>NOT(ISERROR(SEARCH(("survey_duration"),(Z1))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="35" operator="containsText" text="cam_days_ttl">
+      <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(Z1))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="122" priority="36" operator="containsText" text="cam_spacing">
+      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(Z1))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="31" operator="containsText" text="num_cams">
       <formula>NOT(ISERROR(SEARCH(("num_cams"),(Z1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="32" operator="containsText" text="cam_arrange">
+    <cfRule type="containsText" dxfId="120" priority="32" operator="containsText" text="cam_arrange">
       <formula>NOT(ISERROR(SEARCH(("cam_arrange"),(Z1))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="33" operator="containsText" text="camdays_per_loc">
-      <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(Z1))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="34" operator="containsText" text="survey_duration">
-      <formula>NOT(ISERROR(SEARCH(("survey_duration"),(Z1))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="35" operator="containsText" text="cam_days_ttl">
-      <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(Z1))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="36" operator="containsText" text="cam_spacing">
-      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(Z1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB1">
@@ -16967,19 +16928,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2">
-    <cfRule type="containsText" dxfId="117" priority="183" operator="containsText" text="sp_size">
+    <cfRule type="containsText" dxfId="117" priority="185" operator="containsText" text="rarity">
+      <formula>NOT(ISERROR(SEARCH(("rarity"),(AB10))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="116" priority="183" operator="containsText" text="sp_size">
       <formula>NOT(ISERROR(SEARCH(("sp_size"),(AB10))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="185" operator="containsText" text="rarity">
-      <formula>NOT(ISERROR(SEARCH(("rarity"),(AB10))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AB5">
-    <cfRule type="containsText" dxfId="115" priority="138" operator="containsText" text="sp_size">
+    <cfRule type="containsText" dxfId="115" priority="142" operator="containsText" text="rarity">
+      <formula>NOT(ISERROR(SEARCH(("rarity"),(AB12))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="138" operator="containsText" text="sp_size">
       <formula>NOT(ISERROR(SEARCH(("sp_size"),(AB12))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="142" operator="containsText" text="rarity">
-      <formula>NOT(ISERROR(SEARCH(("rarity"),(AB12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6:AB9 S8">
@@ -16992,7 +16953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6085DF3C-B59A-4900-9A3B-DC2F4DEF098C}">
   <sheetPr filterMode="1">
     <tabColor rgb="FFA8D08D"/>
@@ -17002,7 +16963,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
@@ -17212,7 +17173,7 @@
         <v>720</v>
       </c>
       <c r="G2" s="4" t="str">
-        <f>IF(C2&lt;10,(B2&amp;".0"&amp;C2),(B2&amp;"."&amp;C2))</f>
+        <f t="shared" ref="G2:G33" si="0">IF(C2&lt;10,(B2&amp;".0"&amp;C2),(B2&amp;"."&amp;C2))</f>
         <v>4.18</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -17225,7 +17186,7 @@
         <v>1050</v>
       </c>
       <c r="K2" s="3" t="str">
-        <f>J2&amp;" ("&amp;AR2&amp;")"</f>
+        <f t="shared" ref="K2:K33" si="1">J2&amp;" ("&amp;AR2&amp;")"</f>
         <v>≥ 20 per stratum (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L2" s="5" t="s">
@@ -17306,7 +17267,7 @@
         <v>679</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f>IF(C3&lt;10,(B3&amp;".0"&amp;C3),(B3&amp;"."&amp;C3))</f>
+        <f t="shared" si="0"/>
         <v>2.09</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -17319,7 +17280,7 @@
         <v>1090</v>
       </c>
       <c r="K3" s="3" t="str">
-        <f>J3&amp;" ("&amp;AR3&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>1-2 km is often adequate ( Tobler et al., 2008; Kinnaird &amp; O'Brien, 2011; Ahumada et al., 2011; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -17400,7 +17361,7 @@
         <v>680</v>
       </c>
       <c r="G4" s="4" t="str">
-        <f>IF(C4&lt;10,(B4&amp;".0"&amp;C4),(B4&amp;"."&amp;C4))</f>
+        <f t="shared" si="0"/>
         <v>2.11</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -17413,7 +17374,7 @@
         <v>1155</v>
       </c>
       <c r="K4" s="3" t="str">
-        <f>J4&amp;" ("&amp;AR4&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>&lt;b&gt;≥ 20 (minumum)&lt;/b&gt; (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L4" s="5" t="s">
@@ -17496,7 +17457,7 @@
         <v>958</v>
       </c>
       <c r="G5" s="4" t="str">
-        <f>IF(C5&lt;10,(B5&amp;".0"&amp;C5),(B5&amp;"."&amp;C5))</f>
+        <f t="shared" si="0"/>
         <v>18.01</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -17507,7 +17468,7 @@
         <v>94</v>
       </c>
       <c r="K5" s="3" t="str">
-        <f>J5&amp;" ("&amp;AR5&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Ideally random (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L5" s="3" t="s">
@@ -17586,7 +17547,7 @@
         <v>959</v>
       </c>
       <c r="G6" s="4" t="str">
-        <f>IF(C6&lt;10,(B6&amp;".0"&amp;C6),(B6&amp;"."&amp;C6))</f>
+        <f t="shared" si="0"/>
         <v>18.02</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -17597,7 +17558,7 @@
         <v>90</v>
       </c>
       <c r="K6" s="3" t="str">
-        <f>J6&amp;" ("&amp;AR6&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Stratified (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L6" s="3" t="s">
@@ -17676,7 +17637,7 @@
         <v>960</v>
       </c>
       <c r="G7" s="4" t="str">
-        <f>IF(C7&lt;10,(B7&amp;".0"&amp;C7),(B7&amp;"."&amp;C7))</f>
+        <f t="shared" si="0"/>
         <v>18.03</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -17687,7 +17648,7 @@
         <v>37</v>
       </c>
       <c r="K7" s="3" t="str">
-        <f>J7&amp;" ("&amp;AR7&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Targeted (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L7" s="3" t="s">
@@ -17766,7 +17727,7 @@
         <v>967</v>
       </c>
       <c r="G8" s="4" t="str">
-        <f>IF(C8&lt;10,(B8&amp;".0"&amp;C8),(B8&amp;"."&amp;C8))</f>
+        <f t="shared" si="0"/>
         <v>18.04</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -17777,7 +17738,7 @@
         <v>119</v>
       </c>
       <c r="K8" s="3" t="str">
-        <f>J8&amp;" ("&amp;AR8&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>No recommendation (NA)</v>
       </c>
       <c r="L8" s="7" t="s">
@@ -17856,7 +17817,7 @@
         <v>961</v>
       </c>
       <c r="G9" s="4" t="str">
-        <f>IF(C9&lt;10,(B9&amp;".0"&amp;C9),(B9&amp;"."&amp;C9))</f>
+        <f t="shared" si="0"/>
         <v>18.05</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -17867,7 +17828,7 @@
         <v>358</v>
       </c>
       <c r="K9" s="3" t="str">
-        <f>J9&amp;" ("&amp;AR9&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Objective-dependent (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L9" s="3" t="s">
@@ -17948,7 +17909,7 @@
         <v>962</v>
       </c>
       <c r="G10" s="4" t="str">
-        <f>IF(C10&lt;10,(B10&amp;".0"&amp;C10),(B10&amp;"."&amp;C10))</f>
+        <f t="shared" si="0"/>
         <v>18.06</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -17959,7 +17920,7 @@
         <v>1099</v>
       </c>
       <c r="K10" s="3" t="str">
-        <f>J10&amp;" ("&amp;AR10&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Ideally independant (&gt; home range diameter) (Ridout &amp; Linkie, 2009; Rowcliffe et al., 2014)</v>
       </c>
       <c r="L10" s="3" t="s">
@@ -18040,7 +18001,7 @@
         <v>963</v>
       </c>
       <c r="G11" s="4" t="str">
-        <f>IF(C11&lt;10,(B11&amp;".0"&amp;C11),(B11&amp;"."&amp;C11))</f>
+        <f t="shared" si="0"/>
         <v>18.07</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -18051,7 +18012,7 @@
         <v>1097</v>
       </c>
       <c r="K11" s="3" t="str">
-        <f>J11&amp;" ("&amp;AR11&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Ideally independant (&gt; 1 km) (Ridout &amp; Linkie, 2009; Rowcliffe et al., 2014)</v>
       </c>
       <c r="L11" s="3" t="s">
@@ -18132,7 +18093,7 @@
         <v>966</v>
       </c>
       <c r="G12" s="4" t="str">
-        <f>IF(C12&lt;10,(B12&amp;".0"&amp;C12),(B12&amp;"."&amp;C12))</f>
+        <f t="shared" si="0"/>
         <v>18.08</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -18143,7 +18104,7 @@
         <v>119</v>
       </c>
       <c r="K12" s="3" t="str">
-        <f>J12&amp;" ("&amp;AR12&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>No recommendation (NA)</v>
       </c>
       <c r="L12" s="7" t="s">
@@ -18222,7 +18183,7 @@
         <v>964</v>
       </c>
       <c r="G13" s="4" t="str">
-        <f>IF(C13&lt;10,(B13&amp;".0"&amp;C13),(B13&amp;"."&amp;C13))</f>
+        <f t="shared" si="0"/>
         <v>18.09</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -18233,7 +18194,7 @@
         <v>114</v>
       </c>
       <c r="K13" s="3" t="str">
-        <f>J13&amp;" ("&amp;AR13&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Activity patterns: Enough to obtain &gt; 100 detections (Ridout &amp; Linkie, 2009; Rowcliffe et al., 2014)</v>
       </c>
       <c r="L13" s="5" t="s">
@@ -18310,7 +18271,7 @@
         <v>965</v>
       </c>
       <c r="G14" s="4" t="str">
-        <f>IF(C14&lt;10,(B14&amp;".0"&amp;C14),(B14&amp;"."&amp;C14))</f>
+        <f t="shared" si="0"/>
         <v>18.10</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -18321,7 +18282,7 @@
         <v>1050</v>
       </c>
       <c r="K14" s="3" t="str">
-        <f>J14&amp;" ("&amp;AR14&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>≥ 20 per stratum (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L14" s="5" t="s">
@@ -18402,7 +18363,7 @@
         <v>968</v>
       </c>
       <c r="G15" s="4" t="str">
-        <f>IF(C15&lt;10,(B15&amp;".0"&amp;C15),(B15&amp;"."&amp;C15))</f>
+        <f t="shared" si="0"/>
         <v>18.11</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -18413,7 +18374,7 @@
         <v>363</v>
       </c>
       <c r="K15" s="3" t="str">
-        <f>J15&amp;" ("&amp;AR15&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Dependent on behavioural metric (e.g., if it occurs during a certain period) (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L15" s="5" t="s">
@@ -18494,7 +18455,7 @@
         <v>673</v>
       </c>
       <c r="G16" s="4" t="str">
-        <f>IF(C16&lt;10,(B16&amp;".0"&amp;C16),(B16&amp;"."&amp;C16))</f>
+        <f t="shared" si="0"/>
         <v>2.01</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -18505,7 +18466,7 @@
         <v>94</v>
       </c>
       <c r="K16" s="3" t="str">
-        <f>J16&amp;" ("&amp;AR16&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Ideally random (Rovero et al., 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L16" s="3" t="s">
@@ -18584,7 +18545,7 @@
         <v>674</v>
       </c>
       <c r="G17" s="4" t="str">
-        <f>IF(C17&lt;10,(B17&amp;".0"&amp;C17),(B17&amp;"."&amp;C17))</f>
+        <f t="shared" si="0"/>
         <v>2.02</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -18595,7 +18556,7 @@
         <v>90</v>
       </c>
       <c r="K17" s="3" t="str">
-        <f>J17&amp;" ("&amp;AR17&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Stratified (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L17" s="3" t="s">
@@ -18674,7 +18635,7 @@
         <v>675</v>
       </c>
       <c r="G18" s="4" t="str">
-        <f>IF(C18&lt;10,(B18&amp;".0"&amp;C18),(B18&amp;"."&amp;C18))</f>
+        <f t="shared" si="0"/>
         <v>2.03</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -18685,7 +18646,7 @@
         <v>85</v>
       </c>
       <c r="K18" s="3" t="str">
-        <f>J18&amp;" ("&amp;AR18&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Stratified random (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L18" s="3" t="s">
@@ -18764,7 +18725,7 @@
         <v>676</v>
       </c>
       <c r="G19" s="4" t="str">
-        <f>IF(C19&lt;10,(B19&amp;".0"&amp;C19),(B19&amp;"."&amp;C19))</f>
+        <f t="shared" si="0"/>
         <v>2.04</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -18775,7 +18736,7 @@
         <v>155</v>
       </c>
       <c r="K19" s="3" t="str">
-        <f>J19&amp;" ("&amp;AR19&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Clustered ( O'Brien, 2010; O'Connell &amp; Bailey, 2011)</v>
       </c>
       <c r="L19" s="3" t="s">
@@ -18854,7 +18815,7 @@
         <v>687</v>
       </c>
       <c r="G20" s="4" t="str">
-        <f>IF(C20&lt;10,(B20&amp;".0"&amp;C20),(B20&amp;"."&amp;C20))</f>
+        <f t="shared" si="0"/>
         <v>2.05</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -18865,7 +18826,7 @@
         <v>1094</v>
       </c>
       <c r="K20" s="3" t="str">
-        <f>J20&amp;" ("&amp;AR20&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Typically, 600-1500 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L20" s="7" t="s">
@@ -18944,7 +18905,7 @@
         <v>688</v>
       </c>
       <c r="G21" s="4" t="str">
-        <f>IF(C21&lt;10,(B21&amp;".0"&amp;C21),(B21&amp;"."&amp;C21))</f>
+        <f t="shared" si="0"/>
         <v>2.06</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -18955,7 +18916,7 @@
         <v>1093</v>
       </c>
       <c r="K21" s="3" t="str">
-        <f>J21&amp;" ("&amp;AR21&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>≥ 1000 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L21" s="7" t="s">
@@ -19032,7 +18993,7 @@
         <v>677</v>
       </c>
       <c r="G22" s="4" t="str">
-        <f>IF(C22&lt;10,(B22&amp;".0"&amp;C22),(B22&amp;"."&amp;C22))</f>
+        <f t="shared" si="0"/>
         <v>2.07</v>
       </c>
       <c r="H22" s="3" t="s">
@@ -19043,7 +19004,7 @@
         <v>362</v>
       </c>
       <c r="K22" s="3" t="str">
-        <f>J22&amp;" ("&amp;AR22&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Spatially independent ([*i] Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L22" s="3" t="s">
@@ -19124,7 +19085,7 @@
         <v>678</v>
       </c>
       <c r="G23" s="4" t="str">
-        <f>IF(C23&lt;10,(B23&amp;".0"&amp;C23),(B23&amp;"."&amp;C23))</f>
+        <f t="shared" si="0"/>
         <v>2.08</v>
       </c>
       <c r="H23" s="3" t="s">
@@ -19135,7 +19096,7 @@
         <v>1092</v>
       </c>
       <c r="K23" s="3" t="str">
-        <f>J23&amp;" ("&amp;AR23&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Ideally ≥ 1 km, but closer may be justified (Tobler et al., 2008; Cusack et al., 2015)</v>
       </c>
       <c r="L23" s="3" t="s">
@@ -19216,7 +19177,7 @@
         <v>686</v>
       </c>
       <c r="G24" s="4" t="str">
-        <f>IF(C24&lt;10,(B24&amp;".0"&amp;C24),(B24&amp;"."&amp;C24))</f>
+        <f t="shared" si="0"/>
         <v>2.10</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -19227,7 +19188,7 @@
         <v>1052</v>
       </c>
       <c r="K24" s="3" t="str">
-        <f>J24&amp;" ("&amp;AR24&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Ideally ≥ 30 (Ahumada et al., 2011; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L24" s="3" t="s">
@@ -19306,7 +19267,7 @@
         <v>681</v>
       </c>
       <c r="G25" s="4" t="str">
-        <f>IF(C25&lt;10,(B25&amp;".0"&amp;C25),(B25&amp;"."&amp;C25))</f>
+        <f t="shared" si="0"/>
         <v>2.12</v>
       </c>
       <c r="H25" s="3" t="s">
@@ -19317,7 +19278,7 @@
         <v>394</v>
       </c>
       <c r="K25" s="3" t="str">
-        <f>J25&amp;" ("&amp;AR25&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Commonly 30 (Ahumada et al., 2011)</v>
       </c>
       <c r="L25" s="5" t="s">
@@ -19396,7 +19357,7 @@
         <v>682</v>
       </c>
       <c r="G26" s="4" t="str">
-        <f>IF(C26&lt;10,(B26&amp;".0"&amp;C26),(B26&amp;"."&amp;C26))</f>
+        <f t="shared" si="0"/>
         <v>2.13</v>
       </c>
       <c r="H26" s="3" t="s">
@@ -19407,7 +19368,7 @@
         <v>1051</v>
       </c>
       <c r="K26" s="3" t="str">
-        <f>J26&amp;" ("&amp;AR26&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Ideally ≥ 50 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L26" s="5" t="s">
@@ -19486,7 +19447,7 @@
         <v>683</v>
       </c>
       <c r="G27" s="4" t="str">
-        <f>IF(C27&lt;10,(B27&amp;".0"&amp;C27),(B27&amp;"."&amp;C27))</f>
+        <f t="shared" si="0"/>
         <v>2.14</v>
       </c>
       <c r="H27" s="3" t="s">
@@ -19497,7 +19458,7 @@
         <v>1050</v>
       </c>
       <c r="K27" s="3" t="str">
-        <f>J27&amp;" ("&amp;AR27&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>≥ 20 per stratum (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L27" s="5" t="s">
@@ -19578,7 +19539,7 @@
         <v>684</v>
       </c>
       <c r="G28" s="4" t="str">
-        <f>IF(C28&lt;10,(B28&amp;".0"&amp;C28),(B28&amp;"."&amp;C28))</f>
+        <f t="shared" si="0"/>
         <v>2.15</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -19589,7 +19550,7 @@
         <v>1085</v>
       </c>
       <c r="K28" s="3" t="str">
-        <f>J28&amp;" ("&amp;AR28&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>20-100 (Li et al., 2012; Ahumada et al., 2011; Wearn et al., 2016)</v>
       </c>
       <c r="L28" s="5" t="s">
@@ -19668,7 +19629,7 @@
         <v>685</v>
       </c>
       <c r="G29" s="4" t="str">
-        <f>IF(C29&lt;10,(B29&amp;".0"&amp;C29),(B29&amp;"."&amp;C29))</f>
+        <f t="shared" si="0"/>
         <v>2.16</v>
       </c>
       <c r="H29" s="3" t="s">
@@ -19679,7 +19640,7 @@
         <v>259</v>
       </c>
       <c r="K29" s="3" t="str">
-        <f>J29&amp;" ("&amp;AR29&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>25-35, scale-dependent (Kays et al., 2020)</v>
       </c>
       <c r="L29" s="5" t="s">
@@ -19758,7 +19719,7 @@
         <v>689</v>
       </c>
       <c r="G30" s="4" t="str">
-        <f>IF(C30&lt;10,(B30&amp;".0"&amp;C30),(B30&amp;"."&amp;C30))</f>
+        <f t="shared" si="0"/>
         <v>2.17</v>
       </c>
       <c r="H30" s="3" t="s">
@@ -19769,7 +19730,7 @@
         <v>319</v>
       </c>
       <c r="K30" s="3" t="str">
-        <f>J30&amp;" ("&amp;AR30&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Ideally &lt; 6 months (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L30" s="5" t="s">
@@ -19848,7 +19809,7 @@
         <v>690</v>
       </c>
       <c r="G31" s="4" t="str">
-        <f>IF(C31&lt;10,(B31&amp;".0"&amp;C31),(B31&amp;"."&amp;C31))</f>
+        <f t="shared" si="0"/>
         <v>2.18</v>
       </c>
       <c r="H31" s="3" t="s">
@@ -19859,7 +19820,7 @@
         <v>1083</v>
       </c>
       <c r="K31" s="3" t="str">
-        <f>J31&amp;" ("&amp;AR31&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>3-6 months (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L31" s="5" t="s">
@@ -19938,7 +19899,7 @@
         <v>662</v>
       </c>
       <c r="G32" s="4" t="str">
-        <f>IF(C32&lt;10,(B32&amp;".0"&amp;C32),(B32&amp;"."&amp;C32))</f>
+        <f t="shared" si="0"/>
         <v>1.01</v>
       </c>
       <c r="H32" s="3" t="s">
@@ -19949,7 +19910,7 @@
         <v>37</v>
       </c>
       <c r="K32" s="3" t="str">
-        <f>J32&amp;" ("&amp;AR32&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Targeted (Tobler et al., 2008; Rovero et al., 2013)</v>
       </c>
       <c r="L32" s="3" t="s">
@@ -20028,7 +19989,7 @@
         <v>663</v>
       </c>
       <c r="G33" s="4" t="str">
-        <f>IF(C33&lt;10,(B33&amp;".0"&amp;C33),(B33&amp;"."&amp;C33))</f>
+        <f t="shared" si="0"/>
         <v>1.02</v>
       </c>
       <c r="H33" s="3" t="s">
@@ -20039,7 +20000,7 @@
         <v>92</v>
       </c>
       <c r="K33" s="3" t="str">
-        <f>J33&amp;" ("&amp;AR33&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Random (Wearn et al., 2013)</v>
       </c>
       <c r="L33" s="3" t="s">
@@ -20120,7 +20081,7 @@
         <v>671</v>
       </c>
       <c r="G34" s="4" t="str">
-        <f>IF(C34&lt;10,(B34&amp;".0"&amp;C34),(B34&amp;"."&amp;C34))</f>
+        <f t="shared" ref="G34:G65" si="2">IF(C34&lt;10,(B34&amp;".0"&amp;C34),(B34&amp;"."&amp;C34))</f>
         <v>1.03</v>
       </c>
       <c r="H34" s="3" t="s">
@@ -20131,7 +20092,7 @@
         <v>1156</v>
       </c>
       <c r="K34" s="3" t="str">
-        <f>J34&amp;" ("&amp;AR34&amp;")"</f>
+        <f t="shared" ref="K34:K65" si="3">J34&amp;" ("&amp;AR34&amp;")"</f>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Tobler et al., 2008;  Wearn et al., 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L34" s="7" t="s">
@@ -20212,7 +20173,7 @@
         <v>664</v>
       </c>
       <c r="G35" s="4" t="str">
-        <f>IF(C35&lt;10,(B35&amp;".0"&amp;C35),(B35&amp;"."&amp;C35))</f>
+        <f t="shared" si="2"/>
         <v>1.04</v>
       </c>
       <c r="H35" s="3" t="s">
@@ -20223,7 +20184,7 @@
         <v>1156</v>
       </c>
       <c r="K35" s="3" t="str">
-        <f>J35&amp;" ("&amp;AR35&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Rovero et al., 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L35" s="3" t="s">
@@ -20304,7 +20265,7 @@
         <v>665</v>
       </c>
       <c r="G36" s="4" t="str">
-        <f>IF(C36&lt;10,(B36&amp;".0"&amp;C36),(B36&amp;"."&amp;C36))</f>
+        <f t="shared" si="2"/>
         <v>1.05</v>
       </c>
       <c r="H36" s="3" t="s">
@@ -20315,7 +20276,7 @@
         <v>284</v>
       </c>
       <c r="K36" s="3" t="str">
-        <f>J36&amp;" ("&amp;AR36&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>Ideally 1-2 km (Rovero et al., 2013; Colyn et al., 2017; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L36" s="3" t="s">
@@ -20394,7 +20355,7 @@
         <v>668</v>
       </c>
       <c r="G37" s="4" t="str">
-        <f>IF(C37&lt;10,(B37&amp;".0"&amp;C37),(B37&amp;"."&amp;C37))</f>
+        <f t="shared" si="2"/>
         <v>1.06</v>
       </c>
       <c r="H37" s="3" t="s">
@@ -20405,7 +20366,7 @@
         <v>1156</v>
       </c>
       <c r="K37" s="3" t="str">
-        <f>J37&amp;" ("&amp;AR37&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L37" s="3" t="s">
@@ -20486,7 +20447,7 @@
         <v>669</v>
       </c>
       <c r="G38" s="4" t="str">
-        <f>IF(C38&lt;10,(B38&amp;".0"&amp;C38),(B38&amp;"."&amp;C38))</f>
+        <f t="shared" si="2"/>
         <v>1.07</v>
       </c>
       <c r="H38" s="3" t="s">
@@ -20497,7 +20458,7 @@
         <v>1052</v>
       </c>
       <c r="K38" s="3" t="str">
-        <f>J38&amp;" ("&amp;AR38&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>Ideally ≥ 30 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L38" s="3" t="s">
@@ -20578,7 +20539,7 @@
         <v>670</v>
       </c>
       <c r="G39" s="4" t="str">
-        <f>IF(C39&lt;10,(B39&amp;".0"&amp;C39),(B39&amp;"."&amp;C39))</f>
+        <f t="shared" si="2"/>
         <v>1.08</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -20589,7 +20550,7 @@
         <v>1139</v>
       </c>
       <c r="K39" s="3" t="str">
-        <f>J39&amp;" ("&amp;AR39&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>&lt; 30 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L39" s="3" t="s">
@@ -20668,7 +20629,7 @@
         <v>666</v>
       </c>
       <c r="G40" s="4" t="str">
-        <f>IF(C40&lt;10,(B40&amp;".0"&amp;C40),(B40&amp;"."&amp;C40))</f>
+        <f t="shared" si="2"/>
         <v>1.09</v>
       </c>
       <c r="H40" s="3" t="s">
@@ -20679,7 +20640,7 @@
         <v>1156</v>
       </c>
       <c r="K40" s="3" t="str">
-        <f>J40&amp;" ("&amp;AR40&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L40" s="5" t="s">
@@ -20760,7 +20721,7 @@
         <v>667</v>
       </c>
       <c r="G41" s="4" t="str">
-        <f>IF(C41&lt;10,(B41&amp;".0"&amp;C41),(B41&amp;"."&amp;C41))</f>
+        <f t="shared" si="2"/>
         <v>1.10</v>
       </c>
       <c r="H41" s="3" t="s">
@@ -20771,7 +20732,7 @@
         <v>1137</v>
       </c>
       <c r="K41" s="3" t="str">
-        <f>J41&amp;" ("&amp;AR41&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>Ideally ≥ 20 (Tobler et al., 2008; Wearn et al., 2013)</v>
       </c>
       <c r="L41" s="5" t="s">
@@ -20850,7 +20811,7 @@
         <v>672</v>
       </c>
       <c r="G42" s="4" t="str">
-        <f>IF(C42&lt;10,(B42&amp;".0"&amp;C42),(B42&amp;"."&amp;C42))</f>
+        <f t="shared" si="2"/>
         <v>1.11</v>
       </c>
       <c r="H42" s="3" t="s">
@@ -20861,7 +20822,7 @@
         <v>1157</v>
       </c>
       <c r="K42" s="3" t="str">
-        <f>J42&amp;" ("&amp;AR42&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>&lt;b&gt;No maximum&lt;/b&gt; (Tobler et al., 2008; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L42" s="5" t="s">
@@ -20942,7 +20903,7 @@
         <v>691</v>
       </c>
       <c r="G43" s="4" t="str">
-        <f>IF(C43&lt;10,(B43&amp;".0"&amp;C43),(B43&amp;"."&amp;C43))</f>
+        <f t="shared" si="2"/>
         <v>3.01</v>
       </c>
       <c r="H43" s="3" t="s">
@@ -20953,7 +20914,7 @@
         <v>94</v>
       </c>
       <c r="K43" s="3" t="str">
-        <f>J43&amp;" ("&amp;AR43&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>Ideally random (Mackenzie &amp; Royle, 2005; Guillera-Arroita et al., 2010; O'Brien, 2010; O'Connell &amp; Bailey, 2011; Shannon et al., 2014)</v>
       </c>
       <c r="L43" s="3" t="s">
@@ -21032,7 +20993,7 @@
         <v>692</v>
       </c>
       <c r="G44" s="4" t="str">
-        <f>IF(C44&lt;10,(B44&amp;".0"&amp;C44),(B44&amp;"."&amp;C44))</f>
+        <f t="shared" si="2"/>
         <v>3.02</v>
       </c>
       <c r="H44" s="3" t="s">
@@ -21043,7 +21004,7 @@
         <v>37</v>
       </c>
       <c r="K44" s="3" t="str">
-        <f>J44&amp;" ("&amp;AR44&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>Targeted (Mackenzie &amp; Royle, 2005; Guillera-Arroita et al., 2010; O'Brien, 2010; Shannon et al., 2014)</v>
       </c>
       <c r="L44" s="3" t="s">
@@ -21122,7 +21083,7 @@
         <v>693</v>
       </c>
       <c r="G45" s="4" t="str">
-        <f>IF(C45&lt;10,(B45&amp;".0"&amp;C45),(B45&amp;"."&amp;C45))</f>
+        <f t="shared" si="2"/>
         <v>3.03</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -21133,7 +21094,7 @@
         <v>155</v>
       </c>
       <c r="K45" s="3" t="str">
-        <f>J45&amp;" ("&amp;AR45&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>Clustered (O'Connell &amp; Bailey, 2011; Pacifici et al., 2015)</v>
       </c>
       <c r="L45" s="3" t="s">
@@ -21212,7 +21173,7 @@
         <v>694</v>
       </c>
       <c r="G46" s="4" t="str">
-        <f>IF(C46&lt;10,(B46&amp;".0"&amp;C46),(B46&amp;"."&amp;C46))</f>
+        <f t="shared" si="2"/>
         <v>3.04</v>
       </c>
       <c r="H46" s="3" t="s">
@@ -21223,7 +21184,7 @@
         <v>85</v>
       </c>
       <c r="K46" s="3" t="str">
-        <f>J46&amp;" ("&amp;AR46&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>Stratified random (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L46" s="3" t="s">
@@ -21302,7 +21263,7 @@
         <v>706</v>
       </c>
       <c r="G47" s="4" t="str">
-        <f>IF(C47&lt;10,(B47&amp;".0"&amp;C47),(B47&amp;"."&amp;C47))</f>
+        <f t="shared" si="2"/>
         <v>3.05</v>
       </c>
       <c r="H47" s="3" t="s">
@@ -21313,7 +21274,7 @@
         <v>167</v>
       </c>
       <c r="K47" s="3" t="str">
-        <f>J47&amp;" ("&amp;AR47&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>Species-dependent (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L47" s="7" t="s">
@@ -21394,7 +21355,7 @@
         <v>707</v>
       </c>
       <c r="G48" s="4" t="str">
-        <f>IF(C48&lt;10,(B48&amp;".0"&amp;C48),(B48&amp;"."&amp;C48))</f>
+        <f t="shared" si="2"/>
         <v>3.06</v>
       </c>
       <c r="H48" s="3" t="s">
@@ -21405,7 +21366,7 @@
         <v>1004</v>
       </c>
       <c r="K48" s="3" t="str">
-        <f>J48&amp;" ("&amp;AR48&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>&gt; 1200 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L48" s="7" t="s">
@@ -21482,7 +21443,7 @@
         <v>708</v>
       </c>
       <c r="G49" s="4" t="str">
-        <f>IF(C49&lt;10,(B49&amp;".0"&amp;C49),(B49&amp;"."&amp;C49))</f>
+        <f t="shared" si="2"/>
         <v>3.07</v>
       </c>
       <c r="H49" s="3" t="s">
@@ -21493,7 +21454,7 @@
         <v>1005</v>
       </c>
       <c r="K49" s="3" t="str">
-        <f>J49&amp;" ("&amp;AR49&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>&gt; 1000 (Mackenzie &amp; Royle, 2005; Guillera-Arroita et al., 2010; O'Brien, 2010; Shannon et al., 2014)</v>
       </c>
       <c r="L49" s="7" t="s">
@@ -21570,7 +21531,7 @@
         <v>709</v>
       </c>
       <c r="G50" s="4" t="str">
-        <f>IF(C50&lt;10,(B50&amp;".0"&amp;C50),(B50&amp;"."&amp;C50))</f>
+        <f t="shared" si="2"/>
         <v>3.08</v>
       </c>
       <c r="H50" s="3" t="s">
@@ -21581,7 +21542,7 @@
         <v>1081</v>
       </c>
       <c r="K50" s="3" t="str">
-        <f>J50&amp;" ("&amp;AR50&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>&gt; 5000 (Shannon et al., 2014)</v>
       </c>
       <c r="L50" s="7" t="s">
@@ -21662,7 +21623,7 @@
         <v>695</v>
       </c>
       <c r="G51" s="4" t="str">
-        <f>IF(C51&lt;10,(B51&amp;".0"&amp;C51),(B51&amp;"."&amp;C51))</f>
+        <f t="shared" si="2"/>
         <v>3.09</v>
       </c>
       <c r="H51" s="3" t="s">
@@ -21673,7 +21634,7 @@
         <v>164</v>
       </c>
       <c r="K51" s="3" t="str">
-        <f>J51&amp;" ("&amp;AR51&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>&gt; home range diameter (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L51" s="3" t="s">
@@ -21754,7 +21715,7 @@
         <v>696</v>
       </c>
       <c r="G52" s="4" t="str">
-        <f>IF(C52&lt;10,(B52&amp;".0"&amp;C52),(B52&amp;"."&amp;C52))</f>
+        <f t="shared" si="2"/>
         <v>3.10</v>
       </c>
       <c r="H52" s="3" t="s">
@@ -21765,7 +21726,7 @@
         <v>1078</v>
       </c>
       <c r="K52" s="3" t="str">
-        <f>J52&amp;" ("&amp;AR52&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>≥ 1 km is typical (Wearn &amp; Glover-Kapfer, 2017; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L52" s="3" t="s">
@@ -21846,7 +21807,7 @@
         <v>704</v>
       </c>
       <c r="G53" s="4" t="str">
-        <f>IF(C53&lt;10,(B53&amp;".0"&amp;C53),(B53&amp;"."&amp;C53))</f>
+        <f t="shared" si="2"/>
         <v>3.11</v>
       </c>
       <c r="H53" s="3" t="s">
@@ -21857,7 +21818,7 @@
         <v>1000</v>
       </c>
       <c r="K53" s="3" t="str">
-        <f>J53&amp;" ("&amp;AR53&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>≥ 30 (Mackenzie &amp; Royle, 2005; Guillera-Arroita et al., 2010; Shannon et al., 2014)</v>
       </c>
       <c r="L53" s="3" t="s">
@@ -21936,7 +21897,7 @@
         <v>705</v>
       </c>
       <c r="G54" s="4" t="str">
-        <f>IF(C54&lt;10,(B54&amp;".0"&amp;C54),(B54&amp;"."&amp;C54))</f>
+        <f t="shared" si="2"/>
         <v>3.12</v>
       </c>
       <c r="H54" s="3" t="s">
@@ -21947,7 +21908,7 @@
         <v>1076</v>
       </c>
       <c r="K54" s="3" t="str">
-        <f>J54&amp;" ("&amp;AR54&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>80-100 (Shannon et al., 2014)</v>
       </c>
       <c r="L54" s="3" t="s">
@@ -22026,7 +21987,7 @@
         <v>697</v>
       </c>
       <c r="G55" s="4" t="str">
-        <f>IF(C55&lt;10,(B55&amp;".0"&amp;C55),(B55&amp;"."&amp;C55))</f>
+        <f t="shared" si="2"/>
         <v>3.13</v>
       </c>
       <c r="H55" s="3" t="s">
@@ -22037,7 +21998,7 @@
         <v>1169</v>
       </c>
       <c r="K55" s="3" t="str">
-        <f>J55&amp;" ("&amp;AR55&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>&lt;b&gt;&gt; 40 (minumum)&lt;/b&gt; (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L55" s="5" t="s">
@@ -22120,7 +22081,7 @@
         <v>698</v>
       </c>
       <c r="G56" s="4" t="str">
-        <f>IF(C56&lt;10,(B56&amp;".0"&amp;C56),(B56&amp;"."&amp;C56))</f>
+        <f t="shared" si="2"/>
         <v>3.14</v>
       </c>
       <c r="H56" s="3" t="s">
@@ -22131,7 +22092,7 @@
         <v>1074</v>
       </c>
       <c r="K56" s="3" t="str">
-        <f>J56&amp;" ("&amp;AR56&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>Ideally ≥ 100 (Mackenzie &amp; Royle, 2005; Guillera-Arroita et al., 2010; Shannon et al., 2014)</v>
       </c>
       <c r="L56" s="5" t="s">
@@ -22210,7 +22171,7 @@
         <v>699</v>
       </c>
       <c r="G57" s="4" t="str">
-        <f>IF(C57&lt;10,(B57&amp;".0"&amp;C57),(B57&amp;"."&amp;C57))</f>
+        <f t="shared" si="2"/>
         <v>3.15</v>
       </c>
       <c r="H57" s="3" t="s">
@@ -22221,7 +22182,7 @@
         <v>166</v>
       </c>
       <c r="K57" s="3" t="str">
-        <f>J57&amp;" ("&amp;AR57&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>&gt; 60; species-dependent (Rovero et al., 2013)</v>
       </c>
       <c r="L57" s="5" t="s">
@@ -22302,7 +22263,7 @@
         <v>700</v>
       </c>
       <c r="G58" s="4" t="str">
-        <f>IF(C58&lt;10,(B58&amp;".0"&amp;C58),(B58&amp;"."&amp;C58))</f>
+        <f t="shared" si="2"/>
         <v>3.16</v>
       </c>
       <c r="H58" s="3" t="s">
@@ -22313,7 +22274,7 @@
         <v>1072</v>
       </c>
       <c r="K58" s="3" t="str">
-        <f>J58&amp;" ("&amp;AR58&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>&lt; 20 (Kays et al., 2020)</v>
       </c>
       <c r="L58" s="5" t="s">
@@ -22392,7 +22353,7 @@
         <v>701</v>
       </c>
       <c r="G59" s="4" t="str">
-        <f>IF(C59&lt;10,(B59&amp;".0"&amp;C59),(B59&amp;"."&amp;C59))</f>
+        <f t="shared" si="2"/>
         <v>3.17</v>
       </c>
       <c r="H59" s="3" t="s">
@@ -22403,7 +22364,7 @@
         <v>1071</v>
       </c>
       <c r="K59" s="3" t="str">
-        <f>J59&amp;" ("&amp;AR59&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>≤ 30 (Shannon et al., 2014)</v>
       </c>
       <c r="L59" s="5" t="s">
@@ -22482,7 +22443,7 @@
         <v>702</v>
       </c>
       <c r="G60" s="4" t="str">
-        <f>IF(C60&lt;10,(B60&amp;".0"&amp;C60),(B60&amp;"."&amp;C60))</f>
+        <f t="shared" si="2"/>
         <v>3.18</v>
       </c>
       <c r="H60" s="3" t="s">
@@ -22493,7 +22454,7 @@
         <v>1069</v>
       </c>
       <c r="K60" s="3" t="str">
-        <f>J60&amp;" ("&amp;AR60&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>&gt; 150 (Kays et al., 2020)</v>
       </c>
       <c r="L60" s="5" t="s">
@@ -22572,7 +22533,7 @@
         <v>703</v>
       </c>
       <c r="G61" s="4" t="str">
-        <f>IF(C61&lt;10,(B61&amp;".0"&amp;C61),(B61&amp;"."&amp;C61))</f>
+        <f t="shared" si="2"/>
         <v>3.19</v>
       </c>
       <c r="H61" s="3" t="s">
@@ -22583,7 +22544,7 @@
         <v>1067</v>
       </c>
       <c r="K61" s="3" t="str">
-        <f>J61&amp;" ("&amp;AR61&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>30-60 (Shannon et al., 2014)</v>
       </c>
       <c r="L61" s="5" t="s">
@@ -22662,7 +22623,7 @@
         <v>710</v>
       </c>
       <c r="G62" s="4" t="str">
-        <f>IF(C62&lt;10,(B62&amp;".0"&amp;C62),(B62&amp;"."&amp;C62))</f>
+        <f t="shared" si="2"/>
         <v>3.20</v>
       </c>
       <c r="H62" s="3" t="s">
@@ -22673,7 +22634,7 @@
         <v>167</v>
       </c>
       <c r="K62" s="3" t="str">
-        <f>J62&amp;" ("&amp;AR62&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>Species-dependent (Guillera-Arroita et al., 2010)</v>
       </c>
       <c r="L62" s="5" t="s">
@@ -22754,7 +22715,7 @@
         <v>711</v>
       </c>
       <c r="G63" s="4" t="str">
-        <f>IF(C63&lt;10,(B63&amp;".0"&amp;C63),(B63&amp;"."&amp;C63))</f>
+        <f t="shared" si="2"/>
         <v>3.21</v>
       </c>
       <c r="H63" s="3" t="s">
@@ -22765,7 +22726,7 @@
         <v>319</v>
       </c>
       <c r="K63" s="3" t="str">
-        <f>J63&amp;" ("&amp;AR63&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>Ideally &lt; 6 months (Mackenzie &amp; Royle, 2005; Guillera-Arroita et al., 2010; O'Brien, 2010; Shannon et al., 2014)</v>
       </c>
       <c r="L63" s="5" t="s">
@@ -22844,7 +22805,7 @@
         <v>712</v>
       </c>
       <c r="G64" s="4" t="str">
-        <f>IF(C64&lt;10,(B64&amp;".0"&amp;C64),(B64&amp;"."&amp;C64))</f>
+        <f t="shared" si="2"/>
         <v>4.01</v>
       </c>
       <c r="H64" s="3" t="s">
@@ -22855,7 +22816,7 @@
         <v>94</v>
       </c>
       <c r="K64" s="3" t="str">
-        <f>J64&amp;" ("&amp;AR64&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>Ideally random (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L64" s="3" t="s">
@@ -22934,7 +22895,7 @@
         <v>713</v>
       </c>
       <c r="G65" s="4" t="str">
-        <f>IF(C65&lt;10,(B65&amp;".0"&amp;C65),(B65&amp;"."&amp;C65))</f>
+        <f t="shared" si="2"/>
         <v>4.02</v>
       </c>
       <c r="H65" s="3" t="s">
@@ -22945,7 +22906,7 @@
         <v>55</v>
       </c>
       <c r="K65" s="3" t="str">
-        <f>J65&amp;" ("&amp;AR65&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>Systematic random (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L65" s="3" t="s">
@@ -23024,7 +22985,7 @@
         <v>724</v>
       </c>
       <c r="G66" s="4" t="str">
-        <f>IF(C66&lt;10,(B66&amp;".0"&amp;C66),(B66&amp;"."&amp;C66))</f>
+        <f t="shared" ref="G66:G82" si="4">IF(C66&lt;10,(B66&amp;".0"&amp;C66),(B66&amp;"."&amp;C66))</f>
         <v>4.03</v>
       </c>
       <c r="H66" s="3" t="s">
@@ -23035,7 +22996,7 @@
         <v>187</v>
       </c>
       <c r="K66" s="3" t="str">
-        <f>J66&amp;" ("&amp;AR66&amp;")"</f>
+        <f t="shared" ref="K66:K82" si="5">J66&amp;" ("&amp;AR66&amp;")"</f>
         <v>Ideally &gt; 2000 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L66" s="7" t="s">
@@ -23114,7 +23075,7 @@
         <v>725</v>
       </c>
       <c r="G67" s="4" t="str">
-        <f>IF(C67&lt;10,(B67&amp;".0"&amp;C67),(B67&amp;"."&amp;C67))</f>
+        <f t="shared" si="4"/>
         <v>4.04</v>
       </c>
       <c r="H67" s="3" t="s">
@@ -23125,7 +23086,7 @@
         <v>1063</v>
       </c>
       <c r="K67" s="3" t="str">
-        <f>J67&amp;" ("&amp;AR67&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>Enough for &gt; 10 detections (Rowcliffe et al., 2008; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L67" s="7" t="s">
@@ -23208,7 +23169,7 @@
         <v>726</v>
       </c>
       <c r="G68" s="4" t="str">
-        <f>IF(C68&lt;10,(B68&amp;".0"&amp;C68),(B68&amp;"."&amp;C68))</f>
+        <f t="shared" si="4"/>
         <v>4.05</v>
       </c>
       <c r="H68" s="3" t="s">
@@ -23219,7 +23180,7 @@
         <v>350</v>
       </c>
       <c r="K68" s="3" t="str">
-        <f>J68&amp;" ("&amp;AR68&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>Ideally &gt; 20 detections (Rowcliffe et al., 2008; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L68" s="7" t="s">
@@ -23302,7 +23263,7 @@
         <v>727</v>
       </c>
       <c r="G69" s="4" t="str">
-        <f>IF(C69&lt;10,(B69&amp;".0"&amp;C69),(B69&amp;"."&amp;C69))</f>
+        <f t="shared" si="4"/>
         <v>4.06</v>
       </c>
       <c r="H69" s="3" t="s">
@@ -23313,7 +23274,7 @@
         <v>1060</v>
       </c>
       <c r="K69" s="3" t="str">
-        <f>J69&amp;" ("&amp;AR69&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>&gt; 2000 (Rowcliffe et al., 2008; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L69" s="7" t="s">
@@ -23398,7 +23359,7 @@
         <v>728</v>
       </c>
       <c r="G70" s="4" t="str">
-        <f>IF(C70&lt;10,(B70&amp;".0"&amp;C70),(B70&amp;"."&amp;C70))</f>
+        <f t="shared" si="4"/>
         <v>4.07</v>
       </c>
       <c r="H70" s="3" t="s">
@@ -23409,7 +23370,7 @@
         <v>1058</v>
       </c>
       <c r="K70" s="3" t="str">
-        <f>J70&amp;" ("&amp;AR70&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>&gt; 250 (Rowcliffe et al., 2008; Rovero &amp; Marshall, 2009; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L70" s="7" t="s">
@@ -23488,7 +23449,7 @@
         <v>729</v>
       </c>
       <c r="G71" s="4" t="str">
-        <f>IF(C71&lt;10,(B71&amp;".0"&amp;C71),(B71&amp;"."&amp;C71))</f>
+        <f t="shared" si="4"/>
         <v>4.08</v>
       </c>
       <c r="H71" s="3" t="s">
@@ -23499,7 +23460,7 @@
         <v>1055</v>
       </c>
       <c r="K71" s="3" t="str">
-        <f>J71&amp;" ("&amp;AR71&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>&gt; 20,000 (O'Brien, 2010; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L71" s="7" t="s">
@@ -23578,7 +23539,7 @@
         <v>714</v>
       </c>
       <c r="G72" s="4" t="str">
-        <f>IF(C72&lt;10,(B72&amp;".0"&amp;C72),(B72&amp;"."&amp;C72))</f>
+        <f t="shared" si="4"/>
         <v>4.09</v>
       </c>
       <c r="H72" s="3" t="s">
@@ -23589,7 +23550,7 @@
         <v>1156</v>
       </c>
       <c r="K72" s="3" t="str">
-        <f>J72&amp;" ("&amp;AR72&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L72" s="3" t="s">
@@ -23670,7 +23631,7 @@
         <v>715</v>
       </c>
       <c r="G73" s="4" t="str">
-        <f>IF(C73&lt;10,(B73&amp;".0"&amp;C73),(B73&amp;"."&amp;C73))</f>
+        <f t="shared" si="4"/>
         <v>4.10</v>
       </c>
       <c r="H73" s="3" t="s">
@@ -23681,7 +23642,7 @@
         <v>1053</v>
       </c>
       <c r="K73" s="3" t="str">
-        <f>J73&amp;" ("&amp;AR73&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>Ideally ≥ 1 km (Wearn et al., 2013)</v>
       </c>
       <c r="L73" s="3" t="s">
@@ -23760,7 +23721,7 @@
         <v>716</v>
       </c>
       <c r="G74" s="4" t="str">
-        <f>IF(C74&lt;10,(B74&amp;".0"&amp;C74),(B74&amp;"."&amp;C74))</f>
+        <f t="shared" si="4"/>
         <v>4.11</v>
       </c>
       <c r="H74" s="3" t="s">
@@ -23771,7 +23732,7 @@
         <v>284</v>
       </c>
       <c r="K74" s="3" t="str">
-        <f>J74&amp;" ("&amp;AR74&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>Ideally 1-2 km (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L74" s="3" t="s">
@@ -23850,7 +23811,7 @@
         <v>721</v>
       </c>
       <c r="G75" s="4" t="str">
-        <f>IF(C75&lt;10,(B75&amp;".0"&amp;C75),(B75&amp;"."&amp;C75))</f>
+        <f t="shared" si="4"/>
         <v>4.12</v>
       </c>
       <c r="H75" s="3" t="s">
@@ -23861,7 +23822,7 @@
         <v>1156</v>
       </c>
       <c r="K75" s="3" t="str">
-        <f>J75&amp;" ("&amp;AR75&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L75" s="3" t="s">
@@ -23942,7 +23903,7 @@
         <v>722</v>
       </c>
       <c r="G76" s="4" t="str">
-        <f>IF(C76&lt;10,(B76&amp;".0"&amp;C76),(B76&amp;"."&amp;C76))</f>
+        <f t="shared" si="4"/>
         <v>4.13</v>
       </c>
       <c r="H76" s="3" t="s">
@@ -23953,7 +23914,7 @@
         <v>1052</v>
       </c>
       <c r="K76" s="3" t="str">
-        <f>J76&amp;" ("&amp;AR76&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>Ideally ≥ 30 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L76" s="3" t="s">
@@ -24032,7 +23993,7 @@
         <v>723</v>
       </c>
       <c r="G77" s="4" t="str">
-        <f>IF(C77&lt;10,(B77&amp;".0"&amp;C77),(B77&amp;"."&amp;C77))</f>
+        <f t="shared" si="4"/>
         <v>4.14</v>
       </c>
       <c r="H77" s="3" t="s">
@@ -24043,7 +24004,7 @@
         <v>215</v>
       </c>
       <c r="K77" s="3" t="str">
-        <f>J77&amp;" ("&amp;AR77&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>As many as possible (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L77" s="3" t="s">
@@ -24122,7 +24083,7 @@
         <v>717</v>
       </c>
       <c r="G78" s="4" t="str">
-        <f>IF(C78&lt;10,(B78&amp;".0"&amp;C78),(B78&amp;"."&amp;C78))</f>
+        <f t="shared" si="4"/>
         <v>4.15</v>
       </c>
       <c r="H78" s="3" t="s">
@@ -24133,7 +24094,7 @@
         <v>215</v>
       </c>
       <c r="K78" s="3" t="str">
-        <f>J78&amp;" ("&amp;AR78&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>As many as possible (Rowcliffe et al., 2008; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L78" s="5" t="s">
@@ -24212,7 +24173,7 @@
         <v>718</v>
       </c>
       <c r="G79" s="4" t="str">
-        <f>IF(C79&lt;10,(B79&amp;".0"&amp;C79),(B79&amp;"."&amp;C79))</f>
+        <f t="shared" si="4"/>
         <v>4.16</v>
       </c>
       <c r="H79" s="3" t="s">
@@ -24223,7 +24184,7 @@
         <v>1155</v>
       </c>
       <c r="K79" s="3" t="str">
-        <f>J79&amp;" ("&amp;AR79&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>&lt;b&gt;≥ 20 (minumum)&lt;/b&gt; (Rowcliffe et al., 2008; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L79" s="5" t="s">
@@ -24306,7 +24267,7 @@
         <v>719</v>
       </c>
       <c r="G80" s="4" t="str">
-        <f>IF(C80&lt;10,(B80&amp;".0"&amp;C80),(B80&amp;"."&amp;C80))</f>
+        <f t="shared" si="4"/>
         <v>4.17</v>
       </c>
       <c r="H80" s="3" t="s">
@@ -24317,7 +24278,7 @@
         <v>1051</v>
       </c>
       <c r="K80" s="3" t="str">
-        <f>J80&amp;" ("&amp;AR80&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>Ideally ≥ 50 (Rowcliffe et al., 2008; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L80" s="5" t="s">
@@ -24396,7 +24357,7 @@
         <v>730</v>
       </c>
       <c r="G81" s="4" t="str">
-        <f>IF(C81&lt;10,(B81&amp;".0"&amp;C81),(B81&amp;"."&amp;C81))</f>
+        <f t="shared" si="4"/>
         <v>4.19</v>
       </c>
       <c r="H81" s="3" t="s">
@@ -24407,7 +24368,7 @@
         <v>1157</v>
       </c>
       <c r="K81" s="3" t="str">
-        <f>J81&amp;" ("&amp;AR81&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>&lt;b&gt;No maximum&lt;/b&gt; (Wearn et al., 2013)</v>
       </c>
       <c r="L81" s="5" t="s">
@@ -24488,7 +24449,7 @@
         <v>731</v>
       </c>
       <c r="G82" s="4" t="str">
-        <f>IF(C82&lt;10,(B82&amp;".0"&amp;C82),(B82&amp;"."&amp;C82))</f>
+        <f t="shared" si="4"/>
         <v>4.20</v>
       </c>
       <c r="H82" s="3" t="s">
@@ -24499,7 +24460,7 @@
         <v>330</v>
       </c>
       <c r="K82" s="3" t="str">
-        <f>J82&amp;" ("&amp;AR82&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>Ideally &lt; 12 months (Wearn et al., 2013)</v>
       </c>
       <c r="L82" s="5" t="s">
@@ -24674,7 +24635,7 @@
         <v>834</v>
       </c>
       <c r="G87" s="4" t="str">
-        <f>B87&amp;"."&amp;C87</f>
+        <f t="shared" ref="G87:G150" si="6">B87&amp;"."&amp;C87</f>
         <v>10.21</v>
       </c>
       <c r="H87" s="3" t="s">
@@ -24687,7 +24648,7 @@
         <v>1133</v>
       </c>
       <c r="K87" s="3" t="str">
-        <f>J87&amp;" ("&amp;AR87&amp;")"</f>
+        <f t="shared" ref="K87:K150" si="7">J87&amp;" ("&amp;AR87&amp;")"</f>
         <v>60-100 (or less*) (SCR/SECR: Tobler &amp; Powell, 2013)</v>
       </c>
       <c r="L87" s="11" t="s">
@@ -24768,7 +24729,7 @@
         <v>810</v>
       </c>
       <c r="G88" s="4" t="str">
-        <f>B88&amp;"."&amp;C88</f>
+        <f t="shared" si="6"/>
         <v>9.11</v>
       </c>
       <c r="H88" s="3" t="s">
@@ -24781,7 +24742,7 @@
         <v>1017</v>
       </c>
       <c r="K88" s="3" t="str">
-        <f>J88&amp;" ("&amp;AR88&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>&gt; 60-120 (Sun et al., 2014; Augustine et al., 2019; Sun et al., 2022; Clarke et al., 2023)</v>
       </c>
       <c r="L88" s="3" t="s">
@@ -24862,7 +24823,7 @@
         <v>795</v>
       </c>
       <c r="G89" s="4" t="str">
-        <f>B89&amp;"."&amp;C89</f>
+        <f t="shared" si="6"/>
         <v>8.8</v>
       </c>
       <c r="H89" s="3" t="s">
@@ -24875,7 +24836,7 @@
         <v>1017</v>
       </c>
       <c r="K89" s="3" t="str">
-        <f>J89&amp;" ("&amp;AR89&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>&gt; 60-120 (Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L89" s="3" t="s">
@@ -24954,7 +24915,7 @@
         <v>1032</v>
       </c>
       <c r="G90" s="51" t="str">
-        <f>B90&amp;"."&amp;C90</f>
+        <f t="shared" si="6"/>
         <v>6.23</v>
       </c>
       <c r="H90" s="3" t="s">
@@ -24967,7 +24928,7 @@
         <v>1031</v>
       </c>
       <c r="K90" s="3" t="str">
-        <f>J90&amp;" ("&amp;AR90&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>60-100 (Royle et al., 2009)</v>
       </c>
       <c r="L90" s="50" t="s">
@@ -25048,7 +25009,7 @@
         <v>820</v>
       </c>
       <c r="G91" s="4" t="str">
-        <f>B91&amp;"."&amp;C91</f>
+        <f t="shared" si="6"/>
         <v>10.1</v>
       </c>
       <c r="H91" s="3" t="s">
@@ -25059,7 +25020,7 @@
         <v>1125</v>
       </c>
       <c r="K91" s="3" t="str">
-        <f>J91&amp;" ("&amp;AR91&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>Ideally regular, closely-spaced cameras (relative to home range size) [due to the increased likelihood of capturing both sides of the animal (Augustine et al., 2018)] (Augustine et al., 2018)</v>
       </c>
       <c r="L91" s="3" t="s">
@@ -25142,7 +25103,7 @@
         <v>824</v>
       </c>
       <c r="G92" s="4" t="str">
-        <f>B92&amp;"."&amp;C92</f>
+        <f t="shared" si="6"/>
         <v>10.5</v>
       </c>
       <c r="H92" s="3" t="s">
@@ -25153,7 +25114,7 @@
         <v>1130</v>
       </c>
       <c r="K92" s="3" t="str">
-        <f>J92&amp;" ("&amp;AR92&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>*Note: these recommendations are the same as SCR; however, more flexible ([Same as SCR: Augustine et al., 2018; Clarke et al., 2023])</v>
       </c>
       <c r="L92" s="3" t="s">
@@ -25236,7 +25197,7 @@
         <v>821</v>
       </c>
       <c r="G93" s="4" t="str">
-        <f>B93&amp;"."&amp;C93</f>
+        <f t="shared" si="6"/>
         <v>10.2</v>
       </c>
       <c r="H93" s="3" t="s">
@@ -25247,7 +25208,7 @@
         <v>110</v>
       </c>
       <c r="K93" s="3" t="str">
-        <f>J93&amp;" ("&amp;AR93&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>Paired ([Same as SCR: Augustine et al., 2018; Clarke et al., 2023][SCR/SECR: Rovero et al., 2013; Wearn &amp; Glover-Kapfer, 2017])</v>
       </c>
       <c r="L93" s="3" t="s">
@@ -25328,7 +25289,7 @@
         <v>822</v>
       </c>
       <c r="G94" s="4" t="str">
-        <f>B94&amp;"."&amp;C94</f>
+        <f t="shared" si="6"/>
         <v>10.3</v>
       </c>
       <c r="H94" s="3" t="s">
@@ -25339,7 +25300,7 @@
         <v>155</v>
       </c>
       <c r="K94" s="3" t="str">
-        <f>J94&amp;" ("&amp;AR94&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>Clustered ([Same as SCR: Augustine et al., 2018; Clarke et al., 2023][SCR/SECR: Sun et al., 2014; Wearn &amp; Glover-Kapfer, 2017])</v>
       </c>
       <c r="L94" s="3" t="s">
@@ -25420,7 +25381,7 @@
         <v>823</v>
       </c>
       <c r="G95" s="4" t="str">
-        <f>B95&amp;"."&amp;C95</f>
+        <f t="shared" si="6"/>
         <v>10.4</v>
       </c>
       <c r="H95" s="3" t="s">
@@ -25431,7 +25392,7 @@
         <v>72</v>
       </c>
       <c r="K95" s="3" t="str">
-        <f>J95&amp;" ("&amp;AR95&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>Systematic ([Same as SCR: Augustine et al., 2018; Clarke et al., 2023][SCR/SECR: Clarke et al., 2023])</v>
       </c>
       <c r="L95" s="3" t="s">
@@ -25512,7 +25473,7 @@
         <v>840</v>
       </c>
       <c r="G96" s="4" t="str">
-        <f>B96&amp;"."&amp;C96</f>
+        <f t="shared" si="6"/>
         <v>10.6</v>
       </c>
       <c r="H96" s="3" t="s">
@@ -25523,7 +25484,7 @@
         <v>1129</v>
       </c>
       <c r="K96" s="3" t="str">
-        <f>J96&amp;" ("&amp;AR96&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>Enough for 20-50 recaptures (or less*) ([Krebs et al., 2011; Clarke et al., 2023][Efford, 2004; Noss et al., 2012; Wearn &amp; Glover-Kapfer, 2017])</v>
       </c>
       <c r="L96" s="7" t="s">
@@ -25608,7 +25569,7 @@
         <v>830</v>
       </c>
       <c r="G97" s="4" t="str">
-        <f>B97&amp;"."&amp;C97</f>
+        <f t="shared" si="6"/>
         <v>10.12</v>
       </c>
       <c r="H97" s="3" t="s">
@@ -25619,7 +25580,7 @@
         <v>1135</v>
       </c>
       <c r="K97" s="3" t="str">
-        <f>J97&amp;" ("&amp;AR97&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>*Note: these recommendations are the same as SCR (or less) (Rovero et al., 2013; Augustine et al., 2018)</v>
       </c>
       <c r="L97" s="3" t="s">
@@ -25702,7 +25663,7 @@
         <v>825</v>
       </c>
       <c r="G98" s="4" t="str">
-        <f>B98&amp;"."&amp;C98</f>
+        <f t="shared" si="6"/>
         <v>10.7</v>
       </c>
       <c r="H98" s="3" t="s">
@@ -25713,7 +25674,7 @@
         <v>1174</v>
       </c>
       <c r="K98" s="3" t="str">
-        <f>J98&amp;" ("&amp;AR98&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>&lt;b&gt;&lt; home range diameter (minimum)&lt;/b&gt; (SCR/SECR: Sollmann et al., 2012; Sun et al., 2014; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L98" s="3" t="s">
@@ -25798,7 +25759,7 @@
         <v>826</v>
       </c>
       <c r="G99" s="4" t="str">
-        <f>B99&amp;"."&amp;C99</f>
+        <f t="shared" si="6"/>
         <v>10.8</v>
       </c>
       <c r="H99" s="3" t="s">
@@ -25809,7 +25770,7 @@
         <v>1024</v>
       </c>
       <c r="K99" s="3" t="str">
-        <f>J99&amp;" ("&amp;AR99&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>Ideally 1/3 the home range radius (~4-7 camera per home range) (SCR/SECR: Sollmann et al., 2012; Sun et al., 2014; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L99" s="3" t="s">
@@ -25892,7 +25853,7 @@
         <v>828</v>
       </c>
       <c r="G100" s="4" t="str">
-        <f>B100&amp;"."&amp;C100</f>
+        <f t="shared" si="6"/>
         <v>10.10</v>
       </c>
       <c r="H100" s="3" t="s">
@@ -25903,7 +25864,7 @@
         <v>1173</v>
       </c>
       <c r="K100" s="3" t="str">
-        <f>J100&amp;" ("&amp;AR100&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>&lt;b&gt;≥ 0.8 times the home range radius (maximum)&lt;/b&gt; (SCR/SECR: Sollmann et al., 2012; Sun et al., 2014; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L100" s="3" t="s">
@@ -25988,7 +25949,7 @@
         <v>827</v>
       </c>
       <c r="G101" s="4" t="str">
-        <f>B101&amp;"."&amp;C101</f>
+        <f t="shared" si="6"/>
         <v>10.9</v>
       </c>
       <c r="H101" s="3" t="s">
@@ -25999,7 +25960,7 @@
         <v>1125</v>
       </c>
       <c r="K101" s="3" t="str">
-        <f>J101&amp;" ("&amp;AR101&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>Ideally regular, closely-spaced cameras (relative to home range size) [due to the increased likelihood of capturing both sides of the animal (Augustine et al., 2018)] ([*ix,] Augustine et al., 2018)</v>
       </c>
       <c r="L101" s="3" t="s">
@@ -26080,7 +26041,7 @@
         <v>829</v>
       </c>
       <c r="G102" s="4" t="str">
-        <f>B102&amp;"."&amp;C102</f>
+        <f t="shared" si="6"/>
         <v>10.11</v>
       </c>
       <c r="H102" s="3" t="s">
@@ -26091,7 +26052,7 @@
         <v>371</v>
       </c>
       <c r="K102" s="3" t="str">
-        <f>J102&amp;" ("&amp;AR102&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>Note: larger sampling areas preferred since there will be fewer samples collected on the periphery of the sampled area and thus less uncertainty in identifying individuals ( Augustine et al., 2018)</v>
       </c>
       <c r="L102" s="3" t="s">
@@ -26174,7 +26135,7 @@
         <v>839</v>
       </c>
       <c r="G103" s="4" t="str">
-        <f>B103&amp;"."&amp;C103</f>
+        <f t="shared" si="6"/>
         <v>10.17</v>
       </c>
       <c r="H103" s="3" t="s">
@@ -26185,7 +26146,7 @@
         <v>1135</v>
       </c>
       <c r="K103" s="3" t="str">
-        <f>J103&amp;" ("&amp;AR103&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>*Note: these recommendations are the same as SCR (or less) (Augustine et al., 2018; Clarke et al., 2023)</v>
       </c>
       <c r="L103" s="3" t="s">
@@ -26266,7 +26227,7 @@
         <v>836</v>
       </c>
       <c r="G104" s="4" t="str">
-        <f>B104&amp;"."&amp;C104</f>
+        <f t="shared" si="6"/>
         <v>10.13</v>
       </c>
       <c r="H104" s="3" t="s">
@@ -26277,7 +26238,7 @@
         <v>1000</v>
       </c>
       <c r="K104" s="3" t="str">
-        <f>J104&amp;" ("&amp;AR104&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>≥ 30 (Sun et al., 2014; Augustine et al., 2019; Sun et al., 2022; Clarke et al., 2023)</v>
       </c>
       <c r="L104" s="3" t="s">
@@ -26358,7 +26319,7 @@
         <v>837</v>
       </c>
       <c r="G105" s="4" t="str">
-        <f>B105&amp;"."&amp;C105</f>
+        <f t="shared" si="6"/>
         <v>10.14</v>
       </c>
       <c r="H105" s="3" t="s">
@@ -26369,7 +26330,7 @@
         <v>1019</v>
       </c>
       <c r="K105" s="3" t="str">
-        <f>J105&amp;" ("&amp;AR105&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>&gt; 60 (Sun et al., 2014; Augustine et al., 2019; Sun et al., 2022; Clarke et al., 2023)</v>
       </c>
       <c r="L105" s="3" t="s">
@@ -26450,7 +26411,7 @@
         <v>838</v>
       </c>
       <c r="G106" s="4" t="str">
-        <f>B106&amp;"."&amp;C106</f>
+        <f t="shared" si="6"/>
         <v>10.15</v>
       </c>
       <c r="H106" s="3" t="s">
@@ -26461,7 +26422,7 @@
         <v>1017</v>
       </c>
       <c r="K106" s="3" t="str">
-        <f>J106&amp;" ("&amp;AR106&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>&gt; 60-120 (Sun et al., 2014; Augustine et al., 2019; Sun et al., 2022; Clarke et al., 2023)</v>
       </c>
       <c r="L106" s="3" t="s">
@@ -26542,7 +26503,7 @@
         <v>835</v>
       </c>
       <c r="G107" s="4" t="str">
-        <f>B107&amp;"."&amp;C107</f>
+        <f t="shared" si="6"/>
         <v>10.22</v>
       </c>
       <c r="H107" s="3" t="s">
@@ -26553,7 +26514,7 @@
         <v>1132</v>
       </c>
       <c r="K107" s="3" t="str">
-        <f>J107&amp;" ("&amp;AR107&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>*Note: these recommendations are relative to fewer cameras than SCR (or same but larger sampling area) ([vii] Augustine et al., 2018)</v>
       </c>
       <c r="L107" s="5" t="s">
@@ -26634,7 +26595,7 @@
         <v>831</v>
       </c>
       <c r="G108" s="4" t="str">
-        <f>B108&amp;"."&amp;C108</f>
+        <f t="shared" si="6"/>
         <v>10.18</v>
       </c>
       <c r="H108" s="3" t="s">
@@ -26645,7 +26606,7 @@
         <v>1155</v>
       </c>
       <c r="K108" s="3" t="str">
-        <f>J108&amp;" ("&amp;AR108&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>&lt;b&gt;≥ 20 (minumum)&lt;/b&gt; (SCR/SECR: White et al., 1982; Foster &amp; Harmsen, 2012; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L108" s="5" t="s">
@@ -26730,7 +26691,7 @@
         <v>832</v>
       </c>
       <c r="G109" s="4" t="str">
-        <f>B109&amp;"."&amp;C109</f>
+        <f t="shared" si="6"/>
         <v>10.19</v>
       </c>
       <c r="H109" s="3" t="s">
@@ -26741,7 +26702,7 @@
         <v>1036</v>
       </c>
       <c r="K109" s="3" t="str">
-        <f>J109&amp;" ("&amp;AR109&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>&gt; 4 per home range (or less*) (SCR/SECR: Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L109" s="5" t="s">
@@ -26822,7 +26783,7 @@
         <v>833</v>
       </c>
       <c r="G110" s="4" t="str">
-        <f>B110&amp;"."&amp;C110</f>
+        <f t="shared" si="6"/>
         <v>10.20</v>
       </c>
       <c r="H110" s="3" t="s">
@@ -26833,7 +26794,7 @@
         <v>1134</v>
       </c>
       <c r="K110" s="3" t="str">
-        <f>J110&amp;" ("&amp;AR110&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>If used suggested 4 camera per home range, 40-120 (or less*) (SCR/SECR: Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L110" s="5" t="s">
@@ -26918,7 +26879,7 @@
         <v>844</v>
       </c>
       <c r="G111" s="4" t="str">
-        <f>B111&amp;"."&amp;C111</f>
+        <f t="shared" si="6"/>
         <v>10.26</v>
       </c>
       <c r="H111" s="3" t="s">
@@ -26929,7 +26890,7 @@
         <v>1135</v>
       </c>
       <c r="K111" s="3" t="str">
-        <f>J111&amp;" ("&amp;AR111&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>*Note: these recommendations are the same as SCR (or less) (Augustine et al., 2018; Clarke et al., 2023)</v>
       </c>
       <c r="L111" s="5" t="s">
@@ -27010,7 +26971,7 @@
         <v>841</v>
       </c>
       <c r="G112" s="4" t="str">
-        <f>B112&amp;"."&amp;C112</f>
+        <f t="shared" si="6"/>
         <v>10.23</v>
       </c>
       <c r="H112" s="3" t="s">
@@ -27021,7 +26982,7 @@
         <v>1160</v>
       </c>
       <c r="K112" s="3" t="str">
-        <f>J112&amp;" ("&amp;AR112&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>&lt;b&gt;≥ 1 month per survey (presuming multiple surveys completed) (minumum)&lt;/b&gt; (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="L112" s="26" t="s">
@@ -27106,7 +27067,7 @@
         <v>842</v>
       </c>
       <c r="G113" s="4" t="str">
-        <f>B113&amp;"."&amp;C113</f>
+        <f t="shared" si="6"/>
         <v>10.24</v>
       </c>
       <c r="H113" s="3" t="s">
@@ -27117,7 +27078,7 @@
         <v>542</v>
       </c>
       <c r="K113" s="3" t="str">
-        <f>J113&amp;" ("&amp;AR113&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>Ideally &gt; 12 months total (based on minimum for SCR) (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="L113" s="5" t="s">
@@ -27198,7 +27159,7 @@
         <v>843</v>
       </c>
       <c r="G114" s="4" t="str">
-        <f>B114&amp;"."&amp;C114</f>
+        <f t="shared" si="6"/>
         <v>10.25</v>
       </c>
       <c r="H114" s="3" t="s">
@@ -27209,7 +27170,7 @@
         <v>283</v>
       </c>
       <c r="K114" s="3" t="str">
-        <f>J114&amp;" ("&amp;AR114&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>Ideally 1-3 months (depending on time required to maximize detections while minimizing the violation of "population closure" assumption) (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="L114" s="5" t="s">
@@ -27290,7 +27251,7 @@
         <v>801</v>
       </c>
       <c r="G115" s="4" t="str">
-        <f>B115&amp;"."&amp;C115</f>
+        <f t="shared" si="6"/>
         <v>9.1</v>
       </c>
       <c r="H115" s="3" t="s">
@@ -27301,7 +27262,7 @@
         <v>55</v>
       </c>
       <c r="K115" s="3" t="str">
-        <f>J115&amp;" ("&amp;AR115&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>Systematic random ([Same as SC: Rovero et al., 2013; Sun et al., 2014; Augustine et al., 2019; Sun et al., 2022][SC: Sun et al., 2014; Clark, 2019; Clarke et al., 2023])</v>
       </c>
       <c r="L115" s="3" t="s">
@@ -27382,7 +27343,7 @@
         <v>802</v>
       </c>
       <c r="G116" s="4" t="str">
-        <f>B116&amp;"."&amp;C116</f>
+        <f t="shared" si="6"/>
         <v>9.2</v>
       </c>
       <c r="H116" s="3" t="s">
@@ -27393,7 +27354,7 @@
         <v>155</v>
       </c>
       <c r="K116" s="3" t="str">
-        <f>J116&amp;" ("&amp;AR116&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>Clustered ([Same as SC: Rovero et al., 2013; Sun et al., 2014; Augustine et al., 2019; Sun et al., 2022][SC: Sun et al., 2014; Clark, 2019; Clarke et al., 2023])</v>
       </c>
       <c r="L116" s="3" t="s">
@@ -27474,7 +27435,7 @@
         <v>812</v>
       </c>
       <c r="G117" s="4" t="str">
-        <f>B117&amp;"."&amp;C117</f>
+        <f t="shared" si="6"/>
         <v>9.3</v>
       </c>
       <c r="H117" s="3" t="s">
@@ -27485,7 +27446,7 @@
         <v>119</v>
       </c>
       <c r="K117" s="3" t="str">
-        <f>J117&amp;" ("&amp;AR117&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>No recommendation (Sun et al., 2014; Augustine et al., 2019; Sun et al., 2022; Clarke et al., 2023)</v>
       </c>
       <c r="L117" s="7" t="s">
@@ -27566,7 +27527,7 @@
         <v>813</v>
       </c>
       <c r="G118" s="4" t="str">
-        <f>B118&amp;"."&amp;C118</f>
+        <f t="shared" si="6"/>
         <v>9.4</v>
       </c>
       <c r="H118" s="3" t="s">
@@ -27577,7 +27538,7 @@
         <v>1005</v>
       </c>
       <c r="K118" s="3" t="str">
-        <f>J118&amp;" ("&amp;AR118&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>&gt; 1000 ([Sun et al., 2014; Augustine et al., 2019; Sun et al., 2022; Clarke et al., 2023][Wearn &amp; Glover-Kapfer, 2017])</v>
       </c>
       <c r="L118" s="9" t="s">
@@ -27658,7 +27619,7 @@
         <v>814</v>
       </c>
       <c r="G119" s="4" t="str">
-        <f>B119&amp;"."&amp;C119</f>
+        <f t="shared" si="6"/>
         <v>9.5</v>
       </c>
       <c r="H119" s="3" t="s">
@@ -27669,7 +27630,7 @@
         <v>1004</v>
       </c>
       <c r="K119" s="3" t="str">
-        <f>J119&amp;" ("&amp;AR119&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>&gt; 1200 ([Sun et al., 2014; Augustine et al., 2019; Sun et al., 2022; Clarke et al., 2023][Wearn &amp; Glover-Kapfer, 2017])</v>
       </c>
       <c r="L119" s="9" t="s">
@@ -27752,7 +27713,7 @@
         <v>815</v>
       </c>
       <c r="G120" s="4" t="str">
-        <f>B120&amp;"."&amp;C120</f>
+        <f t="shared" si="6"/>
         <v>9.6</v>
       </c>
       <c r="H120" s="3" t="s">
@@ -27763,7 +27724,7 @@
         <v>1003</v>
       </c>
       <c r="K120" s="3" t="str">
-        <f>J120&amp;" ("&amp;AR120&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>&gt; 3500 ([Sun et al., 2014; Augustine et al., 2019; Sun et al., 2022; Clarke et al., 2023][Wearn &amp; Glover-Kapfer, 2017])</v>
       </c>
       <c r="L120" s="9" t="s">
@@ -27846,7 +27807,7 @@
         <v>803</v>
       </c>
       <c r="G121" s="4" t="str">
-        <f>B121&amp;"."&amp;C121</f>
+        <f t="shared" si="6"/>
         <v>9.7</v>
       </c>
       <c r="H121" s="3" t="s">
@@ -27857,7 +27818,7 @@
         <v>144</v>
       </c>
       <c r="K121" s="3" t="str">
-        <f>J121&amp;" ("&amp;AR121&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>Close enough that individuals will be detected at multiple locations (Royle et al., 2009; Clarke et al., 2023)</v>
       </c>
       <c r="L121" s="3" t="s">
@@ -27936,7 +27897,7 @@
         <v>811</v>
       </c>
       <c r="G122" s="4" t="str">
-        <f>B122&amp;"."&amp;C122</f>
+        <f t="shared" si="6"/>
         <v>9.12</v>
       </c>
       <c r="H122" s="3" t="s">
@@ -27947,7 +27908,7 @@
         <v>1013</v>
       </c>
       <c r="K122" s="3" t="str">
-        <f>J122&amp;" ("&amp;AR122&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>Note: these recommendations are the same as SCR or less (Sun et al., 2014; Augustine et al., 2019; Sun et al., 2022; Clarke et al., 2023)</v>
       </c>
       <c r="L122" s="3" t="s">
@@ -28028,7 +27989,7 @@
         <v>807</v>
       </c>
       <c r="G123" s="4" t="str">
-        <f>B123&amp;"."&amp;C123</f>
+        <f t="shared" si="6"/>
         <v>9.8</v>
       </c>
       <c r="H123" s="3" t="s">
@@ -28039,7 +28000,7 @@
         <v>1162</v>
       </c>
       <c r="K123" s="3" t="str">
-        <f>J123&amp;" ("&amp;AR123&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>&lt;b&gt;≥ 30 (precision is dependent on number of marked individuals in a population) (minumum)&lt;/b&gt; (Burgar, 2021; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="L123" s="3" t="s">
@@ -28124,7 +28085,7 @@
         <v>808</v>
       </c>
       <c r="G124" s="4" t="str">
-        <f>B124&amp;"."&amp;C124</f>
+        <f t="shared" si="6"/>
         <v>9.9</v>
       </c>
       <c r="H124" s="3" t="s">
@@ -28135,7 +28096,7 @@
         <v>1000</v>
       </c>
       <c r="K124" s="3" t="str">
-        <f>J124&amp;" ("&amp;AR124&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>≥ 30 (Sun et al., 2014; Augustine et al., 2019; Sun et al., 2022; Clarke et al., 2023)</v>
       </c>
       <c r="L124" s="3" t="s">
@@ -28216,7 +28177,7 @@
         <v>809</v>
       </c>
       <c r="G125" s="4" t="str">
-        <f>B125&amp;"."&amp;C125</f>
+        <f t="shared" si="6"/>
         <v>9.10</v>
       </c>
       <c r="H125" s="3" t="s">
@@ -28227,7 +28188,7 @@
         <v>1019</v>
       </c>
       <c r="K125" s="3" t="str">
-        <f>J125&amp;" ("&amp;AR125&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>&gt; 60 (Sun et al., 2014; Augustine et al., 2019; Sun et al., 2022; Clarke et al., 2023)</v>
       </c>
       <c r="L125" s="3" t="s">
@@ -28308,7 +28269,7 @@
         <v>806</v>
       </c>
       <c r="G126" s="4" t="str">
-        <f>B126&amp;"."&amp;C126</f>
+        <f t="shared" si="6"/>
         <v>9.15</v>
       </c>
       <c r="H126" s="3" t="s">
@@ -28319,7 +28280,7 @@
         <v>1013</v>
       </c>
       <c r="K126" s="3" t="str">
-        <f>J126&amp;" ("&amp;AR126&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>Note: these recommendations are the same as SCR or less (Sun et al., 2022)</v>
       </c>
       <c r="L126" s="5" t="s">
@@ -28402,7 +28363,7 @@
         <v>804</v>
       </c>
       <c r="G127" s="4" t="str">
-        <f>B127&amp;"."&amp;C127</f>
+        <f t="shared" si="6"/>
         <v>9.13</v>
       </c>
       <c r="H127" s="3" t="s">
@@ -28413,7 +28374,7 @@
         <v>1161</v>
       </c>
       <c r="K127" s="3" t="str">
-        <f>J127&amp;" ("&amp;AR127&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>&lt;b&gt;≥ 30 (minumum)&lt;/b&gt; (Burgar et al., 2018; Sun et al., 2022)</v>
       </c>
       <c r="L127" s="5" t="s">
@@ -28498,7 +28459,7 @@
         <v>805</v>
       </c>
       <c r="G128" s="4" t="str">
-        <f>B128&amp;"."&amp;C128</f>
+        <f t="shared" si="6"/>
         <v>9.14</v>
       </c>
       <c r="H128" s="3" t="s">
@@ -28509,7 +28470,7 @@
         <v>391</v>
       </c>
       <c r="K128" s="3" t="str">
-        <f>J128&amp;" ("&amp;AR128&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>Ideally 60 (but will depend on detection probability and resight data) (Burgar et al., 2018; Sun et al., 2022)</v>
       </c>
       <c r="L128" s="5" t="s">
@@ -28592,7 +28553,7 @@
         <v>819</v>
       </c>
       <c r="G129" s="4" t="str">
-        <f>B129&amp;"."&amp;C129</f>
+        <f t="shared" si="6"/>
         <v>9.19</v>
       </c>
       <c r="H129" s="3" t="s">
@@ -28603,7 +28564,7 @@
         <v>1171</v>
       </c>
       <c r="K129" s="3" t="str">
-        <f>J129&amp;" ("&amp;AR129&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>*Note: these recommendations are the same as SC (or less) (such that identity traits [e.g., antlers present/ absent] don’t change (Sun et al., 2014)</v>
       </c>
       <c r="L129" s="5" t="s">
@@ -28684,7 +28645,7 @@
         <v>816</v>
       </c>
       <c r="G130" s="4" t="str">
-        <f>B130&amp;"."&amp;C130</f>
+        <f t="shared" si="6"/>
         <v>9.16</v>
       </c>
       <c r="H130" s="3" t="s">
@@ -28695,7 +28656,7 @@
         <v>1160</v>
       </c>
       <c r="K130" s="3" t="str">
-        <f>J130&amp;" ("&amp;AR130&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>&lt;b&gt;≥ 1 month per survey (presuming multiple surveys completed) (minumum)&lt;/b&gt; (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="L130" s="26" t="s">
@@ -28780,7 +28741,7 @@
         <v>817</v>
       </c>
       <c r="G131" s="4" t="str">
-        <f>B131&amp;"."&amp;C131</f>
+        <f t="shared" si="6"/>
         <v>9.17</v>
       </c>
       <c r="H131" s="3" t="s">
@@ -28791,7 +28752,7 @@
         <v>542</v>
       </c>
       <c r="K131" s="3" t="str">
-        <f>J131&amp;" ("&amp;AR131&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>Ideally &gt; 12 months total (based on minimum for SCR) (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="L131" s="5" t="s">
@@ -28872,7 +28833,7 @@
         <v>818</v>
       </c>
       <c r="G132" s="4" t="str">
-        <f>B132&amp;"."&amp;C132</f>
+        <f t="shared" si="6"/>
         <v>9.18</v>
       </c>
       <c r="H132" s="3" t="s">
@@ -28883,7 +28844,7 @@
         <v>283</v>
       </c>
       <c r="K132" s="3" t="str">
-        <f>J132&amp;" ("&amp;AR132&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>Ideally 1-3 months (depending on time required to maximize detections while minimizing the violation of "population closure" assumption) (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="L132" s="5" t="s">
@@ -28964,7 +28925,7 @@
         <v>732</v>
       </c>
       <c r="G133" s="4" t="str">
-        <f>B133&amp;"."&amp;C133</f>
+        <f t="shared" si="6"/>
         <v>5.1</v>
       </c>
       <c r="H133" s="3" t="s">
@@ -28975,7 +28936,7 @@
         <v>93</v>
       </c>
       <c r="K133" s="3" t="str">
-        <f>J133&amp;" ("&amp;AR133&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>Ideally paired or random ([*ii] Tobler et al., 2008; Rovero et al., 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L133" s="3" t="s">
@@ -29056,7 +29017,7 @@
         <v>733</v>
       </c>
       <c r="G134" s="4" t="str">
-        <f>B134&amp;"."&amp;C134</f>
+        <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
       <c r="H134" s="3" t="s">
@@ -29067,7 +29028,7 @@
         <v>37</v>
       </c>
       <c r="K134" s="3" t="str">
-        <f>J134&amp;" ("&amp;AR134&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>Targeted ([*iii] Tobler et al., 2008; Sollmann et al., 2012; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L134" s="3" t="s">
@@ -29148,7 +29109,7 @@
         <v>734</v>
       </c>
       <c r="G135" s="4" t="str">
-        <f>B135&amp;"."&amp;C135</f>
+        <f t="shared" si="6"/>
         <v>5.3</v>
       </c>
       <c r="H135" s="3" t="s">
@@ -29159,7 +29120,7 @@
         <v>37</v>
       </c>
       <c r="K135" s="3" t="str">
-        <f>J135&amp;" ("&amp;AR135&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>Targeted (Rovero et al., 2013)</v>
       </c>
       <c r="L135" s="3" t="s">
@@ -29240,7 +29201,7 @@
         <v>735</v>
       </c>
       <c r="G136" s="4" t="str">
-        <f>B136&amp;"."&amp;C136</f>
+        <f t="shared" si="6"/>
         <v>5.4</v>
       </c>
       <c r="H136" s="3" t="s">
@@ -29251,7 +29212,7 @@
         <v>72</v>
       </c>
       <c r="K136" s="3" t="str">
-        <f>J136&amp;" ("&amp;AR136&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>Systematic (Clarke et al., 2023)</v>
       </c>
       <c r="L136" s="3" t="s">
@@ -29330,7 +29291,7 @@
         <v>745</v>
       </c>
       <c r="G137" s="4" t="str">
-        <f>B137&amp;"."&amp;C137</f>
+        <f t="shared" si="6"/>
         <v>5.5</v>
       </c>
       <c r="H137" s="3" t="s">
@@ -29341,7 +29302,7 @@
         <v>1005</v>
       </c>
       <c r="K137" s="3" t="str">
-        <f>J137&amp;" ("&amp;AR137&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>&gt; 1000 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L137" s="7" t="s">
@@ -29418,7 +29379,7 @@
         <v>746</v>
       </c>
       <c r="G138" s="4" t="str">
-        <f>B138&amp;"."&amp;C138</f>
+        <f t="shared" si="6"/>
         <v>5.6</v>
       </c>
       <c r="H138" s="3" t="s">
@@ -29429,7 +29390,7 @@
         <v>1004</v>
       </c>
       <c r="K138" s="3" t="str">
-        <f>J138&amp;" ("&amp;AR138&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>&gt; 1200 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L138" s="7" t="s">
@@ -29508,7 +29469,7 @@
         <v>747</v>
       </c>
       <c r="G139" s="4" t="str">
-        <f>B139&amp;"."&amp;C139</f>
+        <f t="shared" si="6"/>
         <v>5.7</v>
       </c>
       <c r="H139" s="3" t="s">
@@ -29519,7 +29480,7 @@
         <v>1003</v>
       </c>
       <c r="K139" s="3" t="str">
-        <f>J139&amp;" ("&amp;AR139&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>&gt; 3500 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L139" s="7" t="s">
@@ -29598,7 +29559,7 @@
         <v>736</v>
       </c>
       <c r="G140" s="4" t="str">
-        <f>B140&amp;"."&amp;C140</f>
+        <f t="shared" si="6"/>
         <v>5.8</v>
       </c>
       <c r="H140" s="3" t="s">
@@ -29609,7 +29570,7 @@
         <v>378</v>
       </c>
       <c r="K140" s="3" t="str">
-        <f>J140&amp;" ("&amp;AR140&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>Spatially dependent ([*iv] Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L140" s="3" t="s">
@@ -29690,7 +29651,7 @@
         <v>737</v>
       </c>
       <c r="G141" s="4" t="str">
-        <f>B141&amp;"."&amp;C141</f>
+        <f t="shared" si="6"/>
         <v>5.9</v>
       </c>
       <c r="H141" s="3" t="s">
@@ -29701,7 +29662,7 @@
         <v>1026</v>
       </c>
       <c r="K141" s="3" t="str">
-        <f>J141&amp;" ("&amp;AR141&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>&lt; home range diameter ([*v] Rovero et al., 2013)</v>
       </c>
       <c r="L141" s="3" t="s">
@@ -29782,7 +29743,7 @@
         <v>738</v>
       </c>
       <c r="G142" s="4" t="str">
-        <f>B142&amp;"."&amp;C142</f>
+        <f t="shared" si="6"/>
         <v>5.10</v>
       </c>
       <c r="H142" s="3" t="s">
@@ -29793,7 +29754,7 @@
         <v>278</v>
       </c>
       <c r="K142" s="3" t="str">
-        <f>J142&amp;" ("&amp;AR142&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>1-4 km is typical (Tobler et al., 2008;  Sollmann et al., 2012; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L142" s="3" t="s">
@@ -29872,7 +29833,7 @@
         <v>742</v>
       </c>
       <c r="G143" s="4" t="str">
-        <f>B143&amp;"."&amp;C143</f>
+        <f t="shared" si="6"/>
         <v>5.11</v>
       </c>
       <c r="H143" s="3" t="s">
@@ -29883,7 +29844,7 @@
         <v>1000</v>
       </c>
       <c r="K143" s="3" t="str">
-        <f>J143&amp;" ("&amp;AR143&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>≥ 30 (Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L143" s="3" t="s">
@@ -29962,7 +29923,7 @@
         <v>743</v>
       </c>
       <c r="G144" s="4" t="str">
-        <f>B144&amp;"."&amp;C144</f>
+        <f t="shared" si="6"/>
         <v>5.12</v>
       </c>
       <c r="H144" s="3" t="s">
@@ -29973,7 +29934,7 @@
         <v>1019</v>
       </c>
       <c r="K144" s="3" t="str">
-        <f>J144&amp;" ("&amp;AR144&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>&gt; 60 (Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L144" s="3" t="s">
@@ -30052,7 +30013,7 @@
         <v>744</v>
       </c>
       <c r="G145" s="4" t="str">
-        <f>B145&amp;"."&amp;C145</f>
+        <f t="shared" si="6"/>
         <v>5.13</v>
       </c>
       <c r="H145" s="3" t="s">
@@ -30063,7 +30024,7 @@
         <v>1017</v>
       </c>
       <c r="K145" s="3" t="str">
-        <f>J145&amp;" ("&amp;AR145&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>&gt; 60-120 (Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L145" s="3" t="s">
@@ -30142,7 +30103,7 @@
         <v>739</v>
       </c>
       <c r="G146" s="4" t="str">
-        <f>B146&amp;"."&amp;C146</f>
+        <f t="shared" si="6"/>
         <v>5.14</v>
       </c>
       <c r="H146" s="3" t="s">
@@ -30153,7 +30114,7 @@
         <v>1170</v>
       </c>
       <c r="K146" s="3" t="str">
-        <f>J146&amp;" ("&amp;AR146&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>&lt;b&gt;Enough to encompass the home ranges of 5-10 individuals (minumum)&lt;/b&gt; ( Krebs et al., 2011; Noss et al., 2012; Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L146" s="5" t="s">
@@ -30236,7 +30197,7 @@
         <v>740</v>
       </c>
       <c r="G147" s="4" t="str">
-        <f>B147&amp;"."&amp;C147</f>
+        <f t="shared" si="6"/>
         <v>5.15</v>
       </c>
       <c r="H147" s="3" t="s">
@@ -30247,7 +30208,7 @@
         <v>1044</v>
       </c>
       <c r="K147" s="3" t="str">
-        <f>J147&amp;" ("&amp;AR147&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>≥ 2 per smallest home range (Karanth &amp; Nichols, 1998; Rovero et al., 2013)</v>
       </c>
       <c r="L147" s="5" t="s">
@@ -30326,7 +30287,7 @@
         <v>741</v>
       </c>
       <c r="G148" s="4" t="str">
-        <f>B148&amp;"."&amp;C148</f>
+        <f t="shared" si="6"/>
         <v>5.16</v>
       </c>
       <c r="H148" s="3" t="s">
@@ -30337,7 +30298,7 @@
         <v>1043</v>
       </c>
       <c r="K148" s="3" t="str">
-        <f>J148&amp;" ("&amp;AR148&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>&gt; 2-4 per smallest home range (Rovero et al., 2013)</v>
       </c>
       <c r="L148" s="5" t="s">
@@ -30416,7 +30377,7 @@
         <v>748</v>
       </c>
       <c r="G149" s="4" t="str">
-        <f>B149&amp;"."&amp;C149</f>
+        <f t="shared" si="6"/>
         <v>5.17</v>
       </c>
       <c r="H149" s="3" t="s">
@@ -30427,7 +30388,7 @@
         <v>216</v>
       </c>
       <c r="K149" s="3" t="str">
-        <f>J149&amp;" ("&amp;AR149&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>As short as possible (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L149" s="5" t="s">
@@ -30506,7 +30467,7 @@
         <v>749</v>
       </c>
       <c r="G150" s="4" t="str">
-        <f>B150&amp;"."&amp;C150</f>
+        <f t="shared" si="6"/>
         <v>5.18</v>
       </c>
       <c r="H150" s="3" t="s">
@@ -30517,7 +30478,7 @@
         <v>218</v>
       </c>
       <c r="K150" s="3" t="str">
-        <f>J150&amp;" ("&amp;AR150&amp;")"</f>
+        <f t="shared" si="7"/>
         <v>&gt; 60 recaptures (Rovero et al., 2013)</v>
       </c>
       <c r="L150" s="5" t="s">
@@ -30598,7 +30559,7 @@
         <v>750</v>
       </c>
       <c r="G151" s="4" t="str">
-        <f>B151&amp;"."&amp;C151</f>
+        <f t="shared" ref="G151:G214" si="8">B151&amp;"."&amp;C151</f>
         <v>5.19</v>
       </c>
       <c r="H151" s="3" t="s">
@@ -30609,7 +30570,7 @@
         <v>167</v>
       </c>
       <c r="K151" s="3" t="str">
-        <f>J151&amp;" ("&amp;AR151&amp;")"</f>
+        <f t="shared" ref="K151:K214" si="9">J151&amp;" ("&amp;AR151&amp;")"</f>
         <v>Species-dependent (Tobler et al., 2008; Sollmann et al., 2012)</v>
       </c>
       <c r="L151" s="5" t="s">
@@ -30690,7 +30651,7 @@
         <v>751</v>
       </c>
       <c r="G152" s="4" t="str">
-        <f>B152&amp;"."&amp;C152</f>
+        <f t="shared" si="8"/>
         <v>5.20</v>
       </c>
       <c r="H152" s="3" t="s">
@@ -30701,7 +30662,7 @@
         <v>324</v>
       </c>
       <c r="K152" s="3" t="str">
-        <f>J152&amp;" ("&amp;AR152&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Ideally &lt; 3 months (Tobler et al., 2008; Sollmann et al., 2012)</v>
       </c>
       <c r="L152" s="5" t="s">
@@ -30780,7 +30741,7 @@
         <v>919</v>
       </c>
       <c r="G153" s="4" t="str">
-        <f>B153&amp;"."&amp;C153</f>
+        <f t="shared" si="8"/>
         <v>14.1</v>
       </c>
       <c r="H153" s="3" t="s">
@@ -30791,7 +30752,7 @@
         <v>100</v>
       </c>
       <c r="K153" s="3" t="str">
-        <f>J153&amp;" ("&amp;AR153&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Random with respect to movement, pointing in either random or consistent direction (Loonam et al., 2021; Clarke et al., 2023)</v>
       </c>
       <c r="L153" s="3" t="s">
@@ -30872,7 +30833,7 @@
         <v>920</v>
       </c>
       <c r="G154" s="4" t="str">
-        <f>B154&amp;"."&amp;C154</f>
+        <f t="shared" si="8"/>
         <v>14.2</v>
       </c>
       <c r="H154" s="3" t="s">
@@ -30883,7 +30844,7 @@
         <v>72</v>
       </c>
       <c r="K154" s="3" t="str">
-        <f>J154&amp;" ("&amp;AR154&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Systematic (Loonam et al., 2021)</v>
       </c>
       <c r="L154" s="3" t="s">
@@ -30962,7 +30923,7 @@
         <v>921</v>
       </c>
       <c r="G155" s="4" t="str">
-        <f>B155&amp;"."&amp;C155</f>
+        <f t="shared" si="8"/>
         <v>14.3</v>
       </c>
       <c r="H155" s="3" t="s">
@@ -30973,7 +30934,7 @@
         <v>92</v>
       </c>
       <c r="K155" s="3" t="str">
-        <f>J155&amp;" ("&amp;AR155&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Random (Loonam et al., 2021)</v>
       </c>
       <c r="L155" s="3" t="s">
@@ -31054,7 +31015,7 @@
         <v>922</v>
       </c>
       <c r="G156" s="4" t="str">
-        <f>B156&amp;"."&amp;C156</f>
+        <f t="shared" si="8"/>
         <v>14.4</v>
       </c>
       <c r="H156" s="3" t="s">
@@ -31065,7 +31026,7 @@
         <v>37</v>
       </c>
       <c r="K156" s="3" t="str">
-        <f>J156&amp;" ("&amp;AR156&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Targeted (Loonam et al., 2021)</v>
       </c>
       <c r="L156" s="3" t="s">
@@ -31146,7 +31107,7 @@
         <v>926</v>
       </c>
       <c r="G157" s="4" t="str">
-        <f>B157&amp;"."&amp;C157</f>
+        <f t="shared" si="8"/>
         <v>14.5</v>
       </c>
       <c r="H157" s="3" t="s">
@@ -31157,7 +31118,7 @@
         <v>133</v>
       </c>
       <c r="K157" s="3" t="str">
-        <f>J157&amp;" ("&amp;AR157&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Dependent on spatial extent of interest (Moeller et al., 2023)</v>
       </c>
       <c r="L157" s="7" t="s">
@@ -31236,7 +31197,7 @@
         <v>923</v>
       </c>
       <c r="G158" s="4" t="str">
-        <f>B158&amp;"."&amp;C158</f>
+        <f t="shared" si="8"/>
         <v>14.6</v>
       </c>
       <c r="H158" s="3" t="s">
@@ -31247,7 +31208,7 @@
         <v>359</v>
       </c>
       <c r="K158" s="3" t="str">
-        <f>J158&amp;" ("&amp;AR158&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Dependent on spatial extent of interest  (Moeller et al., 2023)</v>
       </c>
       <c r="L158" s="3" t="s">
@@ -31328,7 +31289,7 @@
         <v>925</v>
       </c>
       <c r="G159" s="4" t="str">
-        <f>B159&amp;"."&amp;C159</f>
+        <f t="shared" si="8"/>
         <v>14.7</v>
       </c>
       <c r="H159" s="3" t="s">
@@ -31339,7 +31300,7 @@
         <v>133</v>
       </c>
       <c r="K159" s="3" t="str">
-        <f>J159&amp;" ("&amp;AR159&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Dependent on spatial extent of interest (Moeller et al., 2023)</v>
       </c>
       <c r="L159" s="3" t="s">
@@ -31420,7 +31381,7 @@
         <v>924</v>
       </c>
       <c r="G160" s="4" t="str">
-        <f>B160&amp;"."&amp;C160</f>
+        <f t="shared" si="8"/>
         <v>14.8</v>
       </c>
       <c r="H160" s="3" t="s">
@@ -31431,7 +31392,7 @@
         <v>133</v>
       </c>
       <c r="K160" s="3" t="str">
-        <f>J160&amp;" ("&amp;AR160&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Dependent on spatial extent of interest (Moeller et al., 2023)</v>
       </c>
       <c r="L160" s="5" t="s">
@@ -31512,7 +31473,7 @@
         <v>927</v>
       </c>
       <c r="G161" s="4" t="str">
-        <f>B161&amp;"."&amp;C161</f>
+        <f t="shared" si="8"/>
         <v>14.9</v>
       </c>
       <c r="H161" s="3" t="s">
@@ -31523,7 +31484,7 @@
         <v>133</v>
       </c>
       <c r="K161" s="3" t="str">
-        <f>J161&amp;" ("&amp;AR161&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Dependent on spatial extent of interest (Moeller et al., 2023)</v>
       </c>
       <c r="L161" s="5" t="s">
@@ -31602,7 +31563,7 @@
         <v>948</v>
       </c>
       <c r="G162" s="4" t="str">
-        <f>B162&amp;"."&amp;C162</f>
+        <f t="shared" si="8"/>
         <v>17.1</v>
       </c>
       <c r="H162" s="3" t="s">
@@ -31613,7 +31574,7 @@
         <v>101</v>
       </c>
       <c r="K162" s="3" t="str">
-        <f>J162&amp;" ("&amp;AR162&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Random with respect to movement (Loonam et al., 2021)</v>
       </c>
       <c r="L162" s="3" t="s">
@@ -31694,7 +31655,7 @@
         <v>949</v>
       </c>
       <c r="G163" s="4" t="str">
-        <f>B163&amp;"."&amp;C163</f>
+        <f t="shared" si="8"/>
         <v>17.2</v>
       </c>
       <c r="H163" s="3" t="s">
@@ -31705,7 +31666,7 @@
         <v>72</v>
       </c>
       <c r="K163" s="3" t="str">
-        <f>J163&amp;" ("&amp;AR163&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Systematic (Loonam et al., 2021)</v>
       </c>
       <c r="L163" s="3" t="s">
@@ -31784,7 +31745,7 @@
         <v>950</v>
       </c>
       <c r="G164" s="4" t="str">
-        <f>B164&amp;"."&amp;C164</f>
+        <f t="shared" si="8"/>
         <v>17.3</v>
       </c>
       <c r="H164" s="3" t="s">
@@ -31795,7 +31756,7 @@
         <v>55</v>
       </c>
       <c r="K164" s="3" t="str">
-        <f>J164&amp;" ("&amp;AR164&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Systematic random (Loonam et al., 2021)</v>
       </c>
       <c r="L164" s="3" t="s">
@@ -31874,7 +31835,7 @@
         <v>956</v>
       </c>
       <c r="G165" s="4" t="str">
-        <f>B165&amp;"."&amp;C165</f>
+        <f t="shared" si="8"/>
         <v>17.4</v>
       </c>
       <c r="H165" s="3" t="s">
@@ -31885,7 +31846,7 @@
         <v>355</v>
       </c>
       <c r="K165" s="3" t="str">
-        <f>J165&amp;" ("&amp;AR165&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Dependent on species density and distribution (e.g., more cameras with lower density and more clumped distribution) (Moeller et al., 2018)</v>
       </c>
       <c r="L165" s="7" t="s">
@@ -31964,7 +31925,7 @@
         <v>951</v>
       </c>
       <c r="G166" s="4" t="str">
-        <f>B166&amp;"."&amp;C166</f>
+        <f t="shared" si="8"/>
         <v>17.5</v>
       </c>
       <c r="H166" s="3" t="s">
@@ -31975,7 +31936,7 @@
         <v>1103</v>
       </c>
       <c r="K166" s="3" t="str">
-        <f>J166&amp;" ("&amp;AR166&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>No requirements (uses instantaneous snapshots) (Moeller et al., 2018)</v>
       </c>
       <c r="L166" s="3" t="s">
@@ -32054,7 +32015,7 @@
         <v>955</v>
       </c>
       <c r="G167" s="4" t="str">
-        <f>B167&amp;"."&amp;C167</f>
+        <f t="shared" si="8"/>
         <v>17.6</v>
       </c>
       <c r="H167" s="3" t="s">
@@ -32065,7 +32026,7 @@
         <v>1156</v>
       </c>
       <c r="K167" s="3" t="str">
-        <f>J167&amp;" ("&amp;AR167&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Howe et al., 2017)</v>
       </c>
       <c r="L167" s="3" t="s">
@@ -32146,7 +32107,7 @@
         <v>954</v>
       </c>
       <c r="G168" s="4" t="str">
-        <f>B168&amp;"."&amp;C168</f>
+        <f t="shared" si="8"/>
         <v>17.9</v>
       </c>
       <c r="H168" s="3" t="s">
@@ -32157,7 +32118,7 @@
         <v>1101</v>
       </c>
       <c r="K168" s="3" t="str">
-        <f>J168&amp;" ("&amp;AR168&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Dependent on species' density and distribution (e.g., more cameras with lower density and more clumped distribution) (Howe et al., 2017)</v>
       </c>
       <c r="L168" s="5" t="s">
@@ -32238,7 +32199,7 @@
         <v>952</v>
       </c>
       <c r="G169" s="4" t="str">
-        <f>B169&amp;"."&amp;C169</f>
+        <f t="shared" si="8"/>
         <v>17.7</v>
       </c>
       <c r="H169" s="3" t="s">
@@ -32249,7 +32210,7 @@
         <v>1155</v>
       </c>
       <c r="K169" s="3" t="str">
-        <f>J169&amp;" ("&amp;AR169&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>&lt;b&gt;≥ 20 (minumum)&lt;/b&gt; (Moeller et al., 2018)</v>
       </c>
       <c r="L169" s="5" t="s">
@@ -32332,7 +32293,7 @@
         <v>953</v>
       </c>
       <c r="G170" s="4" t="str">
-        <f>B170&amp;"."&amp;C170</f>
+        <f t="shared" si="8"/>
         <v>17.8</v>
       </c>
       <c r="H170" s="3" t="s">
@@ -32343,7 +32304,7 @@
         <v>169</v>
       </c>
       <c r="K170" s="3" t="str">
-        <f>J170&amp;" ("&amp;AR170&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Ideally &gt; 50 (Moeller et al., 2018)</v>
       </c>
       <c r="L170" s="5" t="s">
@@ -32422,7 +32383,7 @@
         <v>957</v>
       </c>
       <c r="G171" s="4" t="str">
-        <f>B171&amp;"."&amp;C171</f>
+        <f t="shared" si="8"/>
         <v>17.10</v>
       </c>
       <c r="H171" s="3" t="s">
@@ -32433,7 +32394,7 @@
         <v>1104</v>
       </c>
       <c r="K171" s="3" t="str">
-        <f>J171&amp;" ("&amp;AR171&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>No requirements (Moeller et al., 2018)</v>
       </c>
       <c r="L171" s="5" t="s">
@@ -32512,7 +32473,7 @@
         <v>845</v>
       </c>
       <c r="G172" s="4" t="str">
-        <f>B172&amp;"."&amp;C172</f>
+        <f t="shared" si="8"/>
         <v>11.1</v>
       </c>
       <c r="H172" s="3" t="s">
@@ -32523,7 +32484,7 @@
         <v>101</v>
       </c>
       <c r="K172" s="3" t="str">
-        <f>J172&amp;" ("&amp;AR172&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Random with respect to movement ([*viii] Rovero et al., 2013; Rowcliffe et al., 2013; Wearn &amp; Glover-Kapfer, 2017; Loonam et al., 2021)</v>
       </c>
       <c r="L172" s="3" t="s">
@@ -32604,7 +32565,7 @@
         <v>846</v>
       </c>
       <c r="G173" s="4" t="str">
-        <f>B173&amp;"."&amp;C173</f>
+        <f t="shared" si="8"/>
         <v>11.2</v>
       </c>
       <c r="H173" s="3" t="s">
@@ -32615,7 +32576,7 @@
         <v>72</v>
       </c>
       <c r="K173" s="3" t="str">
-        <f>J173&amp;" ("&amp;AR173&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Systematic (Loonam et al., 2021)</v>
       </c>
       <c r="L173" s="3" t="s">
@@ -32696,7 +32657,7 @@
         <v>847</v>
       </c>
       <c r="G174" s="4" t="str">
-        <f>B174&amp;"."&amp;C174</f>
+        <f t="shared" si="8"/>
         <v>11.3</v>
       </c>
       <c r="H174" s="3" t="s">
@@ -32707,7 +32668,7 @@
         <v>55</v>
       </c>
       <c r="K174" s="3" t="str">
-        <f>J174&amp;" ("&amp;AR174&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Systematic random ([*ix] Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L174" s="3" t="s">
@@ -32788,7 +32749,7 @@
         <v>848</v>
       </c>
       <c r="G175" s="4" t="str">
-        <f>B175&amp;"."&amp;C175</f>
+        <f t="shared" si="8"/>
         <v>11.4</v>
       </c>
       <c r="H175" s="3" t="s">
@@ -32799,7 +32760,7 @@
         <v>85</v>
       </c>
       <c r="K175" s="3" t="str">
-        <f>J175&amp;" ("&amp;AR175&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Stratified random (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L175" s="3" t="s">
@@ -32880,7 +32841,7 @@
         <v>849</v>
       </c>
       <c r="G176" s="4" t="str">
-        <f>B176&amp;"."&amp;C176</f>
+        <f t="shared" si="8"/>
         <v>11.5</v>
       </c>
       <c r="H176" s="3" t="s">
@@ -32891,7 +32852,7 @@
         <v>80</v>
       </c>
       <c r="K176" s="3" t="str">
-        <f>J176&amp;" ("&amp;AR176&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Stratified targeted ([*x] Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L176" s="3" t="s">
@@ -32972,7 +32933,7 @@
         <v>862</v>
       </c>
       <c r="G177" s="4" t="str">
-        <f>B177&amp;"."&amp;C177</f>
+        <f t="shared" si="8"/>
         <v>11.6</v>
       </c>
       <c r="H177" s="3" t="s">
@@ -32983,7 +32944,7 @@
         <v>1159</v>
       </c>
       <c r="K177" s="3" t="str">
-        <f>J177&amp;" ("&amp;AR177&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>&lt;b&gt;≥ 10 detections (minumum)&lt;/b&gt; (Rowcliffe et al., 2008; Rovero et al., 2013)</v>
       </c>
       <c r="L177" s="7" t="s">
@@ -33068,7 +33029,7 @@
         <v>863</v>
       </c>
       <c r="G178" s="4" t="str">
-        <f>B178&amp;"."&amp;C178</f>
+        <f t="shared" si="8"/>
         <v>11.7</v>
       </c>
       <c r="H178" s="3" t="s">
@@ -33079,7 +33040,7 @@
         <v>350</v>
       </c>
       <c r="K178" s="3" t="str">
-        <f>J178&amp;" ("&amp;AR178&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Ideally &gt; 20 detections (Rowcliffe et al., 2008; Rovero et al., 2013)</v>
       </c>
       <c r="L178" s="7" t="s">
@@ -33162,7 +33123,7 @@
         <v>864</v>
       </c>
       <c r="G179" s="4" t="str">
-        <f>B179&amp;"."&amp;C179</f>
+        <f t="shared" si="8"/>
         <v>11.8</v>
       </c>
       <c r="H179" s="3" t="s">
@@ -33173,7 +33134,7 @@
         <v>1113</v>
       </c>
       <c r="K179" s="3" t="str">
-        <f>J179&amp;" ("&amp;AR179&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Often 2000 (Rowcliffe et al., 2008; Rovero et al., 2013)</v>
       </c>
       <c r="L179" s="7" t="s">
@@ -33252,7 +33213,7 @@
         <v>865</v>
       </c>
       <c r="G180" s="4" t="str">
-        <f>B180&amp;"."&amp;C180</f>
+        <f t="shared" si="8"/>
         <v>11.9</v>
       </c>
       <c r="H180" s="3" t="s">
@@ -33263,7 +33224,7 @@
         <v>1168</v>
       </c>
       <c r="K180" s="3" t="str">
-        <f>J180&amp;" ("&amp;AR180&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>10,00-10,000 (for most, if estimates of activity and speed are to be reasonably precise) (Rowcliffe et al., 2016)</v>
       </c>
       <c r="L180" s="7" t="s">
@@ -33340,7 +33301,7 @@
         <v>866</v>
       </c>
       <c r="G181" s="4" t="str">
-        <f>B181&amp;"."&amp;C181</f>
+        <f t="shared" si="8"/>
         <v>11.10</v>
       </c>
       <c r="H181" s="3" t="s">
@@ -33351,7 +33312,7 @@
         <v>1060</v>
       </c>
       <c r="K181" s="3" t="str">
-        <f>J181&amp;" ("&amp;AR181&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>&gt; 2000 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L181" s="7" t="s">
@@ -33434,7 +33395,7 @@
         <v>850</v>
       </c>
       <c r="G182" s="4" t="str">
-        <f>B182&amp;"."&amp;C182</f>
+        <f t="shared" si="8"/>
         <v>11.11</v>
       </c>
       <c r="H182" s="3" t="s">
@@ -33445,7 +33406,7 @@
         <v>1156</v>
       </c>
       <c r="K182" s="3" t="str">
-        <f>J182&amp;" ("&amp;AR182&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L182" s="3" t="s">
@@ -33526,7 +33487,7 @@
         <v>851</v>
       </c>
       <c r="G183" s="4" t="str">
-        <f>B183&amp;"."&amp;C183</f>
+        <f t="shared" si="8"/>
         <v>11.12</v>
       </c>
       <c r="H183" s="3" t="s">
@@ -33537,7 +33498,7 @@
         <v>1053</v>
       </c>
       <c r="K183" s="3" t="str">
-        <f>J183&amp;" ("&amp;AR183&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Ideally ≥ 1 km (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L183" s="3" t="s">
@@ -33616,7 +33577,7 @@
         <v>852</v>
       </c>
       <c r="G184" s="4" t="str">
-        <f>B184&amp;"."&amp;C184</f>
+        <f t="shared" si="8"/>
         <v>11.13</v>
       </c>
       <c r="H184" s="3" t="s">
@@ -33627,7 +33588,7 @@
         <v>362</v>
       </c>
       <c r="K184" s="3" t="str">
-        <f>J184&amp;" ("&amp;AR184&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Spatially independent (Rowcliffe et al., 2013)</v>
       </c>
       <c r="L184" s="3" t="s">
@@ -33708,7 +33669,7 @@
         <v>853</v>
       </c>
       <c r="G185" s="4" t="str">
-        <f>B185&amp;"."&amp;C185</f>
+        <f t="shared" si="8"/>
         <v>11.14</v>
       </c>
       <c r="H185" s="3" t="s">
@@ -33719,7 +33680,7 @@
         <v>164</v>
       </c>
       <c r="K185" s="3" t="str">
-        <f>J185&amp;" ("&amp;AR185&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>&gt; home range diameter (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L185" s="3" t="s">
@@ -33800,7 +33761,7 @@
         <v>854</v>
       </c>
       <c r="G186" s="4" t="str">
-        <f>B186&amp;"."&amp;C186</f>
+        <f t="shared" si="8"/>
         <v>11.15</v>
       </c>
       <c r="H186" s="3" t="s">
@@ -33811,7 +33772,7 @@
         <v>1121</v>
       </c>
       <c r="K186" s="3" t="str">
-        <f>J186&amp;" ("&amp;AR186&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>1-2 km (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L186" s="3" t="s">
@@ -33892,7 +33853,7 @@
         <v>855</v>
       </c>
       <c r="G187" s="4" t="str">
-        <f>B187&amp;"."&amp;C187</f>
+        <f t="shared" si="8"/>
         <v>11.16</v>
       </c>
       <c r="H187" s="3" t="s">
@@ -33903,7 +33864,7 @@
         <v>1119</v>
       </c>
       <c r="K187" s="3" t="str">
-        <f>J187&amp;" ("&amp;AR187&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>1-2 km or closer (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L187" s="3" t="s">
@@ -33984,7 +33945,7 @@
         <v>860</v>
       </c>
       <c r="G188" s="4" t="str">
-        <f>B188&amp;"."&amp;C188</f>
+        <f t="shared" si="8"/>
         <v>11.17</v>
       </c>
       <c r="H188" s="3" t="s">
@@ -33995,7 +33956,7 @@
         <v>1156</v>
       </c>
       <c r="K188" s="3" t="str">
-        <f>J188&amp;" ("&amp;AR188&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L188" s="3" t="s">
@@ -34076,7 +34037,7 @@
         <v>861</v>
       </c>
       <c r="G189" s="4" t="str">
-        <f>B189&amp;"."&amp;C189</f>
+        <f t="shared" si="8"/>
         <v>11.18</v>
       </c>
       <c r="H189" s="3" t="s">
@@ -34087,7 +34048,7 @@
         <v>1052</v>
       </c>
       <c r="K189" s="3" t="str">
-        <f>J189&amp;" ("&amp;AR189&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Ideally ≥ 30 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L189" s="3" t="s">
@@ -34166,7 +34127,7 @@
         <v>856</v>
       </c>
       <c r="G190" s="4" t="str">
-        <f>B190&amp;"."&amp;C190</f>
+        <f t="shared" si="8"/>
         <v>11.19</v>
       </c>
       <c r="H190" s="3" t="s">
@@ -34177,7 +34138,7 @@
         <v>1155</v>
       </c>
       <c r="K190" s="3" t="str">
-        <f>J190&amp;" ("&amp;AR190&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>&lt;b&gt;≥ 20 (minumum)&lt;/b&gt; (Rowcliffe et al., 2008; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L190" s="5" t="s">
@@ -34260,7 +34221,7 @@
         <v>857</v>
       </c>
       <c r="G191" s="4" t="str">
-        <f>B191&amp;"."&amp;C191</f>
+        <f t="shared" si="8"/>
         <v>11.20</v>
       </c>
       <c r="H191" s="3" t="s">
@@ -34271,7 +34232,7 @@
         <v>169</v>
       </c>
       <c r="K191" s="3" t="str">
-        <f>J191&amp;" ("&amp;AR191&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Ideally &gt; 50 (Rowcliffe et al., 2008; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L191" s="5" t="s">
@@ -34350,7 +34311,7 @@
         <v>858</v>
       </c>
       <c r="G192" s="4" t="str">
-        <f>B192&amp;"."&amp;C192</f>
+        <f t="shared" si="8"/>
         <v>11.21</v>
       </c>
       <c r="H192" s="3" t="s">
@@ -34361,7 +34322,7 @@
         <v>357</v>
       </c>
       <c r="K192" s="3" t="str">
-        <f>J192&amp;" ("&amp;AR192&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Dependent on species' density (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L192" s="5" t="s">
@@ -34442,7 +34403,7 @@
         <v>859</v>
       </c>
       <c r="G193" s="25" t="str">
-        <f>B193&amp;"."&amp;C193</f>
+        <f t="shared" si="8"/>
         <v>11.22</v>
       </c>
       <c r="H193" s="3" t="s">
@@ -34453,7 +34414,7 @@
         <v>1109</v>
       </c>
       <c r="K193" s="3" t="str">
-        <f>J193&amp;" ("&amp;AR193&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Note: these recommendations are the same as REM (Becker et al., 2022; Moeller et al., 2023)</v>
       </c>
       <c r="L193" s="11" t="s">
@@ -34534,7 +34495,7 @@
         <v>867</v>
       </c>
       <c r="G194" s="4" t="str">
-        <f>B194&amp;"."&amp;C194</f>
+        <f t="shared" si="8"/>
         <v>11.23</v>
       </c>
       <c r="H194" s="3" t="s">
@@ -34545,7 +34506,7 @@
         <v>330</v>
       </c>
       <c r="K194" s="3" t="str">
-        <f>J194&amp;" ("&amp;AR194&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Ideally &lt; 12 months (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L194" s="5" t="s">
@@ -34624,7 +34585,7 @@
         <v>868</v>
       </c>
       <c r="G195" s="4" t="str">
-        <f>B195&amp;"."&amp;C195</f>
+        <f t="shared" si="8"/>
         <v>11.24</v>
       </c>
       <c r="H195" s="3" t="s">
@@ -34635,7 +34596,7 @@
         <v>1157</v>
       </c>
       <c r="K195" s="3" t="str">
-        <f>J195&amp;" ("&amp;AR195&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>&lt;b&gt;No maximum&lt;/b&gt; (Rowcliffe et al., 2008)</v>
       </c>
       <c r="L195" s="5" t="s">
@@ -34716,7 +34677,7 @@
         <v>874</v>
       </c>
       <c r="G196" s="4" t="str">
-        <f>B196&amp;"."&amp;C196</f>
+        <f t="shared" si="8"/>
         <v>12.6</v>
       </c>
       <c r="H196" s="3" t="s">
@@ -34727,7 +34688,7 @@
         <v>1109</v>
       </c>
       <c r="K196" s="3" t="str">
-        <f>J196&amp;" ("&amp;AR196&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Note: these recommendations are the same as REM (Becker et al., 2022; Moeller et al., 2023)</v>
       </c>
       <c r="L196" s="3" t="s">
@@ -34808,7 +34769,7 @@
         <v>869</v>
       </c>
       <c r="G197" s="4" t="str">
-        <f>B197&amp;"."&amp;C197</f>
+        <f t="shared" si="8"/>
         <v>12.1</v>
       </c>
       <c r="H197" s="3" t="s">
@@ -34819,7 +34780,7 @@
         <v>101</v>
       </c>
       <c r="K197" s="3" t="str">
-        <f>J197&amp;" ("&amp;AR197&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Random with respect to movement ([*viii][REM: Rovero et al., 2013; Rowcliffe et al., 2013; Wearn &amp; Glover-Kapfer, 2017; Loonam et al., 2021])</v>
       </c>
       <c r="L197" s="3" t="s">
@@ -34902,7 +34863,7 @@
         <v>870</v>
       </c>
       <c r="G198" s="4" t="str">
-        <f>B198&amp;"."&amp;C198</f>
+        <f t="shared" si="8"/>
         <v>12.2</v>
       </c>
       <c r="H198" s="3" t="s">
@@ -34913,7 +34874,7 @@
         <v>72</v>
       </c>
       <c r="K198" s="3" t="str">
-        <f>J198&amp;" ("&amp;AR198&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Systematic ([REM: Loonam et al., 2021])</v>
       </c>
       <c r="L198" s="3" t="s">
@@ -34994,7 +34955,7 @@
         <v>871</v>
       </c>
       <c r="G199" s="4" t="str">
-        <f>B199&amp;"."&amp;C199</f>
+        <f t="shared" si="8"/>
         <v>12.3</v>
       </c>
       <c r="H199" s="3" t="s">
@@ -35005,7 +34966,7 @@
         <v>55</v>
       </c>
       <c r="K199" s="3" t="str">
-        <f>J199&amp;" ("&amp;AR199&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Systematic random ([*ix][REM: Wearn &amp; Glover-Kapfer, 2017])</v>
       </c>
       <c r="L199" s="3" t="s">
@@ -35086,7 +35047,7 @@
         <v>872</v>
       </c>
       <c r="G200" s="4" t="str">
-        <f>B200&amp;"."&amp;C200</f>
+        <f t="shared" si="8"/>
         <v>12.4</v>
       </c>
       <c r="H200" s="3" t="s">
@@ -35097,7 +35058,7 @@
         <v>85</v>
       </c>
       <c r="K200" s="3" t="str">
-        <f>J200&amp;" ("&amp;AR200&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Stratified random ([REM: Wearn &amp; Glover-Kapfer, 2017])</v>
       </c>
       <c r="L200" s="3" t="s">
@@ -35178,7 +35139,7 @@
         <v>873</v>
       </c>
       <c r="G201" s="4" t="str">
-        <f>B201&amp;"."&amp;C201</f>
+        <f t="shared" si="8"/>
         <v>12.5</v>
       </c>
       <c r="H201" s="3" t="s">
@@ -35189,7 +35150,7 @@
         <v>80</v>
       </c>
       <c r="K201" s="3" t="str">
-        <f>J201&amp;" ("&amp;AR201&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Stratified targeted ([*x][REM: Wearn &amp; Glover-Kapfer, 2017])</v>
       </c>
       <c r="L201" s="3" t="s">
@@ -35272,7 +35233,7 @@
         <v>892</v>
       </c>
       <c r="G202" s="4" t="str">
-        <f>B202&amp;"."&amp;C202</f>
+        <f t="shared" si="8"/>
         <v>12.12</v>
       </c>
       <c r="H202" s="3" t="s">
@@ -35283,7 +35244,7 @@
         <v>1109</v>
       </c>
       <c r="K202" s="3" t="str">
-        <f>J202&amp;" ("&amp;AR202&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Note: these recommendations are the same as REM (Becker et al., 2022; Moeller et al., 2023)</v>
       </c>
       <c r="L202" s="7" t="s">
@@ -35364,7 +35325,7 @@
         <v>887</v>
       </c>
       <c r="G203" s="4" t="str">
-        <f>B203&amp;"."&amp;C203</f>
+        <f t="shared" si="8"/>
         <v>12.7</v>
       </c>
       <c r="H203" s="3" t="s">
@@ -35375,7 +35336,7 @@
         <v>1159</v>
       </c>
       <c r="K203" s="3" t="str">
-        <f>J203&amp;" ("&amp;AR203&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>&lt;b&gt;≥ 10 detections (minumum)&lt;/b&gt; (REM: Rowcliffe et al., 2008; Rovero et al., 2013)</v>
       </c>
       <c r="L203" s="7" t="s">
@@ -35462,7 +35423,7 @@
         <v>888</v>
       </c>
       <c r="G204" s="4" t="str">
-        <f>B204&amp;"."&amp;C204</f>
+        <f t="shared" si="8"/>
         <v>12.8</v>
       </c>
       <c r="H204" s="3" t="s">
@@ -35473,7 +35434,7 @@
         <v>350</v>
       </c>
       <c r="K204" s="3" t="str">
-        <f>J204&amp;" ("&amp;AR204&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Ideally &gt; 20 detections (REM: Rowcliffe et al., 2008; Rovero et al., 2013)</v>
       </c>
       <c r="L204" s="7" t="s">
@@ -35558,7 +35519,7 @@
         <v>889</v>
       </c>
       <c r="G205" s="4" t="str">
-        <f>B205&amp;"."&amp;C205</f>
+        <f t="shared" si="8"/>
         <v>12.9</v>
       </c>
       <c r="H205" s="3" t="s">
@@ -35569,7 +35530,7 @@
         <v>1113</v>
       </c>
       <c r="K205" s="3" t="str">
-        <f>J205&amp;" ("&amp;AR205&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Often 2000 (REM: Rowcliffe et al., 2008; Rovero et al., 2013)</v>
       </c>
       <c r="L205" s="7" t="s">
@@ -35650,7 +35611,7 @@
         <v>890</v>
       </c>
       <c r="G206" s="4" t="str">
-        <f>B206&amp;"."&amp;C206</f>
+        <f t="shared" si="8"/>
         <v>12.10</v>
       </c>
       <c r="H206" s="3" t="s">
@@ -35661,7 +35622,7 @@
         <v>1168</v>
       </c>
       <c r="K206" s="3" t="str">
-        <f>J206&amp;" ("&amp;AR206&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>10,00-10,000 (for most, if estimates of activity and speed are to be reasonably precise) (REM: Rowcliffe et al., 2016)</v>
       </c>
       <c r="L206" s="7" t="s">
@@ -35740,7 +35701,7 @@
         <v>891</v>
       </c>
       <c r="G207" s="4" t="str">
-        <f>B207&amp;"."&amp;C207</f>
+        <f t="shared" si="8"/>
         <v>12.11</v>
       </c>
       <c r="H207" s="3" t="s">
@@ -35751,7 +35712,7 @@
         <v>1060</v>
       </c>
       <c r="K207" s="3" t="str">
-        <f>J207&amp;" ("&amp;AR207&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>&gt; 2000 (REM: Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L207" s="7" t="s">
@@ -35836,7 +35797,7 @@
         <v>881</v>
       </c>
       <c r="G208" s="4" t="str">
-        <f>B208&amp;"."&amp;C208</f>
+        <f t="shared" si="8"/>
         <v>12.19</v>
       </c>
       <c r="H208" s="3" t="s">
@@ -35847,7 +35808,7 @@
         <v>1109</v>
       </c>
       <c r="K208" s="3" t="str">
-        <f>J208&amp;" ("&amp;AR208&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Note: these recommendations are the same as REM (Becker et al., 2022; Moeller et al., 2023)</v>
       </c>
       <c r="L208" s="3" t="s">
@@ -35928,7 +35889,7 @@
         <v>875</v>
       </c>
       <c r="G209" s="4" t="str">
-        <f>B209&amp;"."&amp;C209</f>
+        <f t="shared" si="8"/>
         <v>12.13</v>
       </c>
       <c r="H209" s="3" t="s">
@@ -35939,7 +35900,7 @@
         <v>1156</v>
       </c>
       <c r="K209" s="3" t="str">
-        <f>J209&amp;" ("&amp;AR209&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L209" s="3" t="s">
@@ -36022,7 +35983,7 @@
         <v>876</v>
       </c>
       <c r="G210" s="4" t="str">
-        <f>B210&amp;"."&amp;C210</f>
+        <f t="shared" si="8"/>
         <v>12.14</v>
       </c>
       <c r="H210" s="3" t="s">
@@ -36033,7 +35994,7 @@
         <v>1053</v>
       </c>
       <c r="K210" s="3" t="str">
-        <f>J210&amp;" ("&amp;AR210&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Ideally ≥ 1 km (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L210" s="3" t="s">
@@ -36114,7 +36075,7 @@
         <v>877</v>
       </c>
       <c r="G211" s="4" t="str">
-        <f>B211&amp;"."&amp;C211</f>
+        <f t="shared" si="8"/>
         <v>12.15</v>
       </c>
       <c r="H211" s="3" t="s">
@@ -36125,7 +36086,7 @@
         <v>362</v>
       </c>
       <c r="K211" s="3" t="str">
-        <f>J211&amp;" ("&amp;AR211&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>Spatially independent (Rowcliffe et al., 2013)</v>
       </c>
       <c r="L211" s="3" t="s">
@@ -36208,7 +36169,7 @@
         <v>878</v>
       </c>
       <c r="G212" s="4" t="str">
-        <f>B212&amp;"."&amp;C212</f>
+        <f t="shared" si="8"/>
         <v>12.16</v>
       </c>
       <c r="H212" s="3" t="s">
@@ -36219,7 +36180,7 @@
         <v>164</v>
       </c>
       <c r="K212" s="3" t="str">
-        <f>J212&amp;" ("&amp;AR212&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>&gt; home range diameter (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L212" s="3" t="s">
@@ -36302,7 +36263,7 @@
         <v>879</v>
       </c>
       <c r="G213" s="4" t="str">
-        <f>B213&amp;"."&amp;C213</f>
+        <f t="shared" si="8"/>
         <v>12.17</v>
       </c>
       <c r="H213" s="3" t="s">
@@ -36313,7 +36274,7 @@
         <v>1121</v>
       </c>
       <c r="K213" s="3" t="str">
-        <f>J213&amp;" ("&amp;AR213&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>1-2 km (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L213" s="3" t="s">
@@ -36396,7 +36357,7 @@
         <v>880</v>
       </c>
       <c r="G214" s="4" t="str">
-        <f>B214&amp;"."&amp;C214</f>
+        <f t="shared" si="8"/>
         <v>12.18</v>
       </c>
       <c r="H214" s="3" t="s">
@@ -36407,7 +36368,7 @@
         <v>1119</v>
       </c>
       <c r="K214" s="3" t="str">
-        <f>J214&amp;" ("&amp;AR214&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>1-2 km or closer (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L214" s="3" t="s">
@@ -36490,7 +36451,7 @@
         <v>885</v>
       </c>
       <c r="G215" s="4" t="str">
-        <f>B215&amp;"."&amp;C215</f>
+        <f t="shared" ref="G215:G278" si="10">B215&amp;"."&amp;C215</f>
         <v>12.20</v>
       </c>
       <c r="H215" s="3" t="s">
@@ -36501,7 +36462,7 @@
         <v>1156</v>
       </c>
       <c r="K215" s="3" t="str">
-        <f>J215&amp;" ("&amp;AR215&amp;")"</f>
+        <f t="shared" ref="K215:K278" si="11">J215&amp;" ("&amp;AR215&amp;")"</f>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Becker et al., 2022; Moeller et al., 2023)</v>
       </c>
       <c r="L215" s="3" t="s">
@@ -36582,7 +36543,7 @@
         <v>886</v>
       </c>
       <c r="G216" s="4" t="str">
-        <f>B216&amp;"."&amp;C216</f>
+        <f t="shared" si="10"/>
         <v>12.21</v>
       </c>
       <c r="H216" s="3" t="s">
@@ -36593,7 +36554,7 @@
         <v>1052</v>
       </c>
       <c r="K216" s="3" t="str">
-        <f>J216&amp;" ("&amp;AR216&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Ideally ≥ 30 (Becker et al., 2022; Moeller et al., 2023)</v>
       </c>
       <c r="L216" s="3" t="s">
@@ -36672,7 +36633,7 @@
         <v>882</v>
       </c>
       <c r="G217" s="4" t="str">
-        <f>B217&amp;"."&amp;C217</f>
+        <f t="shared" si="10"/>
         <v>12.22</v>
       </c>
       <c r="H217" s="3" t="s">
@@ -36683,7 +36644,7 @@
         <v>1155</v>
       </c>
       <c r="K217" s="3" t="str">
-        <f>J217&amp;" ("&amp;AR217&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>&lt;b&gt;≥ 20 (minumum)&lt;/b&gt; (REM: Rowcliffe et al., 2008; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L217" s="5" t="s">
@@ -36768,7 +36729,7 @@
         <v>883</v>
       </c>
       <c r="G218" s="4" t="str">
-        <f>B218&amp;"."&amp;C218</f>
+        <f t="shared" si="10"/>
         <v>12.23</v>
       </c>
       <c r="H218" s="3" t="s">
@@ -36779,7 +36740,7 @@
         <v>169</v>
       </c>
       <c r="K218" s="3" t="str">
-        <f>J218&amp;" ("&amp;AR218&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Ideally &gt; 50 (REM: Rowcliffe et al., 2008; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L218" s="5" t="s">
@@ -36860,7 +36821,7 @@
         <v>884</v>
       </c>
       <c r="G219" s="4" t="str">
-        <f>B219&amp;"."&amp;C219</f>
+        <f t="shared" si="10"/>
         <v>12.24</v>
       </c>
       <c r="H219" s="3" t="s">
@@ -36871,7 +36832,7 @@
         <v>357</v>
       </c>
       <c r="K219" s="3" t="str">
-        <f>J219&amp;" ("&amp;AR219&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Dependent on species' density (REM: Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L219" s="5" t="s">
@@ -36954,7 +36915,7 @@
         <v>895</v>
       </c>
       <c r="G220" s="4" t="str">
-        <f>B220&amp;"."&amp;C220</f>
+        <f t="shared" si="10"/>
         <v>12.27</v>
       </c>
       <c r="H220" s="3" t="s">
@@ -36965,7 +36926,7 @@
         <v>1109</v>
       </c>
       <c r="K220" s="3" t="str">
-        <f>J220&amp;" ("&amp;AR220&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Note: these recommendations are the same as REM (Moeller et al., 2023; Becker et al., 2022)</v>
       </c>
       <c r="L220" s="5" t="s">
@@ -37046,7 +37007,7 @@
         <v>893</v>
       </c>
       <c r="G221" s="4" t="str">
-        <f>B221&amp;"."&amp;C221</f>
+        <f t="shared" si="10"/>
         <v>12.25</v>
       </c>
       <c r="H221" s="3" t="s">
@@ -37057,7 +37018,7 @@
         <v>330</v>
       </c>
       <c r="K221" s="3" t="str">
-        <f>J221&amp;" ("&amp;AR221&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Ideally &lt; 12 months (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L221" s="5" t="s">
@@ -37138,7 +37099,7 @@
         <v>894</v>
       </c>
       <c r="G222" s="4" t="str">
-        <f>B222&amp;"."&amp;C222</f>
+        <f t="shared" si="10"/>
         <v>12.26</v>
       </c>
       <c r="H222" s="3" t="s">
@@ -37149,7 +37110,7 @@
         <v>1157</v>
       </c>
       <c r="K222" s="3" t="str">
-        <f>J222&amp;" ("&amp;AR222&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>&lt;b&gt;No maximum&lt;/b&gt; (Rowcliffe et al., 2008)</v>
       </c>
       <c r="L222" s="5" t="s">
@@ -37232,7 +37193,7 @@
         <v>787</v>
       </c>
       <c r="G223" s="4" t="str">
-        <f>B223&amp;"."&amp;C223</f>
+        <f t="shared" si="10"/>
         <v>8.1</v>
       </c>
       <c r="H223" s="3" t="s">
@@ -37243,7 +37204,7 @@
         <v>55</v>
       </c>
       <c r="K223" s="3" t="str">
-        <f>J223&amp;" ("&amp;AR223&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Systematic random (Sun et al., 2014; Clark, 2019; Clarke et al., 2023)</v>
       </c>
       <c r="L223" s="3" t="s">
@@ -37322,7 +37283,7 @@
         <v>788</v>
       </c>
       <c r="G224" s="4" t="str">
-        <f>B224&amp;"."&amp;C224</f>
+        <f t="shared" si="10"/>
         <v>8.2</v>
       </c>
       <c r="H224" s="3" t="s">
@@ -37333,7 +37294,7 @@
         <v>155</v>
       </c>
       <c r="K224" s="3" t="str">
-        <f>J224&amp;" ("&amp;AR224&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Clustered (Sun et al., 2014; Clark, 2019; Clarke et al., 2023)</v>
       </c>
       <c r="L224" s="3" t="s">
@@ -37412,7 +37373,7 @@
         <v>797</v>
       </c>
       <c r="G225" s="4" t="str">
-        <f>B225&amp;"."&amp;C225</f>
+        <f t="shared" si="10"/>
         <v>8.3</v>
       </c>
       <c r="H225" s="3" t="s">
@@ -37423,7 +37384,7 @@
         <v>119</v>
       </c>
       <c r="K225" s="3" t="str">
-        <f>J225&amp;" ("&amp;AR225&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>No recommendation (NA)</v>
       </c>
       <c r="L225" s="7" t="s">
@@ -37502,7 +37463,7 @@
         <v>789</v>
       </c>
       <c r="G226" s="4" t="str">
-        <f>B226&amp;"."&amp;C226</f>
+        <f t="shared" si="10"/>
         <v>8.4</v>
       </c>
       <c r="H226" s="3" t="s">
@@ -37513,7 +37474,7 @@
         <v>144</v>
       </c>
       <c r="K226" s="3" t="str">
-        <f>J226&amp;" ("&amp;AR226&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Close enough that individuals will be detected at multiple locations (Royle et al., 2009; Clarke et al., 2023)</v>
       </c>
       <c r="L226" s="3" t="s">
@@ -37588,7 +37549,7 @@
         <v>792</v>
       </c>
       <c r="G227" s="4" t="str">
-        <f>B227&amp;"."&amp;C227</f>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="H227" s="3" t="s">
@@ -37599,7 +37560,7 @@
         <v>1162</v>
       </c>
       <c r="K227" s="3" t="str">
-        <f>J227&amp;" ("&amp;AR227&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>&lt;b&gt;≥ 30 (precision is dependent on number of marked individuals in a population) (minumum)&lt;/b&gt; (Burgar, 2021; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="L227" s="3" t="s">
@@ -37682,7 +37643,7 @@
         <v>793</v>
       </c>
       <c r="G228" s="4" t="str">
-        <f>B228&amp;"."&amp;C228</f>
+        <f t="shared" si="10"/>
         <v>8.6</v>
       </c>
       <c r="H228" s="3" t="s">
@@ -37693,7 +37654,7 @@
         <v>1000</v>
       </c>
       <c r="K228" s="3" t="str">
-        <f>J228&amp;" ("&amp;AR228&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>≥ 30 (Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L228" s="3" t="s">
@@ -37772,7 +37733,7 @@
         <v>794</v>
       </c>
       <c r="G229" s="4" t="str">
-        <f>B229&amp;"."&amp;C229</f>
+        <f t="shared" si="10"/>
         <v>8.7</v>
       </c>
       <c r="H229" s="3" t="s">
@@ -37783,7 +37744,7 @@
         <v>1019</v>
       </c>
       <c r="K229" s="3" t="str">
-        <f>J229&amp;" ("&amp;AR229&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>&gt; 60 (Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L229" s="3" t="s">
@@ -37862,7 +37823,7 @@
         <v>796</v>
       </c>
       <c r="G230" s="25" t="str">
-        <f>B230&amp;"."&amp;C230</f>
+        <f t="shared" si="10"/>
         <v>8.9</v>
       </c>
       <c r="H230" s="10" t="s">
@@ -37873,7 +37834,7 @@
         <v>525</v>
       </c>
       <c r="K230" s="10" t="str">
-        <f>J230&amp;" ("&amp;AR230&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>NULL (NA)</v>
       </c>
       <c r="L230" s="10" t="s">
@@ -37952,7 +37913,7 @@
         <v>790</v>
       </c>
       <c r="G231" s="4" t="str">
-        <f>B231&amp;"."&amp;C231</f>
+        <f t="shared" si="10"/>
         <v>8.10</v>
       </c>
       <c r="H231" s="3" t="s">
@@ -37963,7 +37924,7 @@
         <v>1161</v>
       </c>
       <c r="K231" s="3" t="str">
-        <f>J231&amp;" ("&amp;AR231&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>&lt;b&gt;≥ 30 (minumum)&lt;/b&gt; (Burgar et al., 2018; Sun et al., 2022)</v>
       </c>
       <c r="L231" s="5" t="s">
@@ -38046,7 +38007,7 @@
         <v>791</v>
       </c>
       <c r="G232" s="4" t="str">
-        <f>B232&amp;"."&amp;C232</f>
+        <f t="shared" si="10"/>
         <v>8.11</v>
       </c>
       <c r="H232" s="3" t="s">
@@ -38057,7 +38018,7 @@
         <v>391</v>
       </c>
       <c r="K232" s="3" t="str">
-        <f>J232&amp;" ("&amp;AR232&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Ideally 60 (but will depend on detection probability and resight data) (Burgar et al., 2018; Sun et al., 2022)</v>
       </c>
       <c r="L232" s="5" t="s">
@@ -38138,7 +38099,7 @@
         <v>798</v>
       </c>
       <c r="G233" s="4" t="str">
-        <f>B233&amp;"."&amp;C233</f>
+        <f t="shared" si="10"/>
         <v>8.12</v>
       </c>
       <c r="H233" s="3" t="s">
@@ -38149,7 +38110,7 @@
         <v>1160</v>
       </c>
       <c r="K233" s="3" t="str">
-        <f>J233&amp;" ("&amp;AR233&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>&lt;b&gt;≥ 1 month per survey (presuming multiple surveys completed) (minumum)&lt;/b&gt; (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="L233" s="26" t="s">
@@ -38232,7 +38193,7 @@
         <v>799</v>
       </c>
       <c r="G234" s="4" t="str">
-        <f>B234&amp;"."&amp;C234</f>
+        <f t="shared" si="10"/>
         <v>8.13</v>
       </c>
       <c r="H234" s="3" t="s">
@@ -38243,7 +38204,7 @@
         <v>205</v>
       </c>
       <c r="K234" s="3" t="str">
-        <f>J234&amp;" ("&amp;AR234&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Ideally &gt; 12 months (based on minimum for SCR) (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="L234" s="5" t="s">
@@ -38322,7 +38283,7 @@
         <v>800</v>
       </c>
       <c r="G235" s="4" t="str">
-        <f>B235&amp;"."&amp;C235</f>
+        <f t="shared" si="10"/>
         <v>8.14</v>
       </c>
       <c r="H235" s="3" t="s">
@@ -38333,7 +38294,7 @@
         <v>283</v>
       </c>
       <c r="K235" s="3" t="str">
-        <f>J235&amp;" ("&amp;AR235&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Ideally 1-3 months (depending on time required to maximize detections while minimizing the violation of "population closure" assumption) (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="L235" s="5" t="s">
@@ -38414,7 +38375,7 @@
         <v>752</v>
       </c>
       <c r="G236" s="4" t="str">
-        <f>B236&amp;"."&amp;C236</f>
+        <f t="shared" si="10"/>
         <v>6.1</v>
       </c>
       <c r="H236" s="3" t="s">
@@ -38425,7 +38386,7 @@
         <v>110</v>
       </c>
       <c r="K236" s="3" t="str">
-        <f>J236&amp;" ("&amp;AR236&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Paired (Rovero et al., 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L236" s="3" t="s">
@@ -38504,7 +38465,7 @@
         <v>753</v>
       </c>
       <c r="G237" s="51" t="str">
-        <f>B237&amp;"."&amp;C237</f>
+        <f t="shared" si="10"/>
         <v>6.2</v>
       </c>
       <c r="H237" s="3" t="s">
@@ -38515,7 +38476,7 @@
         <v>155</v>
       </c>
       <c r="K237" s="3" t="str">
-        <f>J237&amp;" ("&amp;AR237&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Clustered (Sun et al., 2014; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L237" s="49" t="s">
@@ -38594,7 +38555,7 @@
         <v>754</v>
       </c>
       <c r="G238" s="4" t="str">
-        <f>B238&amp;"."&amp;C238</f>
+        <f t="shared" si="10"/>
         <v>6.3</v>
       </c>
       <c r="H238" s="3" t="s">
@@ -38605,7 +38566,7 @@
         <v>72</v>
       </c>
       <c r="K238" s="3" t="str">
-        <f>J238&amp;" ("&amp;AR238&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Systematic (Clarke et al., 2023)</v>
       </c>
       <c r="L238" s="3" t="s">
@@ -38684,7 +38645,7 @@
         <v>766</v>
       </c>
       <c r="G239" s="4" t="str">
-        <f>B239&amp;"."&amp;C239</f>
+        <f t="shared" si="10"/>
         <v>6.4</v>
       </c>
       <c r="H239" s="3" t="s">
@@ -38695,7 +38656,7 @@
         <v>346</v>
       </c>
       <c r="K239" s="3" t="str">
-        <f>J239&amp;" ("&amp;AR239&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Enough for 20-50 recaptures (Efford, 2004; Noss et al., 2012; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L239" s="7" t="s">
@@ -38778,7 +38739,7 @@
         <v>767</v>
       </c>
       <c r="G240" s="4" t="str">
-        <f>B240&amp;"."&amp;C240</f>
+        <f t="shared" si="10"/>
         <v>6.5</v>
       </c>
       <c r="H240" s="3" t="s">
@@ -38789,7 +38750,7 @@
         <v>1005</v>
       </c>
       <c r="K240" s="3" t="str">
-        <f>J240&amp;" ("&amp;AR240&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>&gt; 1000 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L240" s="7" t="s">
@@ -38866,7 +38827,7 @@
         <v>768</v>
       </c>
       <c r="G241" s="4" t="str">
-        <f>B241&amp;"."&amp;C241</f>
+        <f t="shared" si="10"/>
         <v>6.6</v>
       </c>
       <c r="H241" s="3" t="s">
@@ -38877,7 +38838,7 @@
         <v>1004</v>
       </c>
       <c r="K241" s="3" t="str">
-        <f>J241&amp;" ("&amp;AR241&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>&gt; 1200 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L241" s="7" t="s">
@@ -38956,7 +38917,7 @@
         <v>769</v>
       </c>
       <c r="G242" s="4" t="str">
-        <f>B242&amp;"."&amp;C242</f>
+        <f t="shared" si="10"/>
         <v>6.7</v>
       </c>
       <c r="H242" s="3" t="s">
@@ -38967,7 +38928,7 @@
         <v>1003</v>
       </c>
       <c r="K242" s="3" t="str">
-        <f>J242&amp;" ("&amp;AR242&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>&gt; 3500 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L242" s="7" t="s">
@@ -39046,7 +39007,7 @@
         <v>755</v>
       </c>
       <c r="G243" s="4" t="str">
-        <f>B243&amp;"."&amp;C243</f>
+        <f t="shared" si="10"/>
         <v>6.8</v>
       </c>
       <c r="H243" s="3" t="s">
@@ -39057,7 +39018,7 @@
         <v>1026</v>
       </c>
       <c r="K243" s="3" t="str">
-        <f>J243&amp;" ("&amp;AR243&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>&lt; home range diameter (Sollmann et al., 2012; Sun et al., 2014; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L243" s="3" t="s">
@@ -39138,7 +39099,7 @@
         <v>756</v>
       </c>
       <c r="G244" s="4" t="str">
-        <f>B244&amp;"."&amp;C244</f>
+        <f t="shared" si="10"/>
         <v>6.9</v>
       </c>
       <c r="H244" s="3" t="s">
@@ -39149,7 +39110,7 @@
         <v>1024</v>
       </c>
       <c r="K244" s="3" t="str">
-        <f>J244&amp;" ("&amp;AR244&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Ideally 1/3 the home range radius (~4-7 camera per home range) (Sollmann et al., 2012; Sun et al., 2014; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L244" s="3" t="s">
@@ -39230,7 +39191,7 @@
         <v>757</v>
       </c>
       <c r="G245" s="4" t="str">
-        <f>B245&amp;"."&amp;C245</f>
+        <f t="shared" si="10"/>
         <v>6.10</v>
       </c>
       <c r="H245" s="3" t="s">
@@ -39241,7 +39202,7 @@
         <v>1165</v>
       </c>
       <c r="K245" s="3" t="str">
-        <f>J245&amp;" ("&amp;AR245&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>&lt;b&gt;Maximum of 0.8 times the home range radius&lt;/b&gt; (Sollmann et al., 2012; Sun et al., 2014; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L245" s="3" t="s">
@@ -39324,7 +39285,7 @@
         <v>763</v>
       </c>
       <c r="G246" s="4" t="str">
-        <f>B246&amp;"."&amp;C246</f>
+        <f t="shared" si="10"/>
         <v>6.11</v>
       </c>
       <c r="H246" s="3" t="s">
@@ -39335,7 +39296,7 @@
         <v>1000</v>
       </c>
       <c r="K246" s="3" t="str">
-        <f>J246&amp;" ("&amp;AR246&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>≥ 30 (Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L246" s="3" t="s">
@@ -39414,7 +39375,7 @@
         <v>764</v>
       </c>
       <c r="G247" s="4" t="str">
-        <f>B247&amp;"."&amp;C247</f>
+        <f t="shared" si="10"/>
         <v>6.12</v>
       </c>
       <c r="H247" s="3" t="s">
@@ -39425,7 +39386,7 @@
         <v>1019</v>
       </c>
       <c r="K247" s="3" t="str">
-        <f>J247&amp;" ("&amp;AR247&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>&gt; 60 (Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L247" s="3" t="s">
@@ -39504,7 +39465,7 @@
         <v>765</v>
       </c>
       <c r="G248" s="4" t="str">
-        <f>B248&amp;"."&amp;C248</f>
+        <f t="shared" si="10"/>
         <v>6.13</v>
       </c>
       <c r="H248" s="3" t="s">
@@ -39515,7 +39476,7 @@
         <v>1017</v>
       </c>
       <c r="K248" s="3" t="str">
-        <f>J248&amp;" ("&amp;AR248&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>&gt; 60-120 (Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L248" s="3" t="s">
@@ -39594,7 +39555,7 @@
         <v>759</v>
       </c>
       <c r="G249" s="51" t="str">
-        <f>B249&amp;"."&amp;C249</f>
+        <f t="shared" si="10"/>
         <v>6.15</v>
       </c>
       <c r="H249" s="3" t="s">
@@ -39605,7 +39566,7 @@
         <v>1036</v>
       </c>
       <c r="K249" s="3" t="str">
-        <f>J249&amp;" ("&amp;AR249&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>&gt; 4 per home range (or less*) (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L249" s="50" t="s">
@@ -39684,7 +39645,7 @@
         <v>1032</v>
       </c>
       <c r="G250" s="51" t="str">
-        <f>B250&amp;"."&amp;C250</f>
+        <f t="shared" si="10"/>
         <v>6.16</v>
       </c>
       <c r="H250" s="3" t="s">
@@ -39695,7 +39656,7 @@
         <v>525</v>
       </c>
       <c r="K250" s="3" t="str">
-        <f>J250&amp;" ("&amp;AR250&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>NULL ()</v>
       </c>
       <c r="L250" s="49" t="s">
@@ -39778,7 +39739,7 @@
         <v>762</v>
       </c>
       <c r="G251" s="51" t="str">
-        <f>B251&amp;"."&amp;C251</f>
+        <f t="shared" si="10"/>
         <v>6.17</v>
       </c>
       <c r="H251" s="3" t="s">
@@ -39789,7 +39750,7 @@
         <v>1164</v>
       </c>
       <c r="K251" s="3" t="str">
-        <f>J251&amp;" ("&amp;AR251&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>&lt;b&gt;Enough to expose 10-30 individuals to sampling (minumum)&lt;/b&gt; (Karanth et al., 2011; Krebs et al., 2011; Noss et al., 2012; Rovero et al., 2013; Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L251" s="50" t="s">
@@ -39874,7 +39835,7 @@
         <v>1032</v>
       </c>
       <c r="G252" s="51" t="str">
-        <f>B252&amp;"."&amp;C252</f>
+        <f t="shared" si="10"/>
         <v>6.18</v>
       </c>
       <c r="H252" s="3" t="s">
@@ -39885,7 +39846,7 @@
         <v>149</v>
       </c>
       <c r="K252" s="3" t="str">
-        <f>J252&amp;" ("&amp;AR252&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Ideally enough to capture &gt; 20 individuals (minimum 20 to encompass home ranges)  (White et al., 1982; Foster &amp; Harmsen, 2012; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L252" s="50" t="s">
@@ -39966,7 +39927,7 @@
         <v>1032</v>
       </c>
       <c r="G253" s="51" t="str">
-        <f>B253&amp;"."&amp;C253</f>
+        <f t="shared" si="10"/>
         <v>6.19</v>
       </c>
       <c r="H253" s="3" t="s">
@@ -39977,7 +39938,7 @@
         <v>147</v>
       </c>
       <c r="K253" s="3" t="str">
-        <f>J253&amp;" ("&amp;AR253&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Ideally enough for 20-50 total recaptures (Efford, 2004; Noss et al., 2012; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L253" s="50" t="s">
@@ -40060,7 +40021,7 @@
         <v>758</v>
       </c>
       <c r="G254" s="51" t="str">
-        <f>B254&amp;"."&amp;C254</f>
+        <f t="shared" si="10"/>
         <v>6.20</v>
       </c>
       <c r="H254" s="3" t="s">
@@ -40071,7 +40032,7 @@
         <v>1155</v>
       </c>
       <c r="K254" s="3" t="str">
-        <f>J254&amp;" ("&amp;AR254&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>&lt;b&gt;≥ 20 (minumum)&lt;/b&gt; (White et al., 1982; Foster &amp; Harmsen, 2012; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L254" s="50" t="s">
@@ -40156,7 +40117,7 @@
         <v>761</v>
       </c>
       <c r="G255" s="51" t="str">
-        <f>B255&amp;"."&amp;C255</f>
+        <f t="shared" si="10"/>
         <v>6.21</v>
       </c>
       <c r="H255" s="3" t="s">
@@ -40167,7 +40128,7 @@
         <v>1036</v>
       </c>
       <c r="K255" s="3" t="str">
-        <f>J255&amp;" ("&amp;AR255&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>&gt; 4 per home range (or less*) (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L255" s="50" t="s">
@@ -40248,7 +40209,7 @@
         <v>760</v>
       </c>
       <c r="G256" s="51" t="str">
-        <f>B256&amp;"."&amp;C256</f>
+        <f t="shared" si="10"/>
         <v>6.22</v>
       </c>
       <c r="H256" s="3" t="s">
@@ -40259,7 +40220,7 @@
         <v>538</v>
       </c>
       <c r="K256" s="3" t="str">
-        <f>J256&amp;" ("&amp;AR256&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>If used suggested 4 camera per home range, 40-120 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L256" s="50" t="s">
@@ -40346,7 +40307,7 @@
         <v>770</v>
       </c>
       <c r="G257" s="4" t="str">
-        <f>B257&amp;"."&amp;C257</f>
+        <f t="shared" si="10"/>
         <v>6.24</v>
       </c>
       <c r="H257" s="3" t="s">
@@ -40357,7 +40318,7 @@
         <v>1160</v>
       </c>
       <c r="K257" s="3" t="str">
-        <f>J257&amp;" ("&amp;AR257&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>&lt;b&gt;≥ 1 month per survey (presuming multiple surveys completed) (minumum)&lt;/b&gt; (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="L257" s="26" t="s">
@@ -40440,7 +40401,7 @@
         <v>771</v>
       </c>
       <c r="G258" s="4" t="str">
-        <f>B258&amp;"."&amp;C258</f>
+        <f t="shared" si="10"/>
         <v>6.25</v>
       </c>
       <c r="H258" s="3" t="s">
@@ -40451,7 +40412,7 @@
         <v>205</v>
       </c>
       <c r="K258" s="3" t="str">
-        <f>J258&amp;" ("&amp;AR258&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Ideally &gt; 12 months (based on minimum for SCR) (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="L258" s="5" t="s">
@@ -40530,7 +40491,7 @@
         <v>772</v>
       </c>
       <c r="G259" s="4" t="str">
-        <f>B259&amp;"."&amp;C259</f>
+        <f t="shared" si="10"/>
         <v>6.26</v>
       </c>
       <c r="H259" s="3" t="s">
@@ -40541,7 +40502,7 @@
         <v>283</v>
       </c>
       <c r="K259" s="3" t="str">
-        <f>J259&amp;" ("&amp;AR259&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Ideally 1-3 months (depending on time required to maximize detections while minimizing the violation of "population closure" assumption) (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="L259" s="5" t="s">
@@ -40622,7 +40583,7 @@
         <v>773</v>
       </c>
       <c r="G260" s="4" t="str">
-        <f>B260&amp;"."&amp;C260</f>
+        <f t="shared" si="10"/>
         <v>7.1</v>
       </c>
       <c r="H260" s="3" t="s">
@@ -40633,7 +40594,7 @@
         <v>107</v>
       </c>
       <c r="K260" s="3" t="str">
-        <f>J260&amp;" ("&amp;AR260&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Random with respect to activity centres (Sollmann et al., 2013b)</v>
       </c>
       <c r="L260" s="3" t="s">
@@ -40714,7 +40675,7 @@
         <v>774</v>
       </c>
       <c r="G261" s="4" t="str">
-        <f>B261&amp;"."&amp;C261</f>
+        <f t="shared" si="10"/>
         <v>7.2</v>
       </c>
       <c r="H261" s="3" t="s">
@@ -40725,7 +40686,7 @@
         <v>55</v>
       </c>
       <c r="K261" s="3" t="str">
-        <f>J261&amp;" ("&amp;AR261&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Systematic random (Clarke et al., 2023)</v>
       </c>
       <c r="L261" s="3" t="s">
@@ -40804,7 +40765,7 @@
         <v>775</v>
       </c>
       <c r="G262" s="4" t="str">
-        <f>B262&amp;"."&amp;C262</f>
+        <f t="shared" si="10"/>
         <v>7.3</v>
       </c>
       <c r="H262" s="3" t="s">
@@ -40815,7 +40776,7 @@
         <v>155</v>
       </c>
       <c r="K262" s="3" t="str">
-        <f>J262&amp;" ("&amp;AR262&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Clustered (Clarke et al., 2023)</v>
       </c>
       <c r="L262" s="3" t="s">
@@ -40894,7 +40855,7 @@
         <v>783</v>
       </c>
       <c r="G263" s="4" t="str">
-        <f>B263&amp;"."&amp;C263</f>
+        <f t="shared" si="10"/>
         <v>7.4</v>
       </c>
       <c r="H263" s="3" t="s">
@@ -40905,7 +40866,7 @@
         <v>1020</v>
       </c>
       <c r="K263" s="3" t="str">
-        <f>J263&amp;" ("&amp;AR263&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>≥ 360 days (Burgar, 2021; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="L263" s="7" t="s">
@@ -40982,7 +40943,7 @@
         <v>776</v>
       </c>
       <c r="G264" s="4" t="str">
-        <f>B264&amp;"."&amp;C264</f>
+        <f t="shared" si="10"/>
         <v>7.5</v>
       </c>
       <c r="H264" s="3" t="s">
@@ -40993,7 +40954,7 @@
         <v>145</v>
       </c>
       <c r="K264" s="3" t="str">
-        <f>J264&amp;" ("&amp;AR264&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>1-3 sigma (related to home range size) (Sun et al., 2014)</v>
       </c>
       <c r="L264" s="3" t="s">
@@ -41068,7 +41029,7 @@
         <v>779</v>
       </c>
       <c r="G265" s="4" t="str">
-        <f>B265&amp;"."&amp;C265</f>
+        <f t="shared" si="10"/>
         <v>7.6</v>
       </c>
       <c r="H265" s="3" t="s">
@@ -41079,7 +41040,7 @@
         <v>1162</v>
       </c>
       <c r="K265" s="3" t="str">
-        <f>J265&amp;" ("&amp;AR265&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>&lt;b&gt;≥ 30 (precision is dependent on number of marked individuals in a population) (minumum)&lt;/b&gt; (Burgar, 2021; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="L265" s="3" t="s">
@@ -41162,7 +41123,7 @@
         <v>780</v>
       </c>
       <c r="G266" s="4" t="str">
-        <f>B266&amp;"."&amp;C266</f>
+        <f t="shared" si="10"/>
         <v>7.7</v>
       </c>
       <c r="H266" s="3" t="s">
@@ -41173,7 +41134,7 @@
         <v>1000</v>
       </c>
       <c r="K266" s="3" t="str">
-        <f>J266&amp;" ("&amp;AR266&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>≥ 30 (Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L266" s="3" t="s">
@@ -41252,7 +41213,7 @@
         <v>781</v>
       </c>
       <c r="G267" s="4" t="str">
-        <f>B267&amp;"."&amp;C267</f>
+        <f t="shared" si="10"/>
         <v>7.8</v>
       </c>
       <c r="H267" s="3" t="s">
@@ -41263,7 +41224,7 @@
         <v>1019</v>
       </c>
       <c r="K267" s="3" t="str">
-        <f>J267&amp;" ("&amp;AR267&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>&gt; 60 (Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L267" s="3" t="s">
@@ -41342,7 +41303,7 @@
         <v>782</v>
       </c>
       <c r="G268" s="4" t="str">
-        <f>B268&amp;"."&amp;C268</f>
+        <f t="shared" si="10"/>
         <v>7.9</v>
       </c>
       <c r="H268" s="3" t="s">
@@ -41353,7 +41314,7 @@
         <v>1017</v>
       </c>
       <c r="K268" s="3" t="str">
-        <f>J268&amp;" ("&amp;AR268&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>&gt; 60-120 (Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L268" s="3" t="s">
@@ -41432,7 +41393,7 @@
         <v>777</v>
       </c>
       <c r="G269" s="4" t="str">
-        <f>B269&amp;"."&amp;C269</f>
+        <f t="shared" si="10"/>
         <v>7.10</v>
       </c>
       <c r="H269" s="3" t="s">
@@ -41443,7 +41404,7 @@
         <v>1161</v>
       </c>
       <c r="K269" s="3" t="str">
-        <f>J269&amp;" ("&amp;AR269&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>&lt;b&gt;≥ 30 (minumum)&lt;/b&gt; (Burgar, 2021; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="L269" s="5" t="s">
@@ -41526,7 +41487,7 @@
         <v>778</v>
       </c>
       <c r="G270" s="4" t="str">
-        <f>B270&amp;"."&amp;C270</f>
+        <f t="shared" si="10"/>
         <v>7.11</v>
       </c>
       <c r="H270" s="3" t="s">
@@ -41537,7 +41498,7 @@
         <v>391</v>
       </c>
       <c r="K270" s="3" t="str">
-        <f>J270&amp;" ("&amp;AR270&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Ideally 60 (but will depend on detection probability and resight data) (Burgar, 2021; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="L270" s="5" t="s">
@@ -41618,7 +41579,7 @@
         <v>784</v>
       </c>
       <c r="G271" s="4" t="str">
-        <f>B271&amp;"."&amp;C271</f>
+        <f t="shared" si="10"/>
         <v>7.12</v>
       </c>
       <c r="H271" s="3" t="s">
@@ -41629,7 +41590,7 @@
         <v>1160</v>
       </c>
       <c r="K271" s="3" t="str">
-        <f>J271&amp;" ("&amp;AR271&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>&lt;b&gt;≥ 1 month per survey (presuming multiple surveys completed) (minumum)&lt;/b&gt; (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="L271" s="26" t="s">
@@ -41712,7 +41673,7 @@
         <v>785</v>
       </c>
       <c r="G272" s="4" t="str">
-        <f>B272&amp;"."&amp;C272</f>
+        <f t="shared" si="10"/>
         <v>7.13</v>
       </c>
       <c r="H272" s="3" t="s">
@@ -41723,7 +41684,7 @@
         <v>205</v>
       </c>
       <c r="K272" s="3" t="str">
-        <f>J272&amp;" ("&amp;AR272&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Ideally &gt; 12 months (based on minimum for SCR) (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="L272" s="5" t="s">
@@ -41802,7 +41763,7 @@
         <v>786</v>
       </c>
       <c r="G273" s="4" t="str">
-        <f>B273&amp;"."&amp;C273</f>
+        <f t="shared" si="10"/>
         <v>7.14</v>
       </c>
       <c r="H273" s="3" t="s">
@@ -41813,7 +41774,7 @@
         <v>283</v>
       </c>
       <c r="K273" s="3" t="str">
-        <f>J273&amp;" ("&amp;AR273&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Ideally 1-3 months (depending on time required to maximize detections while minimizing the violation of "population closure" assumption) (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="L273" s="5" t="s">
@@ -41894,7 +41855,7 @@
         <v>938</v>
       </c>
       <c r="G274" s="4" t="str">
-        <f>B274&amp;"."&amp;C274</f>
+        <f t="shared" si="10"/>
         <v>16.1</v>
       </c>
       <c r="H274" s="3" t="s">
@@ -41905,7 +41866,7 @@
         <v>101</v>
       </c>
       <c r="K274" s="3" t="str">
-        <f>J274&amp;" ("&amp;AR274&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Random with respect to movement (Loonam et al., 2021)</v>
       </c>
       <c r="L274" s="3" t="s">
@@ -41986,7 +41947,7 @@
         <v>939</v>
       </c>
       <c r="G275" s="4" t="str">
-        <f>B275&amp;"."&amp;C275</f>
+        <f t="shared" si="10"/>
         <v>16.2</v>
       </c>
       <c r="H275" s="3" t="s">
@@ -41997,7 +41958,7 @@
         <v>72</v>
       </c>
       <c r="K275" s="3" t="str">
-        <f>J275&amp;" ("&amp;AR275&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Systematic (Loonam et al., 2021)</v>
       </c>
       <c r="L275" s="3" t="s">
@@ -42076,7 +42037,7 @@
         <v>940</v>
       </c>
       <c r="G276" s="4" t="str">
-        <f>B276&amp;"."&amp;C276</f>
+        <f t="shared" si="10"/>
         <v>16.3</v>
       </c>
       <c r="H276" s="3" t="s">
@@ -42087,7 +42048,7 @@
         <v>55</v>
       </c>
       <c r="K276" s="3" t="str">
-        <f>J276&amp;" ("&amp;AR276&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Systematic random (Loonam et al., 2021)</v>
       </c>
       <c r="L276" s="3" t="s">
@@ -42166,7 +42127,7 @@
         <v>946</v>
       </c>
       <c r="G277" s="4" t="str">
-        <f>B277&amp;"."&amp;C277</f>
+        <f t="shared" si="10"/>
         <v>16.4</v>
       </c>
       <c r="H277" s="3" t="s">
@@ -42177,7 +42138,7 @@
         <v>355</v>
       </c>
       <c r="K277" s="3" t="str">
-        <f>J277&amp;" ("&amp;AR277&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>Dependent on species density and distribution (e.g., more cameras with lower density and more clumped distribution) (Moeller et al., 2018)</v>
       </c>
       <c r="L277" s="7" t="s">
@@ -42256,7 +42217,7 @@
         <v>941</v>
       </c>
       <c r="G278" s="4" t="str">
-        <f>B278&amp;"."&amp;C278</f>
+        <f t="shared" si="10"/>
         <v>16.5</v>
       </c>
       <c r="H278" s="3" t="s">
@@ -42267,7 +42228,7 @@
         <v>1103</v>
       </c>
       <c r="K278" s="3" t="str">
-        <f>J278&amp;" ("&amp;AR278&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>No requirements (uses instantaneous snapshots) (Moeller et al., 2018)</v>
       </c>
       <c r="L278" s="3" t="s">
@@ -42346,7 +42307,7 @@
         <v>945</v>
       </c>
       <c r="G279" s="4" t="str">
-        <f>B279&amp;"."&amp;C279</f>
+        <f t="shared" ref="G279:G317" si="12">B279&amp;"."&amp;C279</f>
         <v>16.6</v>
       </c>
       <c r="H279" s="3" t="s">
@@ -42357,7 +42318,7 @@
         <v>1156</v>
       </c>
       <c r="K279" s="3" t="str">
-        <f>J279&amp;" ("&amp;AR279&amp;")"</f>
+        <f t="shared" ref="K279:K317" si="13">J279&amp;" ("&amp;AR279&amp;")"</f>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Howe et al., 2017)</v>
       </c>
       <c r="L279" s="3" t="s">
@@ -42438,7 +42399,7 @@
         <v>942</v>
       </c>
       <c r="G280" s="4" t="str">
-        <f>B280&amp;"."&amp;C280</f>
+        <f t="shared" si="12"/>
         <v>16.7</v>
       </c>
       <c r="H280" s="3" t="s">
@@ -42449,7 +42410,7 @@
         <v>1101</v>
       </c>
       <c r="K280" s="3" t="str">
-        <f>J280&amp;" ("&amp;AR280&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Dependent on species' density and distribution (e.g., more cameras with lower density and more clumped distribution) (Howe et al., 2017)</v>
       </c>
       <c r="L280" s="5" t="s">
@@ -42530,7 +42491,7 @@
         <v>943</v>
       </c>
       <c r="G281" s="4" t="str">
-        <f>B281&amp;"."&amp;C281</f>
+        <f t="shared" si="12"/>
         <v>16.8</v>
       </c>
       <c r="H281" s="3" t="s">
@@ -42541,7 +42502,7 @@
         <v>1155</v>
       </c>
       <c r="K281" s="3" t="str">
-        <f>J281&amp;" ("&amp;AR281&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&lt;b&gt;≥ 20 (minumum)&lt;/b&gt; (Moeller et al., 2018)</v>
       </c>
       <c r="L281" s="5" t="s">
@@ -42624,7 +42585,7 @@
         <v>944</v>
       </c>
       <c r="G282" s="4" t="str">
-        <f>B282&amp;"."&amp;C282</f>
+        <f t="shared" si="12"/>
         <v>16.9</v>
       </c>
       <c r="H282" s="3" t="s">
@@ -42635,7 +42596,7 @@
         <v>169</v>
       </c>
       <c r="K282" s="3" t="str">
-        <f>J282&amp;" ("&amp;AR282&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Ideally &gt; 50 (Moeller et al., 2018)</v>
       </c>
       <c r="L282" s="5" t="s">
@@ -42714,7 +42675,7 @@
         <v>947</v>
       </c>
       <c r="G283" s="4" t="str">
-        <f>B283&amp;"."&amp;C283</f>
+        <f t="shared" si="12"/>
         <v>16.10</v>
       </c>
       <c r="H283" s="3" t="s">
@@ -42725,7 +42686,7 @@
         <v>1104</v>
       </c>
       <c r="K283" s="3" t="str">
-        <f>J283&amp;" ("&amp;AR283&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>No requirements (Moeller et al., 2018)</v>
       </c>
       <c r="L283" s="5" t="s">
@@ -42804,7 +42765,7 @@
         <v>896</v>
       </c>
       <c r="G284" s="4" t="str">
-        <f>B284&amp;"."&amp;C284</f>
+        <f t="shared" si="12"/>
         <v>13.1</v>
       </c>
       <c r="H284" s="3" t="s">
@@ -42815,7 +42776,7 @@
         <v>88</v>
       </c>
       <c r="K284" s="3" t="str">
-        <f>J284&amp;" ("&amp;AR284&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Random or stratified random (representative) with respect to movement (Becker et al., 2022)</v>
       </c>
       <c r="L284" s="3" t="s">
@@ -42896,7 +42857,7 @@
         <v>897</v>
       </c>
       <c r="G285" s="4" t="str">
-        <f>B285&amp;"."&amp;C285</f>
+        <f t="shared" si="12"/>
         <v>13.2</v>
       </c>
       <c r="H285" s="3" t="s">
@@ -42907,7 +42868,7 @@
         <v>88</v>
       </c>
       <c r="K285" s="3" t="str">
-        <f>J285&amp;" ("&amp;AR285&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Random or stratified random (representative) with respect to movement (Becker et al., 2022)</v>
       </c>
       <c r="L285" s="3" t="s">
@@ -42988,7 +42949,7 @@
         <v>916</v>
       </c>
       <c r="G286" s="4" t="str">
-        <f>B286&amp;"."&amp;C286</f>
+        <f t="shared" si="12"/>
         <v>13.8</v>
       </c>
       <c r="H286" s="3" t="s">
@@ -42999,7 +42960,7 @@
         <v>1109</v>
       </c>
       <c r="K286" s="3" t="str">
-        <f>J286&amp;" ("&amp;AR286&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Note: these recommendations are the same as REM (Becker et al., 2022; Moeller et al., 2023)</v>
       </c>
       <c r="L286" s="7" t="s">
@@ -43080,7 +43041,7 @@
         <v>911</v>
       </c>
       <c r="G287" s="4" t="str">
-        <f>B287&amp;"."&amp;C287</f>
+        <f t="shared" si="12"/>
         <v>13.3</v>
       </c>
       <c r="H287" s="3" t="s">
@@ -43091,7 +43052,7 @@
         <v>1159</v>
       </c>
       <c r="K287" s="3" t="str">
-        <f>J287&amp;" ("&amp;AR287&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&lt;b&gt;≥ 10 detections (minumum)&lt;/b&gt; (REM: Rowcliffe et al., 2008; Rovero et al., 2013)</v>
       </c>
       <c r="L287" s="7" t="s">
@@ -43178,7 +43139,7 @@
         <v>912</v>
       </c>
       <c r="G288" s="4" t="str">
-        <f>B288&amp;"."&amp;C288</f>
+        <f t="shared" si="12"/>
         <v>13.4</v>
       </c>
       <c r="H288" s="3" t="s">
@@ -43189,7 +43150,7 @@
         <v>350</v>
       </c>
       <c r="K288" s="3" t="str">
-        <f>J288&amp;" ("&amp;AR288&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Ideally &gt; 20 detections (REM: Rowcliffe et al., 2008; Rovero et al., 2013)</v>
       </c>
       <c r="L288" s="7" t="s">
@@ -43274,7 +43235,7 @@
         <v>913</v>
       </c>
       <c r="G289" s="4" t="str">
-        <f>B289&amp;"."&amp;C289</f>
+        <f t="shared" si="12"/>
         <v>13.5</v>
       </c>
       <c r="H289" s="3" t="s">
@@ -43285,7 +43246,7 @@
         <v>1113</v>
       </c>
       <c r="K289" s="3" t="str">
-        <f>J289&amp;" ("&amp;AR289&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Often 2000 (REM: Rowcliffe et al., 2008; Rovero et al., 2013)</v>
       </c>
       <c r="L289" s="7" t="s">
@@ -43366,7 +43327,7 @@
         <v>914</v>
       </c>
       <c r="G290" s="4" t="str">
-        <f>B290&amp;"."&amp;C290</f>
+        <f t="shared" si="12"/>
         <v>13.6</v>
       </c>
       <c r="H290" s="3" t="s">
@@ -43377,7 +43338,7 @@
         <v>1112</v>
       </c>
       <c r="K290" s="3" t="str">
-        <f>J290&amp;" ("&amp;AR290&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>1000-10000 (REM: Rowcliffe et al., 2016)</v>
       </c>
       <c r="L290" s="7" t="s">
@@ -43456,7 +43417,7 @@
         <v>915</v>
       </c>
       <c r="G291" s="4" t="str">
-        <f>B291&amp;"."&amp;C291</f>
+        <f t="shared" si="12"/>
         <v>13.7</v>
       </c>
       <c r="H291" s="3" t="s">
@@ -43467,7 +43428,7 @@
         <v>1060</v>
       </c>
       <c r="K291" s="3" t="str">
-        <f>J291&amp;" ("&amp;AR291&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&gt; 2000 (REM: Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L291" s="7" t="s">
@@ -43552,7 +43513,7 @@
         <v>904</v>
       </c>
       <c r="G292" s="4" t="str">
-        <f>B292&amp;"."&amp;C292</f>
+        <f t="shared" si="12"/>
         <v>13.15</v>
       </c>
       <c r="H292" s="3" t="s">
@@ -43563,7 +43524,7 @@
         <v>1109</v>
       </c>
       <c r="K292" s="3" t="str">
-        <f>J292&amp;" ("&amp;AR292&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Note: these recommendations are the same as REM (Becker et al., 2022; Moeller et al., 2023)</v>
       </c>
       <c r="L292" s="3" t="s">
@@ -43644,7 +43605,7 @@
         <v>898</v>
       </c>
       <c r="G293" s="4" t="str">
-        <f>B293&amp;"."&amp;C293</f>
+        <f t="shared" si="12"/>
         <v>13.9</v>
       </c>
       <c r="H293" s="3" t="s">
@@ -43655,7 +43616,7 @@
         <v>1156</v>
       </c>
       <c r="K293" s="3" t="str">
-        <f>J293&amp;" ("&amp;AR293&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L293" s="3" t="s">
@@ -43738,7 +43699,7 @@
         <v>899</v>
       </c>
       <c r="G294" s="4" t="str">
-        <f>B294&amp;"."&amp;C294</f>
+        <f t="shared" si="12"/>
         <v>13.10</v>
       </c>
       <c r="H294" s="3" t="s">
@@ -43749,7 +43710,7 @@
         <v>1053</v>
       </c>
       <c r="K294" s="3" t="str">
-        <f>J294&amp;" ("&amp;AR294&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Ideally ≥ 1 km (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L294" s="3" t="s">
@@ -43830,7 +43791,7 @@
         <v>900</v>
       </c>
       <c r="G295" s="4" t="str">
-        <f>B295&amp;"."&amp;C295</f>
+        <f t="shared" si="12"/>
         <v>13.11</v>
       </c>
       <c r="H295" s="3" t="s">
@@ -43841,7 +43802,7 @@
         <v>362</v>
       </c>
       <c r="K295" s="3" t="str">
-        <f>J295&amp;" ("&amp;AR295&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Spatially independent (Rowcliffe et al., 2013)</v>
       </c>
       <c r="L295" s="3" t="s">
@@ -43924,7 +43885,7 @@
         <v>901</v>
       </c>
       <c r="G296" s="4" t="str">
-        <f>B296&amp;"."&amp;C296</f>
+        <f t="shared" si="12"/>
         <v>13.12</v>
       </c>
       <c r="H296" s="3" t="s">
@@ -43935,7 +43896,7 @@
         <v>164</v>
       </c>
       <c r="K296" s="3" t="str">
-        <f>J296&amp;" ("&amp;AR296&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&gt; home range diameter (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L296" s="3" t="s">
@@ -44016,7 +43977,7 @@
         <v>902</v>
       </c>
       <c r="G297" s="4" t="str">
-        <f>B297&amp;"."&amp;C297</f>
+        <f t="shared" si="12"/>
         <v>13.13</v>
       </c>
       <c r="H297" s="3" t="s">
@@ -44027,7 +43988,7 @@
         <v>1121</v>
       </c>
       <c r="K297" s="3" t="str">
-        <f>J297&amp;" ("&amp;AR297&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>1-2 km (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L297" s="3" t="s">
@@ -44110,7 +44071,7 @@
         <v>903</v>
       </c>
       <c r="G298" s="4" t="str">
-        <f>B298&amp;"."&amp;C298</f>
+        <f t="shared" si="12"/>
         <v>13.14</v>
       </c>
       <c r="H298" s="3" t="s">
@@ -44121,7 +44082,7 @@
         <v>1119</v>
       </c>
       <c r="K298" s="3" t="str">
-        <f>J298&amp;" ("&amp;AR298&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>1-2 km or closer (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L298" s="3" t="s">
@@ -44204,7 +44165,7 @@
         <v>909</v>
       </c>
       <c r="G299" s="4" t="str">
-        <f>B299&amp;"."&amp;C299</f>
+        <f t="shared" si="12"/>
         <v>13.16</v>
       </c>
       <c r="H299" s="3" t="s">
@@ -44215,7 +44176,7 @@
         <v>1156</v>
       </c>
       <c r="K299" s="3" t="str">
-        <f>J299&amp;" ("&amp;AR299&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Becker et al., 2022; Moeller et al., 2023)</v>
       </c>
       <c r="L299" s="3" t="s">
@@ -44296,7 +44257,7 @@
         <v>910</v>
       </c>
       <c r="G300" s="4" t="str">
-        <f>B300&amp;"."&amp;C300</f>
+        <f t="shared" si="12"/>
         <v>13.17</v>
       </c>
       <c r="H300" s="3" t="s">
@@ -44307,7 +44268,7 @@
         <v>1052</v>
       </c>
       <c r="K300" s="3" t="str">
-        <f>J300&amp;" ("&amp;AR300&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Ideally ≥ 30 (Becker et al., 2022; Moeller et al., 2023)</v>
       </c>
       <c r="L300" s="3" t="s">
@@ -44386,7 +44347,7 @@
         <v>908</v>
       </c>
       <c r="G301" s="4" t="str">
-        <f>B301&amp;"."&amp;C301</f>
+        <f t="shared" si="12"/>
         <v>13.21</v>
       </c>
       <c r="H301" s="3" t="s">
@@ -44397,7 +44358,7 @@
         <v>1109</v>
       </c>
       <c r="K301" s="3" t="str">
-        <f>J301&amp;" ("&amp;AR301&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Note: these recommendations are the same as REM (Becker et al., 2022; Moeller et al., 2023)</v>
       </c>
       <c r="L301" s="5" t="s">
@@ -44478,7 +44439,7 @@
         <v>905</v>
       </c>
       <c r="G302" s="4" t="str">
-        <f>B302&amp;"."&amp;C302</f>
+        <f t="shared" si="12"/>
         <v>13.18</v>
       </c>
       <c r="H302" s="3" t="s">
@@ -44489,7 +44450,7 @@
         <v>1155</v>
       </c>
       <c r="K302" s="3" t="str">
-        <f>J302&amp;" ("&amp;AR302&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&lt;b&gt;≥ 20 (minumum)&lt;/b&gt; (REM: Rowcliffe et al., 2008; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L302" s="5" t="s">
@@ -44574,7 +44535,7 @@
         <v>906</v>
       </c>
       <c r="G303" s="4" t="str">
-        <f>B303&amp;"."&amp;C303</f>
+        <f t="shared" si="12"/>
         <v>13.19</v>
       </c>
       <c r="H303" s="3" t="s">
@@ -44585,7 +44546,7 @@
         <v>169</v>
       </c>
       <c r="K303" s="3" t="str">
-        <f>J303&amp;" ("&amp;AR303&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Ideally &gt; 50 (REM: Rowcliffe et al., 2008; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L303" s="5" t="s">
@@ -44666,7 +44627,7 @@
         <v>907</v>
       </c>
       <c r="G304" s="4" t="str">
-        <f>B304&amp;"."&amp;C304</f>
+        <f t="shared" si="12"/>
         <v>13.20</v>
       </c>
       <c r="H304" s="3" t="s">
@@ -44677,7 +44638,7 @@
         <v>357</v>
       </c>
       <c r="K304" s="3" t="str">
-        <f>J304&amp;" ("&amp;AR304&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Dependent on species' density (REM: Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L304" s="5" t="s">
@@ -44760,7 +44721,7 @@
         <v>917</v>
       </c>
       <c r="G305" s="4" t="str">
-        <f>B305&amp;"."&amp;C305</f>
+        <f t="shared" si="12"/>
         <v>13.22</v>
       </c>
       <c r="H305" s="3" t="s">
@@ -44771,7 +44732,7 @@
         <v>330</v>
       </c>
       <c r="K305" s="3" t="str">
-        <f>J305&amp;" ("&amp;AR305&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Ideally &lt; 12 months (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="L305" s="5" t="s">
@@ -44852,7 +44813,7 @@
         <v>918</v>
       </c>
       <c r="G306" s="4" t="str">
-        <f>B306&amp;"."&amp;C306</f>
+        <f t="shared" si="12"/>
         <v>13.23</v>
       </c>
       <c r="H306" s="3" t="s">
@@ -44863,7 +44824,7 @@
         <v>1157</v>
       </c>
       <c r="K306" s="3" t="str">
-        <f>J306&amp;" ("&amp;AR306&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&lt;b&gt;No maximum&lt;/b&gt; (Rowcliffe et al., 2008)</v>
       </c>
       <c r="L306" s="5" t="s">
@@ -44946,7 +44907,7 @@
         <v>1116</v>
       </c>
       <c r="G307" s="4" t="str">
-        <f>B307&amp;"."&amp;C307</f>
+        <f t="shared" si="12"/>
         <v>13.24</v>
       </c>
       <c r="H307" s="3" t="s">
@@ -44957,7 +44918,7 @@
         <v>1157</v>
       </c>
       <c r="K307" s="3" t="str">
-        <f>J307&amp;" ("&amp;AR307&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&lt;b&gt;No maximum&lt;/b&gt; (Rowcliffe et al., 2008)</v>
       </c>
       <c r="L307" s="5" t="s">
@@ -45040,7 +45001,7 @@
         <v>928</v>
       </c>
       <c r="G308" s="4" t="str">
-        <f>B308&amp;"."&amp;C308</f>
+        <f t="shared" si="12"/>
         <v>15.1</v>
       </c>
       <c r="H308" s="3" t="s">
@@ -45051,7 +45012,7 @@
         <v>101</v>
       </c>
       <c r="K308" s="3" t="str">
-        <f>J308&amp;" ("&amp;AR308&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Random with respect to movement (Loonam et al., 2021)</v>
       </c>
       <c r="L308" s="3" t="s">
@@ -45132,7 +45093,7 @@
         <v>929</v>
       </c>
       <c r="G309" s="4" t="str">
-        <f>B309&amp;"."&amp;C309</f>
+        <f t="shared" si="12"/>
         <v>15.2</v>
       </c>
       <c r="H309" s="3" t="s">
@@ -45143,7 +45104,7 @@
         <v>72</v>
       </c>
       <c r="K309" s="3" t="str">
-        <f>J309&amp;" ("&amp;AR309&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Systematic (Loonam et al., 2021)</v>
       </c>
       <c r="L309" s="3" t="s">
@@ -45222,7 +45183,7 @@
         <v>930</v>
       </c>
       <c r="G310" s="4" t="str">
-        <f>B310&amp;"."&amp;C310</f>
+        <f t="shared" si="12"/>
         <v>15.3</v>
       </c>
       <c r="H310" s="3" t="s">
@@ -45233,7 +45194,7 @@
         <v>55</v>
       </c>
       <c r="K310" s="3" t="str">
-        <f>J310&amp;" ("&amp;AR310&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Systematic random (Loonam et al., 2021)</v>
       </c>
       <c r="L310" s="3" t="s">
@@ -45312,7 +45273,7 @@
         <v>936</v>
       </c>
       <c r="G311" s="4" t="str">
-        <f>B311&amp;"."&amp;C311</f>
+        <f t="shared" si="12"/>
         <v>15.4</v>
       </c>
       <c r="H311" s="3" t="s">
@@ -45323,7 +45284,7 @@
         <v>355</v>
       </c>
       <c r="K311" s="3" t="str">
-        <f>J311&amp;" ("&amp;AR311&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Dependent on species density and distribution (e.g., more cameras with lower density and more clumped distribution) (Moeller et al., 2018)</v>
       </c>
       <c r="L311" s="7" t="s">
@@ -45402,7 +45363,7 @@
         <v>931</v>
       </c>
       <c r="G312" s="4" t="str">
-        <f>B312&amp;"."&amp;C312</f>
+        <f t="shared" si="12"/>
         <v>15.5</v>
       </c>
       <c r="H312" s="3" t="s">
@@ -45413,7 +45374,7 @@
         <v>1156</v>
       </c>
       <c r="K312" s="3" t="str">
-        <f>J312&amp;" ("&amp;AR312&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Howe et al., 2017)</v>
       </c>
       <c r="L312" s="3" t="s">
@@ -45496,7 +45457,7 @@
         <v>935</v>
       </c>
       <c r="G313" s="4" t="str">
-        <f>B313&amp;"."&amp;C313</f>
+        <f t="shared" si="12"/>
         <v>15.6</v>
       </c>
       <c r="H313" s="3" t="s">
@@ -45507,7 +45468,7 @@
         <v>1156</v>
       </c>
       <c r="K313" s="3" t="str">
-        <f>J313&amp;" ("&amp;AR313&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Howe et al., 2017)</v>
       </c>
       <c r="L313" s="3" t="s">
@@ -45588,7 +45549,7 @@
         <v>932</v>
       </c>
       <c r="G314" s="4" t="str">
-        <f>B314&amp;"."&amp;C314</f>
+        <f t="shared" si="12"/>
         <v>15.7</v>
       </c>
       <c r="H314" s="3" t="s">
@@ -45599,7 +45560,7 @@
         <v>1101</v>
       </c>
       <c r="K314" s="3" t="str">
-        <f>J314&amp;" ("&amp;AR314&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Dependent on species' density and distribution (e.g., more cameras with lower density and more clumped distribution) (Howe et al., 2017)</v>
       </c>
       <c r="L314" s="5" t="s">
@@ -45680,7 +45641,7 @@
         <v>933</v>
       </c>
       <c r="G315" s="4" t="str">
-        <f>B315&amp;"."&amp;C315</f>
+        <f t="shared" si="12"/>
         <v>15.8</v>
       </c>
       <c r="H315" s="3" t="s">
@@ -45691,7 +45652,7 @@
         <v>1155</v>
       </c>
       <c r="K315" s="3" t="str">
-        <f>J315&amp;" ("&amp;AR315&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&lt;b&gt;≥ 20 (minumum)&lt;/b&gt; (Moeller et al., 2018)</v>
       </c>
       <c r="L315" s="5" t="s">
@@ -45774,7 +45735,7 @@
         <v>934</v>
       </c>
       <c r="G316" s="4" t="str">
-        <f>B316&amp;"."&amp;C316</f>
+        <f t="shared" si="12"/>
         <v>15.9</v>
       </c>
       <c r="H316" s="3" t="s">
@@ -45785,7 +45746,7 @@
         <v>169</v>
       </c>
       <c r="K316" s="3" t="str">
-        <f>J316&amp;" ("&amp;AR316&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Ideally &gt; 50 (Moeller et al., 2018)</v>
       </c>
       <c r="L316" s="5" t="s">
@@ -45864,7 +45825,7 @@
         <v>937</v>
       </c>
       <c r="G317" s="4" t="str">
-        <f>B317&amp;"."&amp;C317</f>
+        <f t="shared" si="12"/>
         <v>15.10</v>
       </c>
       <c r="H317" s="3" t="s">
@@ -45875,7 +45836,7 @@
         <v>1104</v>
       </c>
       <c r="K317" s="3" t="str">
-        <f>J317&amp;" ("&amp;AR317&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>No requirements (Moeller et al., 2018)</v>
       </c>
       <c r="L317" s="5" t="s">
@@ -46623,17 +46584,17 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E3:F317">
-    <cfRule type="containsText" dxfId="112" priority="9" operator="containsText" text="num_cams">
+    <cfRule type="containsText" dxfId="112" priority="12" operator="containsText" text="survey_duration">
+      <formula>NOT(ISERROR(SEARCH(("survey_duration"),(E3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="9" operator="containsText" text="num_cams">
       <formula>NOT(ISERROR(SEARCH(("num_cams"),(E3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="10" operator="containsText" text="cam_arrange">
+    <cfRule type="containsText" dxfId="110" priority="10" operator="containsText" text="cam_arrange">
       <formula>NOT(ISERROR(SEARCH(("cam_arrange"),(E3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="11" operator="containsText" text="camdays_per_loc">
+    <cfRule type="containsText" dxfId="109" priority="11" operator="containsText" text="camdays_per_loc">
       <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(E3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="12" operator="containsText" text="survey_duration">
-      <formula>NOT(ISERROR(SEARCH(("survey_duration"),(E3))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="108" priority="13" operator="containsText" text="cam_days_ttl">
       <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(E3))))</formula>
@@ -46642,21 +46603,21 @@
       <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:S313 I1:J317 G3:H317 E1:H2">
-    <cfRule type="containsText" dxfId="106" priority="79" operator="containsText" text="cam_arrange">
-      <formula>NOT(ISERROR(SEARCH(("cam_arrange"),(E1))))</formula>
+  <conditionalFormatting sqref="E1:H2 L1:S313 I1:J317 G3:H317">
+    <cfRule type="containsText" dxfId="106" priority="83" operator="containsText" text="cam_spacing">
+      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(E1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="80" operator="containsText" text="camdays_per_loc">
-      <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(E1))))</formula>
+    <cfRule type="containsText" dxfId="105" priority="82" operator="containsText" text="cam_days_ttl">
+      <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(E1))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="104" priority="81" operator="containsText" text="survey_duration">
       <formula>NOT(ISERROR(SEARCH(("survey_duration"),(E1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="82" operator="containsText" text="cam_days_ttl">
-      <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(E1))))</formula>
+    <cfRule type="containsText" dxfId="103" priority="79" operator="containsText" text="cam_arrange">
+      <formula>NOT(ISERROR(SEARCH(("cam_arrange"),(E1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="83" operator="containsText" text="cam_spacing">
-      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(E1))))</formula>
+    <cfRule type="containsText" dxfId="102" priority="80" operator="containsText" text="camdays_per_loc">
+      <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1">
@@ -46685,23 +46646,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H288:I289 Q288:R289">
-    <cfRule type="containsText" dxfId="94" priority="54" operator="containsText" text="num_cams">
-      <formula>NOT(ISERROR(SEARCH(("num_cams"),(H288))))</formula>
+    <cfRule type="containsText" dxfId="94" priority="56" operator="containsText" text="camdays_per_loc">
+      <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(H288))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="93" priority="55" operator="containsText" text="cam_arrange">
       <formula>NOT(ISERROR(SEARCH(("cam_arrange"),(H288))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="56" operator="containsText" text="camdays_per_loc">
-      <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(H288))))</formula>
+    <cfRule type="containsText" dxfId="92" priority="54" operator="containsText" text="num_cams">
+      <formula>NOT(ISERROR(SEARCH(("num_cams"),(H288))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="57" operator="containsText" text="survey_duration">
-      <formula>NOT(ISERROR(SEARCH(("survey_duration"),(H288))))</formula>
+    <cfRule type="containsText" dxfId="91" priority="59" operator="containsText" text="cam_spacing">
+      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(H288))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="90" priority="58" operator="containsText" text="cam_days_ttl">
       <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(H288))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="59" operator="containsText" text="cam_spacing">
-      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(H288))))</formula>
+    <cfRule type="containsText" dxfId="89" priority="57" operator="containsText" text="survey_duration">
+      <formula>NOT(ISERROR(SEARCH(("survey_duration"),(H288))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
@@ -46743,14 +46704,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J62 M62:O62">
-    <cfRule type="containsText" dxfId="80" priority="61" operator="containsText" text="**Minumum -**">
-      <formula>NOT(ISERROR(SEARCH("**Minumum -**",J62)))</formula>
+    <cfRule type="containsText" dxfId="80" priority="63" operator="containsText" text="hr_size">
+      <formula>NOT(ISERROR(SEARCH("hr_size",J62)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="79" priority="62" operator="equal">
       <formula>"min"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="63" operator="containsText" text="hr_size">
-      <formula>NOT(ISERROR(SEARCH("hr_size",J62)))</formula>
+    <cfRule type="containsText" dxfId="78" priority="61" operator="containsText" text="**Minumum -**">
+      <formula>NOT(ISERROR(SEARCH("**Minumum -**",J62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L30 H20:I59 J106:J155 M106:O155 J190:J213 M190:O213 J215 M215:O215 J218:J222 M218:O222 L247:L313 J285 M285:O285 D106:E158 AT1:AT317 AR3:AR37 AQ54:AQ313 AR247:AR313">
@@ -46779,11 +46740,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39">
-    <cfRule type="containsText" dxfId="72" priority="70" operator="containsText" text="hr_size">
+    <cfRule type="cellIs" dxfId="72" priority="71" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="70" operator="containsText" text="hr_size">
       <formula>NOT(ISERROR(SEARCH("hr_size",L39)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="71" operator="equal">
-      <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40:L58 AR1:AS2">
@@ -46869,11 +46830,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V251">
-    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="sp_occ_restr">
+    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="hr_size">
+      <formula>NOT(ISERROR(SEARCH("hr_size",V251)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="sp_occ_restr">
       <formula>NOT(ISERROR(SEARCH("sp_occ_restr",V251)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="52" operator="containsText" text="hr_size">
-      <formula>NOT(ISERROR(SEARCH("hr_size",V251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK299:AK313">
@@ -46916,7 +46877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09229B9-6295-49B2-8C83-1E1F9DC8CECF}">
   <sheetPr filterMode="1">
     <tabColor rgb="FFCCCCFF"/>
@@ -46925,7 +46886,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
@@ -46957,7 +46918,7 @@
       <c r="E1" s="73" t="s">
         <v>1189</v>
       </c>
-      <c r="F1" s="144" t="s">
+      <c r="F1" s="141" t="s">
         <v>1190</v>
       </c>
       <c r="G1" s="72" t="s">
@@ -49237,7 +49198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4891AB95-2A25-43EA-A42B-BB920B2D3563}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -49368,7 +49329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFACE9C-5F9C-4874-B246-FEF924E0E915}">
   <dimension ref="A1:I30"/>
   <sheetViews>
@@ -50264,7 +50225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EB3A4F-C62E-4F58-81FF-FBA3015C62B5}">
   <dimension ref="A1:D37"/>
   <sheetViews>
@@ -50812,7 +50773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB99215-5779-42A6-9088-454918C66E3D}">
   <dimension ref="A1:H14"/>
   <sheetViews>
